--- a/BackTest/2020-01-13 BackTest BTG.xlsx
+++ b/BackTest/2020-01-13 BackTest BTG.xlsx
@@ -6967,7 +6967,7 @@
         <v>0</v>
       </c>
       <c r="J188" t="n">
-        <v>7125</v>
+        <v>7140</v>
       </c>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr">
@@ -7008,7 +7008,7 @@
         <v>0</v>
       </c>
       <c r="J189" t="n">
-        <v>7185</v>
+        <v>7140</v>
       </c>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr">
@@ -7049,7 +7049,7 @@
         <v>0</v>
       </c>
       <c r="J190" t="n">
-        <v>7190</v>
+        <v>7185</v>
       </c>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr">
@@ -7090,7 +7090,7 @@
         <v>0</v>
       </c>
       <c r="J191" t="n">
-        <v>7220</v>
+        <v>7190</v>
       </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr">
@@ -7125,14 +7125,12 @@
         <v>7289.833333333333</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="n">
-        <v>7205</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr">
         <is>
@@ -7172,7 +7170,7 @@
         <v>0</v>
       </c>
       <c r="J193" t="n">
-        <v>7210</v>
+        <v>7205</v>
       </c>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr">
@@ -7207,14 +7205,12 @@
         <v>7285.833333333333</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="n">
-        <v>7205</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr">
         <is>
@@ -7248,14 +7244,12 @@
         <v>7283.833333333333</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="n">
-        <v>7210</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr">
         <is>
@@ -7289,14 +7283,12 @@
         <v>7282.083333333333</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="n">
-        <v>7210</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr">
         <is>
@@ -7330,14 +7322,12 @@
         <v>7280.583333333333</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="n">
-        <v>7245</v>
-      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr">
         <is>
@@ -7371,14 +7361,12 @@
         <v>7277.583333333333</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="n">
-        <v>7245</v>
-      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr">
         <is>
@@ -7412,14 +7400,12 @@
         <v>7275</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="n">
-        <v>7245</v>
-      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr">
         <is>
@@ -7453,14 +7439,12 @@
         <v>7272.166666666667</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="n">
-        <v>7215</v>
-      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr">
         <is>
@@ -7533,14 +7517,12 @@
         <v>7267.5</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="n">
-        <v>7220</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr">
         <is>
@@ -7574,14 +7556,12 @@
         <v>7264.916666666667</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="n">
-        <v>7225</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr">
         <is>
@@ -7615,14 +7595,12 @@
         <v>7262.25</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="n">
-        <v>7235</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr">
         <is>
@@ -7656,14 +7634,12 @@
         <v>7259.416666666667</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="n">
-        <v>7220</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr">
         <is>
@@ -7697,14 +7673,12 @@
         <v>7257.083333333333</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="n">
-        <v>7185</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr">
         <is>
@@ -7738,14 +7712,12 @@
         <v>7255.166666666667</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="n">
-        <v>7190</v>
-      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr">
         <is>
@@ -7779,14 +7751,12 @@
         <v>7252.5</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="n">
-        <v>7190</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr">
         <is>
@@ -7820,14 +7790,12 @@
         <v>7249.833333333333</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="n">
-        <v>7240</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr">
         <is>
@@ -7861,14 +7829,12 @@
         <v>7247.25</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="n">
-        <v>7240</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr">
         <is>
@@ -7902,14 +7868,12 @@
         <v>7244.666666666667</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="n">
-        <v>7220</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr">
         <is>
@@ -7943,14 +7907,12 @@
         <v>7242.583333333333</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="n">
-        <v>7225</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr">
         <is>
@@ -7984,14 +7946,12 @@
         <v>7239.916666666667</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="n">
-        <v>7215</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr">
         <is>
@@ -8025,14 +7985,12 @@
         <v>7237.25</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="n">
-        <v>7215</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr">
         <is>
@@ -8066,14 +8024,12 @@
         <v>7235.333333333333</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="n">
-        <v>7215</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr">
         <is>
@@ -8107,14 +8063,12 @@
         <v>7232.583333333333</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="n">
-        <v>7215</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr">
         <is>
@@ -8148,14 +8102,12 @@
         <v>7230.083333333333</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="n">
-        <v>7220</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr">
         <is>
@@ -8189,14 +8141,12 @@
         <v>7227.583333333333</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="n">
-        <v>7220</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr">
         <is>
@@ -8230,14 +8180,12 @@
         <v>7226.166666666667</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="n">
-        <v>7220</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr">
         <is>
@@ -8271,14 +8219,12 @@
         <v>7224.333333333333</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="n">
-        <v>7190</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr">
         <is>
@@ -8312,14 +8258,12 @@
         <v>7222.666666666667</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="n">
-        <v>7185</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr">
         <is>
@@ -8353,14 +8297,12 @@
         <v>7221.083333333333</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="n">
-        <v>7185</v>
-      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr">
         <is>
@@ -8394,14 +8336,12 @@
         <v>7219.5</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="n">
-        <v>7185</v>
-      </c>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr">
         <is>
@@ -8435,14 +8375,12 @@
         <v>7217.583333333333</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="n">
-        <v>7165</v>
-      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr">
         <is>
@@ -8476,14 +8414,12 @@
         <v>7215.666666666667</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="n">
-        <v>7165</v>
-      </c>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr">
         <is>
@@ -8517,14 +8453,12 @@
         <v>7213.75</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="n">
-        <v>7165</v>
-      </c>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr">
         <is>
@@ -8558,14 +8492,12 @@
         <v>7210.916666666667</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="n">
-        <v>7165</v>
-      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr">
         <is>
@@ -8599,14 +8531,12 @@
         <v>7208.583333333333</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="n">
-        <v>7165</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr">
         <is>
@@ -8640,14 +8570,12 @@
         <v>7207.083333333333</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="n">
-        <v>7185</v>
-      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr">
         <is>
@@ -8681,14 +8609,12 @@
         <v>7205.583333333333</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="n">
-        <v>7185</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr">
         <is>
@@ -8722,14 +8648,12 @@
         <v>7205.166666666667</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="n">
-        <v>7230</v>
-      </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
       <c r="L231" t="inlineStr">
         <is>
@@ -8763,14 +8687,12 @@
         <v>7205</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="n">
-        <v>7245</v>
-      </c>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
       <c r="L232" t="inlineStr">
         <is>
@@ -8804,14 +8726,12 @@
         <v>7204.166666666667</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="n">
-        <v>7190</v>
-      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
       <c r="L233" t="inlineStr">
         <is>
@@ -8845,14 +8765,12 @@
         <v>7204</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="n">
-        <v>7215</v>
-      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr">
         <is>
@@ -8886,14 +8804,12 @@
         <v>7203.5</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="n">
-        <v>7225</v>
-      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr">
         <is>
@@ -8927,14 +8843,12 @@
         <v>7203.5</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="n">
-        <v>7200</v>
-      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
       <c r="L236" t="inlineStr">
         <is>
@@ -8968,14 +8882,12 @@
         <v>7203.666666666667</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="n">
-        <v>7220</v>
-      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
       <c r="L237" t="inlineStr">
         <is>
@@ -9009,14 +8921,12 @@
         <v>7203.916666666667</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="n">
-        <v>7220</v>
-      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
       <c r="L238" t="inlineStr">
         <is>
@@ -9050,14 +8960,12 @@
         <v>7204</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="n">
-        <v>7205</v>
-      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
       <c r="L239" t="inlineStr">
         <is>
@@ -9091,14 +8999,12 @@
         <v>7204.916666666667</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="n">
-        <v>7205</v>
-      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
       <c r="L240" t="inlineStr">
         <is>
@@ -9132,14 +9038,12 @@
         <v>7204.833333333333</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="n">
-        <v>7200</v>
-      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
       <c r="L241" t="inlineStr">
         <is>
@@ -9173,14 +9077,12 @@
         <v>7205.25</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="n">
-        <v>7210</v>
-      </c>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
       <c r="L242" t="inlineStr">
         <is>
@@ -9214,14 +9116,12 @@
         <v>7206.666666666667</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="n">
-        <v>7220</v>
-      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
       <c r="L243" t="inlineStr">
         <is>
@@ -9255,14 +9155,12 @@
         <v>7207.083333333333</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="n">
-        <v>7210</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
       <c r="L244" t="inlineStr">
         <is>
@@ -9296,14 +9194,12 @@
         <v>7207.25</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="n">
-        <v>7215</v>
-      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
       <c r="L245" t="inlineStr">
         <is>
@@ -9337,14 +9233,12 @@
         <v>7208.166666666667</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="n">
-        <v>7195</v>
-      </c>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
       <c r="L246" t="inlineStr">
         <is>
@@ -9378,14 +9272,12 @@
         <v>7209.083333333333</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="n">
-        <v>7195</v>
-      </c>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
       <c r="L247" t="inlineStr">
         <is>
@@ -9419,14 +9311,12 @@
         <v>7209.916666666667</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="n">
-        <v>7190</v>
-      </c>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
       <c r="L248" t="inlineStr">
         <is>
@@ -9460,14 +9350,12 @@
         <v>7210.166666666667</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="n">
-        <v>7195</v>
-      </c>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
       <c r="L249" t="inlineStr">
         <is>
@@ -9501,14 +9389,12 @@
         <v>7210</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="n">
-        <v>7180</v>
-      </c>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
       <c r="L250" t="inlineStr">
         <is>
@@ -9542,14 +9428,12 @@
         <v>7209.583333333333</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="n">
-        <v>7195</v>
-      </c>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
       <c r="L251" t="inlineStr">
         <is>
@@ -9583,14 +9467,12 @@
         <v>7209.25</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="n">
-        <v>7185</v>
-      </c>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
       <c r="L252" t="inlineStr">
         <is>
@@ -9624,14 +9506,12 @@
         <v>7208.916666666667</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="n">
-        <v>7185</v>
-      </c>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
       <c r="L253" t="inlineStr">
         <is>
@@ -9665,14 +9545,12 @@
         <v>7208.583333333333</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254" t="n">
-        <v>7185</v>
-      </c>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
       <c r="L254" t="inlineStr">
         <is>
@@ -9706,14 +9584,12 @@
         <v>7208.166666666667</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="J255" t="n">
-        <v>7170</v>
-      </c>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
       <c r="L255" t="inlineStr">
         <is>
@@ -9747,14 +9623,12 @@
         <v>7207</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
       </c>
-      <c r="J256" t="n">
-        <v>7185</v>
-      </c>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
       <c r="L256" t="inlineStr">
         <is>
@@ -9788,14 +9662,12 @@
         <v>7206</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
       </c>
-      <c r="J257" t="n">
-        <v>7185</v>
-      </c>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
       <c r="L257" t="inlineStr">
         <is>
@@ -9829,14 +9701,12 @@
         <v>7205</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
       </c>
-      <c r="J258" t="n">
-        <v>7185</v>
-      </c>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
       <c r="L258" t="inlineStr">
         <is>
@@ -9870,14 +9740,12 @@
         <v>7203.833333333333</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
       </c>
-      <c r="J259" t="n">
-        <v>7200</v>
-      </c>
+      <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
       <c r="L259" t="inlineStr">
         <is>
@@ -9911,14 +9779,12 @@
         <v>7203.583333333333</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
       </c>
-      <c r="J260" t="n">
-        <v>7185</v>
-      </c>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
       <c r="L260" t="inlineStr">
         <is>
@@ -9952,14 +9818,12 @@
         <v>7202.833333333333</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
       </c>
-      <c r="J261" t="n">
-        <v>7205</v>
-      </c>
+      <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
       <c r="L261" t="inlineStr">
         <is>
@@ -9993,14 +9857,12 @@
         <v>7202.583333333333</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
       </c>
-      <c r="J262" t="n">
-        <v>7205</v>
-      </c>
+      <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
       <c r="L262" t="inlineStr">
         <is>
@@ -10034,14 +9896,12 @@
         <v>7202.166666666667</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
       </c>
-      <c r="J263" t="n">
-        <v>7205</v>
-      </c>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
       <c r="L263" t="inlineStr">
         <is>
@@ -10075,14 +9935,12 @@
         <v>7201.833333333333</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
       </c>
-      <c r="J264" t="n">
-        <v>7205</v>
-      </c>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
       <c r="L264" t="inlineStr">
         <is>
@@ -10116,14 +9974,12 @@
         <v>7202</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
       </c>
-      <c r="J265" t="n">
-        <v>7215</v>
-      </c>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
       <c r="L265" t="inlineStr">
         <is>
@@ -10157,14 +10013,12 @@
         <v>7201.75</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
       </c>
-      <c r="J266" t="n">
-        <v>7215</v>
-      </c>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
       <c r="L266" t="inlineStr">
         <is>
@@ -10198,14 +10052,12 @@
         <v>7201.583333333333</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
       </c>
-      <c r="J267" t="n">
-        <v>7220</v>
-      </c>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
       <c r="L267" t="inlineStr">
         <is>
@@ -10239,14 +10091,12 @@
         <v>7202.25</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
       </c>
-      <c r="J268" t="n">
-        <v>7230</v>
-      </c>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
       <c r="L268" t="inlineStr">
         <is>
@@ -10280,14 +10130,12 @@
         <v>7202.25</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
       </c>
-      <c r="J269" t="n">
-        <v>7260</v>
-      </c>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
       <c r="L269" t="inlineStr">
         <is>
@@ -10321,14 +10169,12 @@
         <v>7202.666666666667</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
       </c>
-      <c r="J270" t="n">
-        <v>7250</v>
-      </c>
+      <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
       <c r="L270" t="inlineStr">
         <is>
@@ -10362,14 +10208,12 @@
         <v>7203.416666666667</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
       </c>
-      <c r="J271" t="n">
-        <v>7270</v>
-      </c>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
       <c r="L271" t="inlineStr">
         <is>
@@ -10403,14 +10247,12 @@
         <v>7204.75</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
       </c>
-      <c r="J272" t="n">
-        <v>7300</v>
-      </c>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
       <c r="L272" t="inlineStr">
         <is>
@@ -10444,14 +10286,12 @@
         <v>7206.166666666667</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
       </c>
-      <c r="J273" t="n">
-        <v>7300</v>
-      </c>
+      <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
       <c r="L273" t="inlineStr">
         <is>
@@ -10683,18 +10523,16 @@
         <v>0</v>
       </c>
       <c r="I279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
       <c r="L279" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10722,15 +10560,11 @@
         <v>0</v>
       </c>
       <c r="I280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L280" t="inlineStr"/>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -10765,11 +10599,7 @@
       </c>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L281" t="inlineStr"/>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -10800,15 +10630,11 @@
         <v>0</v>
       </c>
       <c r="I282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L282" t="inlineStr"/>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -10839,15 +10665,11 @@
         <v>0</v>
       </c>
       <c r="I283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L283" t="inlineStr"/>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -10882,11 +10704,7 @@
       </c>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L284" t="inlineStr"/>
       <c r="M284" t="n">
         <v>1</v>
       </c>
@@ -10917,15 +10735,11 @@
         <v>0</v>
       </c>
       <c r="I285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L285" t="inlineStr"/>
       <c r="M285" t="n">
         <v>1</v>
       </c>
@@ -10956,15 +10770,11 @@
         <v>0</v>
       </c>
       <c r="I286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L286" t="inlineStr"/>
       <c r="M286" t="n">
         <v>1</v>
       </c>
@@ -10995,15 +10805,11 @@
         <v>0</v>
       </c>
       <c r="I287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L287" t="inlineStr"/>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -11034,15 +10840,11 @@
         <v>0</v>
       </c>
       <c r="I288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L288" t="inlineStr"/>
       <c r="M288" t="n">
         <v>1</v>
       </c>
@@ -11073,15 +10875,11 @@
         <v>0</v>
       </c>
       <c r="I289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L289" t="inlineStr"/>
       <c r="M289" t="n">
         <v>1</v>
       </c>
@@ -11116,11 +10914,7 @@
       </c>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L290" t="inlineStr"/>
       <c r="M290" t="n">
         <v>1</v>
       </c>
@@ -11155,11 +10949,7 @@
       </c>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L291" t="inlineStr"/>
       <c r="M291" t="n">
         <v>1</v>
       </c>
@@ -11194,11 +10984,7 @@
       </c>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L292" t="inlineStr"/>
       <c r="M292" t="n">
         <v>1</v>
       </c>
@@ -11229,16 +11015,14 @@
         <v>0</v>
       </c>
       <c r="I293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M293" t="inlineStr"/>
+      <c r="L293" t="inlineStr"/>
+      <c r="M293" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -11266,7 +11050,7 @@
         <v>0</v>
       </c>
       <c r="I294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
@@ -11301,7 +11085,7 @@
         <v>0</v>
       </c>
       <c r="I295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
@@ -11336,7 +11120,7 @@
         <v>0</v>
       </c>
       <c r="I296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
@@ -11371,7 +11155,7 @@
         <v>0</v>
       </c>
       <c r="I297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
@@ -11406,7 +11190,7 @@
         <v>0</v>
       </c>
       <c r="I298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
@@ -11546,7 +11330,7 @@
         <v>0</v>
       </c>
       <c r="I302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>

--- a/BackTest/2020-01-13 BackTest BTG.xlsx
+++ b/BackTest/2020-01-13 BackTest BTG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-1069.7004</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-1409.0237</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-1402.3561</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-1309.1456</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-1309.1456</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-1089.1567</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-878.3403000000001</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-881.6728000000001</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-881.6728000000001</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-881.6728000000001</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-881.6728000000001</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-1032.5976</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-1032.5976</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-1032.5976</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-1032.5976</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-1002.2737</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-1002.2737</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-1633.6118</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-1603.6118</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-1597.7267</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-1697.7257</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-1610.991</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-1541.36288021</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-1969.26058021</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-1969.26058021</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-1981.26058021</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-1980.26058021</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-2016.26058021</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-2015.26058021</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-2015.26058021</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-2073.27058021</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-2049.00058021</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-2049.00058021</v>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-2049.00058021</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-1999.00058021</v>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-1999.00058021</v>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-2006.03688021</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-2005.79558021</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-2005.79558021</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-2045.758980210001</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-2044.758980210001</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-2045.758980210001</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-2046.758980210001</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-2045.758980210001</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-2045.898980210001</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-2046.038980210001</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-2045.968980210001</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-2046.378480210001</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-2046.378480210001</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-2046.190980210001</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-2046.190980210001</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-2106.190980210001</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-2235.190980210001</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-2235.190980210001</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-2105.190980210001</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-2141.877180210001</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-2091.917180210001</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-2227.017180210001</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-2190.337180210001</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-2229.116080210001</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-2229.116080210001</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-1873.718080210001</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-2177.307880210001</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-2714.453380210001</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-2557.964780210001</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-2847.424380210001</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-2785.186780210001</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-2882.251780210001</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-2886.723580210001</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-2896.164780210001</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-2873.771880210001</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-2873.771880210001</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-2873.771880210001</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-2603.771880210001</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-2725.578780210001</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-2433.751794870001</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-2613.791794870001</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-2632.013294870001</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-3244.929194870001</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-3449.234594870001</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-3449.234594870001</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-3435.314594870001</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-3446.064594870001</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-3446.064594870001</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-3528.439094870001</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-3521.270594870001</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-3528.389194870001</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-3528.389194870001</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-3523.556294870001</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-3523.556294870001</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-3523.556294870001</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-3523.556294870001</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-3523.556294870001</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-3507.726294870001</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-3507.726294870001</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-3685.897794870001</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-3685.897794870001</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-3967.148394870001</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-3617.818394870001</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-2903.484094870001</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-2951.174094870001</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-3050.995994870001</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-3448.965994870001</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-3523.083978730001</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-3523.083978730001</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-3593.083978730001</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-3827.113678730001</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-3877.143678730001</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-4237.197933020001</v>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-5609.506733020001</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-5609.506733020001</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-5985.432433020001</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-6156.56943302</v>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -8503,10 +8503,14 @@
         <v>-12323.75282659</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>7140</v>
+      </c>
+      <c r="J246" t="n">
+        <v>7140</v>
+      </c>
       <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
@@ -8536,11 +8540,19 @@
         <v>-12323.75282659</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>7140</v>
+      </c>
+      <c r="J247" t="n">
+        <v>7140</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8569,11 +8581,19 @@
         <v>-12118.99392659</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>7140</v>
+      </c>
+      <c r="J248" t="n">
+        <v>7140</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8602,11 +8622,19 @@
         <v>-12117.99392659</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>7185</v>
+      </c>
+      <c r="J249" t="n">
+        <v>7140</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8635,11 +8663,19 @@
         <v>-12103.43712659</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>7190</v>
+      </c>
+      <c r="J250" t="n">
+        <v>7140</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8668,11 +8704,19 @@
         <v>-12111.93212659</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>7220</v>
+      </c>
+      <c r="J251" t="n">
+        <v>7140</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8701,11 +8745,19 @@
         <v>-12111.93212659</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>7205</v>
+      </c>
+      <c r="J252" t="n">
+        <v>7140</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8734,11 +8786,19 @@
         <v>-12111.93212659</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>7205</v>
+      </c>
+      <c r="J253" t="n">
+        <v>7140</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8767,11 +8827,19 @@
         <v>-12087.06632659</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>7205</v>
+      </c>
+      <c r="J254" t="n">
+        <v>7140</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8800,11 +8868,19 @@
         <v>-12057.06632659</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>7210</v>
+      </c>
+      <c r="J255" t="n">
+        <v>7140</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8836,8 +8912,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>7140</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8869,8 +8951,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>7140</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8902,8 +8990,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>7140</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -8935,8 +9029,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>7140</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -8968,8 +9068,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>7140</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9001,8 +9107,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>7140</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9031,11 +9143,19 @@
         <v>-11630.60422659</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>7220</v>
+      </c>
+      <c r="J262" t="n">
+        <v>7140</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9067,8 +9187,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>7140</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9100,8 +9226,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>7140</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9133,8 +9265,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>7140</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9166,8 +9304,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>7140</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9199,8 +9343,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>7140</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9232,8 +9382,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>7140</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9265,8 +9421,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>7140</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9298,8 +9460,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>7140</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9331,8 +9499,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>7140</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9364,8 +9538,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>7140</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9397,8 +9577,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>7140</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9430,8 +9616,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>7140</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9463,8 +9655,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>7140</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9496,8 +9694,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>7140</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9529,8 +9733,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>7140</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9562,8 +9772,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>7140</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9595,8 +9811,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>7140</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9628,8 +9850,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>7140</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9661,8 +9889,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>7140</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9694,8 +9928,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>7140</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9727,8 +9967,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>7140</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9760,8 +10006,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>7140</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9793,8 +10045,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>7140</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9826,8 +10084,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>7140</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9859,8 +10123,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>7140</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -9889,11 +10159,19 @@
         <v>-12431.2789861</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>7185</v>
+      </c>
+      <c r="J288" t="n">
+        <v>7140</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -9925,8 +10203,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>7140</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -9958,8 +10242,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>7140</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -9991,8 +10281,14 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>7140</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10024,8 +10320,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>7140</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10057,8 +10359,14 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>7140</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10090,8 +10398,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>7140</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10120,15 +10434,17 @@
         <v>-12071.0426861</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
-      </c>
-      <c r="I295" t="n">
-        <v>7200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="n">
-        <v>7200</v>
-      </c>
-      <c r="K295" t="inlineStr"/>
+        <v>7140</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10157,17 +10473,15 @@
         <v>-12059.1455861</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
-      </c>
-      <c r="I296" t="n">
-        <v>7200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="n">
-        <v>7200</v>
+        <v>7140</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L296" t="n">
@@ -10198,17 +10512,17 @@
         <v>-11921.1455861</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I297" t="n">
         <v>7220</v>
       </c>
       <c r="J297" t="n">
-        <v>7200</v>
+        <v>7140</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L297" t="n">
@@ -10239,15 +10553,17 @@
         <v>-11946.3255861</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
-      </c>
-      <c r="I298" t="n">
-        <v>7225</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="n">
-        <v>7225</v>
-      </c>
-      <c r="K298" t="inlineStr"/>
+        <v>7140</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10276,17 +10592,17 @@
         <v>-11946.3255861</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I299" t="n">
         <v>7205</v>
       </c>
       <c r="J299" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L299" t="n">
@@ -10317,15 +10633,17 @@
         <v>-12029.3855861</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>7205</v>
+      </c>
       <c r="J300" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L300" t="n">
@@ -10356,11 +10674,13 @@
         <v>-12004.3616861</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>7195</v>
+      </c>
       <c r="J301" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
@@ -10395,13 +10715,13 @@
         <v>-12004.3616861</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I302" t="n">
         <v>7210</v>
       </c>
       <c r="J302" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
@@ -10436,13 +10756,13 @@
         <v>-12004.3616861</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I303" t="n">
         <v>7210</v>
       </c>
       <c r="J303" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K303" t="inlineStr">
         <is>
@@ -10477,13 +10797,13 @@
         <v>-12104.5243861</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I304" t="n">
         <v>7210</v>
       </c>
       <c r="J304" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
@@ -10518,11 +10838,13 @@
         <v>-12104.5243861</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I305" t="n">
+        <v>7195</v>
+      </c>
       <c r="J305" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
@@ -10557,11 +10879,13 @@
         <v>-12104.5243861</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I306" t="n">
+        <v>7195</v>
+      </c>
       <c r="J306" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K306" t="inlineStr">
         <is>
@@ -10596,11 +10920,13 @@
         <v>-12341.0398861</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I307" t="n">
+        <v>7195</v>
+      </c>
       <c r="J307" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
@@ -10635,11 +10961,13 @@
         <v>-12326.8597861</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I308" t="n">
+        <v>7190</v>
+      </c>
       <c r="J308" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
@@ -10674,11 +11002,13 @@
         <v>-12345.1298861</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I309" t="n">
+        <v>7200</v>
+      </c>
       <c r="J309" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
@@ -10713,11 +11043,13 @@
         <v>-12328.7298861</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I310" t="n">
+        <v>7180</v>
+      </c>
       <c r="J310" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
@@ -10752,11 +11084,13 @@
         <v>-12378.1712861</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I311" t="n">
+        <v>7195</v>
+      </c>
       <c r="J311" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
@@ -10791,11 +11125,13 @@
         <v>-12378.1712861</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I312" t="n">
+        <v>7185</v>
+      </c>
       <c r="J312" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K312" t="inlineStr">
         <is>
@@ -10830,13 +11166,13 @@
         <v>-12378.1712861</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I313" t="n">
         <v>7185</v>
       </c>
       <c r="J313" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K313" t="inlineStr">
         <is>
@@ -10871,13 +11207,13 @@
         <v>-12378.1712861</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I314" t="n">
         <v>7185</v>
       </c>
       <c r="J314" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
@@ -10912,13 +11248,13 @@
         <v>-12378.1712861</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I315" t="n">
         <v>7185</v>
       </c>
       <c r="J315" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
@@ -10953,13 +11289,13 @@
         <v>-12378.1712861</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I316" t="n">
         <v>7185</v>
       </c>
       <c r="J316" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
@@ -10994,13 +11330,13 @@
         <v>-12378.1712861</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I317" t="n">
         <v>7185</v>
       </c>
       <c r="J317" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K317" t="inlineStr">
         <is>
@@ -11035,13 +11371,13 @@
         <v>-12372.1712861</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I318" t="n">
         <v>7185</v>
       </c>
       <c r="J318" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K318" t="inlineStr">
         <is>
@@ -11076,13 +11412,13 @@
         <v>-12372.1712861</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I319" t="n">
         <v>7200</v>
       </c>
       <c r="J319" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K319" t="inlineStr">
         <is>
@@ -11117,13 +11453,13 @@
         <v>-12136.1192861</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I320" t="n">
         <v>7200</v>
       </c>
       <c r="J320" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K320" t="inlineStr">
         <is>
@@ -11158,13 +11494,13 @@
         <v>-12136.1192861</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I321" t="n">
         <v>7205</v>
       </c>
       <c r="J321" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K321" t="inlineStr">
         <is>
@@ -11199,13 +11535,13 @@
         <v>-12136.1192861</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I322" t="n">
         <v>7205</v>
       </c>
       <c r="J322" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K322" t="inlineStr">
         <is>
@@ -11240,13 +11576,13 @@
         <v>-12136.1192861</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I323" t="n">
         <v>7205</v>
       </c>
       <c r="J323" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K323" t="inlineStr">
         <is>
@@ -11281,13 +11617,13 @@
         <v>-12119.8556861</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I324" t="n">
         <v>7205</v>
       </c>
       <c r="J324" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K324" t="inlineStr">
         <is>
@@ -11322,13 +11658,13 @@
         <v>-12119.8556861</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I325" t="n">
         <v>7215</v>
       </c>
       <c r="J325" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K325" t="inlineStr">
         <is>
@@ -11363,13 +11699,13 @@
         <v>-12115.6659861</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I326" t="n">
         <v>7215</v>
       </c>
       <c r="J326" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K326" t="inlineStr">
         <is>
@@ -11404,11 +11740,13 @@
         <v>-11896.6492861</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
-      </c>
-      <c r="I327" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I327" t="n">
+        <v>7220</v>
+      </c>
       <c r="J327" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K327" t="inlineStr">
         <is>
@@ -11443,13 +11781,11 @@
         <v>-11866.3253861</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
-      </c>
-      <c r="I328" t="n">
-        <v>7230</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I328" t="inlineStr"/>
       <c r="J328" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K328" t="inlineStr">
         <is>
@@ -11488,7 +11824,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K329" t="inlineStr">
         <is>
@@ -11527,7 +11863,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K330" t="inlineStr">
         <is>
@@ -11566,7 +11902,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K331" t="inlineStr">
         <is>
@@ -11605,7 +11941,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K332" t="inlineStr">
         <is>
@@ -11644,7 +11980,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K333" t="inlineStr">
         <is>
@@ -11679,13 +12015,11 @@
         <v>-11510.2323861</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
-      </c>
-      <c r="I334" t="n">
-        <v>7300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I334" t="inlineStr"/>
       <c r="J334" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K334" t="inlineStr">
         <is>
@@ -11724,7 +12058,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K335" t="inlineStr">
         <is>
@@ -11763,7 +12097,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K336" t="inlineStr">
         <is>
@@ -11802,7 +12136,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K337" t="inlineStr">
         <is>
@@ -11841,7 +12175,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K338" t="inlineStr">
         <is>
@@ -11880,7 +12214,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K339" t="inlineStr">
         <is>
@@ -11919,7 +12253,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K340" t="inlineStr">
         <is>
@@ -11958,7 +12292,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K341" t="inlineStr">
         <is>
@@ -11997,7 +12331,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K342" t="inlineStr">
         <is>
@@ -12036,7 +12370,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K343" t="inlineStr">
         <is>
@@ -12075,7 +12409,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K344" t="inlineStr">
         <is>
@@ -12114,7 +12448,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K345" t="inlineStr">
         <is>
@@ -12153,7 +12487,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K346" t="inlineStr">
         <is>
@@ -12192,7 +12526,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K347" t="inlineStr">
         <is>
@@ -12231,7 +12565,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K348" t="inlineStr">
         <is>
@@ -12270,7 +12604,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K349" t="inlineStr">
         <is>
@@ -12309,7 +12643,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K350" t="inlineStr">
         <is>
@@ -12348,7 +12682,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K351" t="inlineStr">
         <is>
@@ -12387,7 +12721,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K352" t="inlineStr">
         <is>
@@ -12426,7 +12760,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K353" t="inlineStr">
         <is>
@@ -12465,7 +12799,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K354" t="inlineStr">
         <is>
@@ -12504,7 +12838,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K355" t="inlineStr">
         <is>
@@ -12543,7 +12877,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K356" t="inlineStr">
         <is>
@@ -12582,7 +12916,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K357" t="inlineStr">
         <is>
@@ -12621,7 +12955,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K358" t="inlineStr">
         <is>
@@ -12656,11 +12990,11 @@
         <v>-7958.503003020002</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K359" t="inlineStr">
         <is>
@@ -12699,7 +13033,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K360" t="inlineStr">
         <is>
@@ -12738,7 +13072,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K361" t="inlineStr">
         <is>
@@ -12777,7 +13111,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K362" t="inlineStr">
         <is>
@@ -12816,7 +13150,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K363" t="inlineStr">
         <is>
@@ -12855,7 +13189,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K364" t="inlineStr">
         <is>
@@ -12894,7 +13228,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K365" t="inlineStr">
         <is>
@@ -12933,7 +13267,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K366" t="inlineStr">
         <is>
@@ -12972,7 +13306,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K367" t="inlineStr">
         <is>
@@ -13011,7 +13345,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K368" t="inlineStr">
         <is>
@@ -13050,7 +13384,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K369" t="inlineStr">
         <is>
@@ -13089,7 +13423,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K370" t="inlineStr">
         <is>
@@ -13128,7 +13462,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K371" t="inlineStr">
         <is>
@@ -13167,7 +13501,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K372" t="inlineStr">
         <is>
@@ -13206,7 +13540,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K373" t="inlineStr">
         <is>
@@ -13245,7 +13579,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K374" t="inlineStr">
         <is>
@@ -13284,7 +13618,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K375" t="inlineStr">
         <is>
@@ -13323,7 +13657,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K376" t="inlineStr">
         <is>
@@ -13362,7 +13696,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K377" t="inlineStr">
         <is>
@@ -13397,11 +13731,11 @@
         <v>-8463.849503020003</v>
       </c>
       <c r="H378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K378" t="inlineStr">
         <is>
@@ -13436,11 +13770,11 @@
         <v>-8447.600903020002</v>
       </c>
       <c r="H379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K379" t="inlineStr">
         <is>
@@ -13479,7 +13813,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K380" t="inlineStr">
         <is>
@@ -13518,7 +13852,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K381" t="inlineStr">
         <is>
@@ -13557,7 +13891,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K382" t="inlineStr">
         <is>
@@ -13596,7 +13930,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K383" t="inlineStr">
         <is>
@@ -13635,7 +13969,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K384" t="inlineStr">
         <is>
@@ -13674,7 +14008,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K385" t="inlineStr">
         <is>
@@ -13713,7 +14047,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K386" t="inlineStr">
         <is>
@@ -13752,7 +14086,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K387" t="inlineStr">
         <is>
@@ -13791,7 +14125,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K388" t="inlineStr">
         <is>
@@ -13830,7 +14164,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K389" t="inlineStr">
         <is>
@@ -13869,7 +14203,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K390" t="inlineStr">
         <is>
@@ -13908,7 +14242,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K391" t="inlineStr">
         <is>
@@ -13947,7 +14281,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K392" t="inlineStr">
         <is>
@@ -13982,11 +14316,11 @@
         <v>-7542.357504980004</v>
       </c>
       <c r="H393" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K393" t="inlineStr">
         <is>
@@ -14025,7 +14359,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K394" t="inlineStr">
         <is>
@@ -14064,7 +14398,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K395" t="inlineStr">
         <is>
@@ -14103,7 +14437,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K396" t="inlineStr">
         <is>
@@ -14142,7 +14476,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K397" t="inlineStr">
         <is>
@@ -14181,7 +14515,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K398" t="inlineStr">
         <is>
@@ -14220,7 +14554,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K399" t="inlineStr">
         <is>
@@ -14259,7 +14593,7 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K400" t="inlineStr">
         <is>
@@ -14298,7 +14632,7 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K401" t="inlineStr">
         <is>
@@ -14337,7 +14671,7 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K402" t="inlineStr">
         <is>
@@ -14376,7 +14710,7 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K403" t="inlineStr">
         <is>
@@ -14415,7 +14749,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K404" t="inlineStr">
         <is>
@@ -14454,7 +14788,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K405" t="inlineStr">
         <is>
@@ -14493,7 +14827,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K406" t="inlineStr">
         <is>
@@ -14532,7 +14866,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K407" t="inlineStr">
         <is>
@@ -14571,7 +14905,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K408" t="inlineStr">
         <is>
@@ -14610,7 +14944,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K409" t="inlineStr">
         <is>
@@ -14649,7 +14983,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K410" t="inlineStr">
         <is>
@@ -14688,7 +15022,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K411" t="inlineStr">
         <is>
@@ -14727,7 +15061,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K412" t="inlineStr">
         <is>
@@ -14766,7 +15100,7 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K413" t="inlineStr">
         <is>
@@ -14805,7 +15139,7 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K414" t="inlineStr">
         <is>
@@ -14844,7 +15178,7 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K415" t="inlineStr">
         <is>
@@ -14883,7 +15217,7 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K416" t="inlineStr">
         <is>
@@ -14922,7 +15256,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K417" t="inlineStr">
         <is>
@@ -14961,7 +15295,7 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K418" t="inlineStr">
         <is>
@@ -15000,7 +15334,7 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K419" t="inlineStr">
         <is>
@@ -15039,7 +15373,7 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K420" t="inlineStr">
         <is>
@@ -15078,7 +15412,7 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K421" t="inlineStr">
         <is>
@@ -15117,7 +15451,7 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K422" t="inlineStr">
         <is>
@@ -15156,7 +15490,7 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K423" t="inlineStr">
         <is>
@@ -15195,7 +15529,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K424" t="inlineStr">
         <is>
@@ -15234,7 +15568,7 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K425" t="inlineStr">
         <is>
@@ -15273,7 +15607,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K426" t="inlineStr">
         <is>
@@ -15312,7 +15646,7 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K427" t="inlineStr">
         <is>
@@ -15351,7 +15685,7 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K428" t="inlineStr">
         <is>
@@ -15390,7 +15724,7 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K429" t="inlineStr">
         <is>
@@ -15429,7 +15763,7 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K430" t="inlineStr">
         <is>
@@ -15468,7 +15802,7 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K431" t="inlineStr">
         <is>
@@ -15507,7 +15841,7 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K432" t="inlineStr">
         <is>
@@ -15546,7 +15880,7 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K433" t="inlineStr">
         <is>
@@ -15585,7 +15919,7 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K434" t="inlineStr">
         <is>
@@ -15624,7 +15958,7 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K435" t="inlineStr">
         <is>
@@ -15659,23 +15993,21 @@
         <v>-4952.05620498</v>
       </c>
       <c r="H436" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="n">
-        <v>7225</v>
+        <v>7140</v>
       </c>
       <c r="K436" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L436" t="n">
-        <v>1.051747404844291</v>
-      </c>
-      <c r="M436" t="n">
-        <v>1.082105263157895</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M436" t="inlineStr"/>
     </row>
     <row r="437">
       <c r="A437" s="1" t="n">
@@ -15703,8 +16035,14 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>7140</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15736,8 +16074,14 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>7140</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15769,8 +16113,14 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>7140</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15799,11 +16149,17 @@
         <v>-5105.19070498</v>
       </c>
       <c r="H440" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>7140</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15832,11 +16188,17 @@
         <v>-4945.90870498</v>
       </c>
       <c r="H441" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>7140</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15865,11 +16227,17 @@
         <v>-5111.74870498</v>
       </c>
       <c r="H442" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>7140</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15898,11 +16266,17 @@
         <v>-4997.00870498</v>
       </c>
       <c r="H443" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>7140</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15931,11 +16305,17 @@
         <v>-4955.89970498</v>
       </c>
       <c r="H444" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>7140</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15967,8 +16347,14 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>7140</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16000,8 +16386,14 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>7140</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16033,8 +16425,14 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>7140</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -16063,15 +16461,23 @@
         <v>-5482.84590498</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>7140</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L448" t="n">
-        <v>1</v>
-      </c>
-      <c r="M448" t="inlineStr"/>
+        <v>1.067829131652661</v>
+      </c>
+      <c r="M448" t="n">
+        <v>1.082105263157895</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" s="1" t="n">
@@ -16162,7 +16568,7 @@
         <v>-5217.41650498</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -16195,7 +16601,7 @@
         <v>-5217.41650498</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -16228,7 +16634,7 @@
         <v>-4469.5389339</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -16261,7 +16667,7 @@
         <v>-4478.169933900001</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -16294,7 +16700,7 @@
         <v>-4713.519933900001</v>
       </c>
       <c r="H455" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -16327,7 +16733,7 @@
         <v>-4653.575033900001</v>
       </c>
       <c r="H456" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -16360,7 +16766,7 @@
         <v>-4723.356533900001</v>
       </c>
       <c r="H457" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -16393,7 +16799,7 @@
         <v>-4782.8797339</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -16426,7 +16832,7 @@
         <v>-5209.4072339</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -16459,7 +16865,7 @@
         <v>-5209.4072339</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -16492,7 +16898,7 @@
         <v>-5306.4350339</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -16558,7 +16964,7 @@
         <v>-5103.3181339</v>
       </c>
       <c r="H463" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -16591,7 +16997,7 @@
         <v>-4679.013996340001</v>
       </c>
       <c r="H464" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -16624,7 +17030,7 @@
         <v>-4702.114296340001</v>
       </c>
       <c r="H465" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -16657,7 +17063,7 @@
         <v>-4710.473996340001</v>
       </c>
       <c r="H466" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -16690,7 +17096,7 @@
         <v>-4706.97393179</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -16723,7 +17129,7 @@
         <v>-5029.553231790001</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -16756,7 +17162,7 @@
         <v>-5039.62233179</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -16789,7 +17195,7 @@
         <v>-4817.48643179</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -16822,7 +17228,7 @@
         <v>-4777.77553179</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -16855,7 +17261,7 @@
         <v>-4788.66553179</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -16888,7 +17294,7 @@
         <v>-3311.89692702</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16921,7 +17327,7 @@
         <v>-3311.89692702</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16954,7 +17360,7 @@
         <v>-3318.375227020001</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16987,7 +17393,7 @@
         <v>-3312.535227020001</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -17020,7 +17426,7 @@
         <v>-3312.535227020001</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -17053,7 +17459,7 @@
         <v>-3071.343727020001</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -17086,7 +17492,7 @@
         <v>-3032.143727020001</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -17119,7 +17525,7 @@
         <v>-3083.453727020001</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -17152,7 +17558,7 @@
         <v>-3098.453727020001</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -17218,7 +17624,7 @@
         <v>-3099.159327020001</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -17317,7 +17723,7 @@
         <v>-3115.22602702</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -17350,7 +17756,7 @@
         <v>-3361.89412702</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -17383,7 +17789,7 @@
         <v>-3395.85132702</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -17416,7 +17822,7 @@
         <v>-3412.43812702</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -17449,7 +17855,7 @@
         <v>-3406.71812702</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -17482,7 +17888,7 @@
         <v>-3342.55772702</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -17515,7 +17921,7 @@
         <v>-3342.55772702</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -17548,7 +17954,7 @@
         <v>-3342.55772702</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -17581,7 +17987,7 @@
         <v>-3342.55772702</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -17614,7 +18020,7 @@
         <v>-3342.55772702</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -17647,7 +18053,7 @@
         <v>-3342.55772702</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -17680,7 +18086,7 @@
         <v>-3342.55772702</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -17713,7 +18119,7 @@
         <v>-3309.28322702</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -17845,7 +18251,7 @@
         <v>-3311.17112702</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -18142,7 +18548,7 @@
         <v>-3521.514627020001</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -18175,7 +18581,7 @@
         <v>-3560.834627020001</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -18208,7 +18614,7 @@
         <v>-3560.834627020001</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -18241,7 +18647,7 @@
         <v>-3556.480427020001</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -18274,7 +18680,7 @@
         <v>-3426.257827020001</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -18307,7 +18713,7 @@
         <v>-3426.257827020001</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -18340,7 +18746,7 @@
         <v>-3308.38362702</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -18373,7 +18779,7 @@
         <v>-3308.38362702</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -18406,7 +18812,7 @@
         <v>-3308.38362702</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -18439,7 +18845,7 @@
         <v>-3323.84362702</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -18472,7 +18878,7 @@
         <v>-3353.79412702</v>
       </c>
       <c r="H521" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -18505,7 +18911,7 @@
         <v>-3353.79412702</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -18538,7 +18944,7 @@
         <v>-3304.25922702</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -18571,7 +18977,7 @@
         <v>-3298.56072702</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -18604,7 +19010,7 @@
         <v>-3298.56072702</v>
       </c>
       <c r="H525" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -18637,7 +19043,7 @@
         <v>-3204.93072702</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -18670,7 +19076,7 @@
         <v>-3218.31422702</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -18703,7 +19109,7 @@
         <v>-3123.44882702</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -18736,7 +19142,7 @@
         <v>-3125.44882702</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -18769,7 +19175,7 @@
         <v>-3191.21882702</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -18802,7 +19208,7 @@
         <v>-2991.21882702</v>
       </c>
       <c r="H531" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -18835,7 +19241,7 @@
         <v>-3005.29692702</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -18868,7 +19274,7 @@
         <v>-2947.55692702</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18901,7 +19307,7 @@
         <v>-3024.18692702</v>
       </c>
       <c r="H534" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18934,7 +19340,7 @@
         <v>-3060.37512702</v>
       </c>
       <c r="H535" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18967,7 +19373,7 @@
         <v>-3046.30402702</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -19000,7 +19406,7 @@
         <v>-3018.99402702</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -19033,7 +19439,7 @@
         <v>-3004.82402702</v>
       </c>
       <c r="H538" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -19066,7 +19472,7 @@
         <v>-3004.82402702</v>
       </c>
       <c r="H539" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -19099,7 +19505,7 @@
         <v>-3004.82402702</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -19132,7 +19538,7 @@
         <v>-2664.82402702</v>
       </c>
       <c r="H541" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -19165,7 +19571,7 @@
         <v>-2834.82402702</v>
       </c>
       <c r="H542" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -19198,7 +19604,7 @@
         <v>-2998.92402702</v>
       </c>
       <c r="H543" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -19231,7 +19637,7 @@
         <v>-2887.45402702</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -19264,7 +19670,7 @@
         <v>-2876.38402702</v>
       </c>
       <c r="H545" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -19297,7 +19703,7 @@
         <v>-3046.38402702</v>
       </c>
       <c r="H546" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -19330,7 +19736,7 @@
         <v>-3146.25512702</v>
       </c>
       <c r="H547" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -19363,7 +19769,7 @@
         <v>-2988.37770249</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -19396,7 +19802,7 @@
         <v>-2995.90770249</v>
       </c>
       <c r="H549" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -19429,7 +19835,7 @@
         <v>-2995.90770249</v>
       </c>
       <c r="H550" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -19462,7 +19868,7 @@
         <v>-2995.90770249</v>
       </c>
       <c r="H551" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -19495,7 +19901,7 @@
         <v>-2995.90770249</v>
       </c>
       <c r="H552" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -19528,7 +19934,7 @@
         <v>-2995.90770249</v>
       </c>
       <c r="H553" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -19561,7 +19967,7 @@
         <v>-2869.71840249</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -19594,7 +20000,7 @@
         <v>-2247.62810249</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -19627,7 +20033,7 @@
         <v>-2178.55550249</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -19660,7 +20066,7 @@
         <v>-2178.55550249</v>
       </c>
       <c r="H557" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -19693,7 +20099,7 @@
         <v>-1929.35690249</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -19726,7 +20132,7 @@
         <v>-1929.35690249</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -19759,7 +20165,7 @@
         <v>-1929.35690249</v>
       </c>
       <c r="H560" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -19792,7 +20198,7 @@
         <v>-1978.93690249</v>
       </c>
       <c r="H561" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -19825,7 +20231,7 @@
         <v>-1818.50690249</v>
       </c>
       <c r="H562" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -19858,7 +20264,7 @@
         <v>-1935.60530249</v>
       </c>
       <c r="H563" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -19891,7 +20297,7 @@
         <v>-1620.309702490001</v>
       </c>
       <c r="H564" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19924,7 +20330,7 @@
         <v>-1620.309702490001</v>
       </c>
       <c r="H565" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19935,6 +20341,6 @@
       <c r="M565" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest BTG.xlsx
+++ b/BackTest/2020-01-13 BackTest BTG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -616,7 +616,7 @@
         <v>-1402.3561</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-1309.1456</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-1309.1456</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-1089.1567</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-878.3403000000001</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-881.6728000000001</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-881.6728000000001</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-881.6728000000001</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-881.6728000000001</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-1032.5976</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-1032.5976</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-1032.5976</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-1032.5976</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-1002.2737</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-1002.2737</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-1633.6118</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-1603.6118</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-1597.7267</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-1697.7257</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-1610.991</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-1541.36288021</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-1969.26058021</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-1969.26058021</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-1981.26058021</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-1980.26058021</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-2016.26058021</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-2015.26058021</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-2015.26058021</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-2073.27058021</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-2049.00058021</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-2049.00058021</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-2049.00058021</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-1999.00058021</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-1999.00058021</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-2006.03688021</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-2005.79558021</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-2005.79558021</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-2045.758980210001</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-2044.758980210001</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-2045.758980210001</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-2046.758980210001</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-2045.758980210001</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-2045.898980210001</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-2046.038980210001</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-2045.968980210001</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-2046.378480210001</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-2046.378480210001</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-2046.190980210001</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-2046.190980210001</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-2106.190980210001</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-2235.190980210001</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-2235.190980210001</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-2105.190980210001</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-2141.877180210001</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-2091.917180210001</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-2227.017180210001</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-2190.337180210001</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-2229.116080210001</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-2229.116080210001</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-1873.718080210001</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-2177.307880210001</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-2714.453380210001</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-2557.964780210001</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-2847.424380210001</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-2785.186780210001</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-2882.251780210001</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-2886.723580210001</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-2896.164780210001</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-2873.771880210001</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-2873.771880210001</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-2873.771880210001</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-2603.771880210001</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-2725.578780210001</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-2433.751794870001</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-2613.791794870001</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-2632.013294870001</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-3244.929194870001</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-3449.234594870001</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-3449.234594870001</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-3435.314594870001</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-3446.064594870001</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-3446.064594870001</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-3528.439094870001</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-3521.270594870001</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-3528.389194870001</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-3528.389194870001</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-3523.556294870001</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-3523.556294870001</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-3523.556294870001</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-3523.556294870001</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-3685.897794870001</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-3685.897794870001</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-3967.148394870001</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-3617.818394870001</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-2903.484094870001</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-2951.174094870001</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-3050.995994870001</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-3448.965994870001</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-3523.083978730001</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-3523.083978730001</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-3593.083978730001</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-3827.113678730001</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-3877.143678730001</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -8503,14 +8503,10 @@
         <v>-12323.75282659</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>7140</v>
-      </c>
-      <c r="J246" t="n">
-        <v>7140</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
@@ -8540,2112 +8536,1766 @@
         <v>-12323.75282659</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>7140</v>
-      </c>
-      <c r="J247" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K247" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>7185</v>
+      </c>
+      <c r="C248" t="n">
+        <v>7185</v>
+      </c>
+      <c r="D248" t="n">
+        <v>7185</v>
+      </c>
+      <c r="E248" t="n">
+        <v>7185</v>
+      </c>
+      <c r="F248" t="n">
+        <v>204.7589</v>
+      </c>
+      <c r="G248" t="n">
+        <v>-12118.99392659</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>7190</v>
+      </c>
+      <c r="C249" t="n">
+        <v>7190</v>
+      </c>
+      <c r="D249" t="n">
+        <v>7190</v>
+      </c>
+      <c r="E249" t="n">
+        <v>7190</v>
+      </c>
+      <c r="F249" t="n">
+        <v>1</v>
+      </c>
+      <c r="G249" t="n">
+        <v>-12117.99392659</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>7220</v>
+      </c>
+      <c r="C250" t="n">
+        <v>7220</v>
+      </c>
+      <c r="D250" t="n">
+        <v>7220</v>
+      </c>
+      <c r="E250" t="n">
+        <v>7220</v>
+      </c>
+      <c r="F250" t="n">
+        <v>14.5568</v>
+      </c>
+      <c r="G250" t="n">
+        <v>-12103.43712659</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>7205</v>
+      </c>
+      <c r="C251" t="n">
+        <v>7205</v>
+      </c>
+      <c r="D251" t="n">
+        <v>7205</v>
+      </c>
+      <c r="E251" t="n">
+        <v>7205</v>
+      </c>
+      <c r="F251" t="n">
+        <v>8.494999999999999</v>
+      </c>
+      <c r="G251" t="n">
+        <v>-12111.93212659</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>7210</v>
+      </c>
+      <c r="C252" t="n">
+        <v>7205</v>
+      </c>
+      <c r="D252" t="n">
+        <v>7210</v>
+      </c>
+      <c r="E252" t="n">
+        <v>7205</v>
+      </c>
+      <c r="F252" t="n">
+        <v>7.06</v>
+      </c>
+      <c r="G252" t="n">
+        <v>-12111.93212659</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>7205</v>
+      </c>
+      <c r="C253" t="n">
+        <v>7205</v>
+      </c>
+      <c r="D253" t="n">
+        <v>7205</v>
+      </c>
+      <c r="E253" t="n">
+        <v>7205</v>
+      </c>
+      <c r="F253" t="n">
+        <v>133.8088</v>
+      </c>
+      <c r="G253" t="n">
+        <v>-12111.93212659</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>7210</v>
+      </c>
+      <c r="C254" t="n">
+        <v>7210</v>
+      </c>
+      <c r="D254" t="n">
+        <v>7210</v>
+      </c>
+      <c r="E254" t="n">
+        <v>7210</v>
+      </c>
+      <c r="F254" t="n">
+        <v>24.8658</v>
+      </c>
+      <c r="G254" t="n">
+        <v>-12087.06632659</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>7210</v>
+      </c>
+      <c r="C255" t="n">
+        <v>7255</v>
+      </c>
+      <c r="D255" t="n">
+        <v>7255</v>
+      </c>
+      <c r="E255" t="n">
+        <v>7210</v>
+      </c>
+      <c r="F255" t="n">
+        <v>30</v>
+      </c>
+      <c r="G255" t="n">
+        <v>-12057.06632659</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>7245</v>
+      </c>
+      <c r="C256" t="n">
+        <v>7245</v>
+      </c>
+      <c r="D256" t="n">
+        <v>7245</v>
+      </c>
+      <c r="E256" t="n">
+        <v>7245</v>
+      </c>
+      <c r="F256" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="G256" t="n">
+        <v>-12058.45632659</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>7245</v>
+      </c>
+      <c r="C257" t="n">
+        <v>7245</v>
+      </c>
+      <c r="D257" t="n">
+        <v>7245</v>
+      </c>
+      <c r="E257" t="n">
+        <v>7245</v>
+      </c>
+      <c r="F257" t="n">
+        <v>4.1897</v>
+      </c>
+      <c r="G257" t="n">
+        <v>-12058.45632659</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>7245</v>
+      </c>
+      <c r="C258" t="n">
+        <v>7270</v>
+      </c>
+      <c r="D258" t="n">
+        <v>7270</v>
+      </c>
+      <c r="E258" t="n">
+        <v>7245</v>
+      </c>
+      <c r="F258" t="n">
+        <v>18</v>
+      </c>
+      <c r="G258" t="n">
+        <v>-12040.45632659</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>7215</v>
+      </c>
+      <c r="C259" t="n">
+        <v>7215</v>
+      </c>
+      <c r="D259" t="n">
+        <v>7215</v>
+      </c>
+      <c r="E259" t="n">
+        <v>7215</v>
+      </c>
+      <c r="F259" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="G259" t="n">
+        <v>-12047.17632659</v>
+      </c>
+      <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>7215</v>
+      </c>
+      <c r="C260" t="n">
+        <v>7250</v>
+      </c>
+      <c r="D260" t="n">
+        <v>7250</v>
+      </c>
+      <c r="E260" t="n">
+        <v>7215</v>
+      </c>
+      <c r="F260" t="n">
+        <v>91.17910000000001</v>
+      </c>
+      <c r="G260" t="n">
+        <v>-11955.99722659</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>7220</v>
+      </c>
+      <c r="C261" t="n">
+        <v>7220</v>
+      </c>
+      <c r="D261" t="n">
+        <v>7220</v>
+      </c>
+      <c r="E261" t="n">
+        <v>7220</v>
+      </c>
+      <c r="F261" t="n">
+        <v>14.8466</v>
+      </c>
+      <c r="G261" t="n">
+        <v>-11970.84382659</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>7225</v>
+      </c>
+      <c r="C262" t="n">
+        <v>7230</v>
+      </c>
+      <c r="D262" t="n">
+        <v>7230</v>
+      </c>
+      <c r="E262" t="n">
+        <v>7225</v>
+      </c>
+      <c r="F262" t="n">
+        <v>340.2396</v>
+      </c>
+      <c r="G262" t="n">
+        <v>-11630.60422659</v>
+      </c>
+      <c r="H262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>7235</v>
+      </c>
+      <c r="C263" t="n">
+        <v>7225</v>
+      </c>
+      <c r="D263" t="n">
+        <v>7265</v>
+      </c>
+      <c r="E263" t="n">
+        <v>7225</v>
+      </c>
+      <c r="F263" t="n">
+        <v>422.02442429</v>
+      </c>
+      <c r="G263" t="n">
+        <v>-12052.62865088</v>
+      </c>
+      <c r="H263" t="n">
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>7220</v>
+      </c>
+      <c r="C264" t="n">
+        <v>7205</v>
+      </c>
+      <c r="D264" t="n">
+        <v>7240</v>
+      </c>
+      <c r="E264" t="n">
+        <v>7195</v>
+      </c>
+      <c r="F264" t="n">
+        <v>153.4618</v>
+      </c>
+      <c r="G264" t="n">
+        <v>-12206.09045088</v>
+      </c>
+      <c r="H264" t="n">
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>7185</v>
+      </c>
+      <c r="C265" t="n">
+        <v>7230</v>
+      </c>
+      <c r="D265" t="n">
+        <v>7230</v>
+      </c>
+      <c r="E265" t="n">
+        <v>7185</v>
+      </c>
+      <c r="F265" t="n">
+        <v>83.3792</v>
+      </c>
+      <c r="G265" t="n">
+        <v>-12122.71125088</v>
+      </c>
+      <c r="H265" t="n">
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>7190</v>
+      </c>
+      <c r="C266" t="n">
+        <v>7230</v>
+      </c>
+      <c r="D266" t="n">
+        <v>7230</v>
+      </c>
+      <c r="E266" t="n">
+        <v>7190</v>
+      </c>
+      <c r="F266" t="n">
+        <v>74.1969</v>
+      </c>
+      <c r="G266" t="n">
+        <v>-12122.71125088</v>
+      </c>
+      <c r="H266" t="n">
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>7190</v>
+      </c>
+      <c r="C267" t="n">
+        <v>7190</v>
+      </c>
+      <c r="D267" t="n">
+        <v>7190</v>
+      </c>
+      <c r="E267" t="n">
+        <v>7190</v>
+      </c>
+      <c r="F267" t="n">
+        <v>51.18</v>
+      </c>
+      <c r="G267" t="n">
+        <v>-12173.89125088</v>
+      </c>
+      <c r="H267" t="n">
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>7240</v>
+      </c>
+      <c r="C268" t="n">
+        <v>7240</v>
+      </c>
+      <c r="D268" t="n">
+        <v>7240</v>
+      </c>
+      <c r="E268" t="n">
+        <v>7240</v>
+      </c>
+      <c r="F268" t="n">
+        <v>6.8887</v>
+      </c>
+      <c r="G268" t="n">
+        <v>-12167.00255088</v>
+      </c>
+      <c r="H268" t="n">
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>7240</v>
+      </c>
+      <c r="C269" t="n">
+        <v>7240</v>
+      </c>
+      <c r="D269" t="n">
+        <v>7240</v>
+      </c>
+      <c r="E269" t="n">
+        <v>7240</v>
+      </c>
+      <c r="F269" t="n">
+        <v>27.9313</v>
+      </c>
+      <c r="G269" t="n">
+        <v>-12167.00255088</v>
+      </c>
+      <c r="H269" t="n">
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>7220</v>
+      </c>
+      <c r="C270" t="n">
+        <v>7225</v>
+      </c>
+      <c r="D270" t="n">
+        <v>7225</v>
+      </c>
+      <c r="E270" t="n">
+        <v>7220</v>
+      </c>
+      <c r="F270" t="n">
+        <v>13.1941</v>
+      </c>
+      <c r="G270" t="n">
+        <v>-12180.19665088</v>
+      </c>
+      <c r="H270" t="n">
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>7225</v>
+      </c>
+      <c r="C271" t="n">
+        <v>7220</v>
+      </c>
+      <c r="D271" t="n">
+        <v>7225</v>
+      </c>
+      <c r="E271" t="n">
+        <v>7220</v>
+      </c>
+      <c r="F271" t="n">
+        <v>122.6011</v>
+      </c>
+      <c r="G271" t="n">
+        <v>-12302.79775088</v>
+      </c>
+      <c r="H271" t="n">
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>7215</v>
+      </c>
+      <c r="C272" t="n">
+        <v>7215</v>
+      </c>
+      <c r="D272" t="n">
+        <v>7215</v>
+      </c>
+      <c r="E272" t="n">
+        <v>7215</v>
+      </c>
+      <c r="F272" t="n">
+        <v>2</v>
+      </c>
+      <c r="G272" t="n">
+        <v>-12304.79775088</v>
+      </c>
+      <c r="H272" t="n">
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>7215</v>
+      </c>
+      <c r="C273" t="n">
+        <v>7215</v>
+      </c>
+      <c r="D273" t="n">
+        <v>7215</v>
+      </c>
+      <c r="E273" t="n">
+        <v>7215</v>
+      </c>
+      <c r="F273" t="n">
+        <v>50.6457</v>
+      </c>
+      <c r="G273" t="n">
+        <v>-12304.79775088</v>
+      </c>
+      <c r="H273" t="n">
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>7215</v>
+      </c>
+      <c r="C274" t="n">
+        <v>7215</v>
+      </c>
+      <c r="D274" t="n">
+        <v>7215</v>
+      </c>
+      <c r="E274" t="n">
+        <v>7215</v>
+      </c>
+      <c r="F274" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="G274" t="n">
+        <v>-12304.79775088</v>
+      </c>
+      <c r="H274" t="n">
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>7215</v>
+      </c>
+      <c r="C275" t="n">
+        <v>7215</v>
+      </c>
+      <c r="D275" t="n">
+        <v>7215</v>
+      </c>
+      <c r="E275" t="n">
+        <v>7215</v>
+      </c>
+      <c r="F275" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="G275" t="n">
+        <v>-12304.79775088</v>
+      </c>
+      <c r="H275" t="n">
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>7220</v>
+      </c>
+      <c r="C276" t="n">
+        <v>7220</v>
+      </c>
+      <c r="D276" t="n">
+        <v>7220</v>
+      </c>
+      <c r="E276" t="n">
+        <v>7220</v>
+      </c>
+      <c r="F276" t="n">
+        <v>290.1333</v>
+      </c>
+      <c r="G276" t="n">
+        <v>-12014.66445088</v>
+      </c>
+      <c r="H276" t="n">
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>7220</v>
+      </c>
+      <c r="C277" t="n">
+        <v>7220</v>
+      </c>
+      <c r="D277" t="n">
+        <v>7220</v>
+      </c>
+      <c r="E277" t="n">
+        <v>7220</v>
+      </c>
+      <c r="F277" t="n">
+        <v>38.3996</v>
+      </c>
+      <c r="G277" t="n">
+        <v>-12014.66445088</v>
+      </c>
+      <c r="H277" t="n">
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
+        <v>7220</v>
+      </c>
+      <c r="C278" t="n">
+        <v>7220</v>
+      </c>
+      <c r="D278" t="n">
+        <v>7220</v>
+      </c>
+      <c r="E278" t="n">
+        <v>7220</v>
+      </c>
+      <c r="F278" t="n">
+        <v>1</v>
+      </c>
+      <c r="G278" t="n">
+        <v>-12014.66445088</v>
+      </c>
+      <c r="H278" t="n">
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>7190</v>
+      </c>
+      <c r="C279" t="n">
+        <v>7190</v>
+      </c>
+      <c r="D279" t="n">
+        <v>7190</v>
+      </c>
+      <c r="E279" t="n">
+        <v>7190</v>
+      </c>
+      <c r="F279" t="n">
+        <v>11.3777</v>
+      </c>
+      <c r="G279" t="n">
+        <v>-12026.04215088</v>
+      </c>
+      <c r="H279" t="n">
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="n">
+        <v>7185</v>
+      </c>
+      <c r="C280" t="n">
+        <v>7185</v>
+      </c>
+      <c r="D280" t="n">
+        <v>7185</v>
+      </c>
+      <c r="E280" t="n">
+        <v>7185</v>
+      </c>
+      <c r="F280" t="n">
+        <v>467.1512</v>
+      </c>
+      <c r="G280" t="n">
+        <v>-12493.19335088</v>
+      </c>
+      <c r="H280" t="n">
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="n">
+        <v>7185</v>
+      </c>
+      <c r="C281" t="n">
+        <v>7185</v>
+      </c>
+      <c r="D281" t="n">
+        <v>7185</v>
+      </c>
+      <c r="E281" t="n">
+        <v>7185</v>
+      </c>
+      <c r="F281" t="n">
+        <v>3</v>
+      </c>
+      <c r="G281" t="n">
+        <v>-12493.19335088</v>
+      </c>
+      <c r="H281" t="n">
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="n">
+        <v>7185</v>
+      </c>
+      <c r="C282" t="n">
+        <v>7185</v>
+      </c>
+      <c r="D282" t="n">
+        <v>7185</v>
+      </c>
+      <c r="E282" t="n">
+        <v>7185</v>
+      </c>
+      <c r="F282" t="n">
+        <v>0.30006958</v>
+      </c>
+      <c r="G282" t="n">
+        <v>-12493.19335088</v>
+      </c>
+      <c r="H282" t="n">
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="n">
+        <v>7165</v>
+      </c>
+      <c r="C283" t="n">
+        <v>7165</v>
+      </c>
+      <c r="D283" t="n">
+        <v>7165</v>
+      </c>
+      <c r="E283" t="n">
+        <v>7165</v>
+      </c>
+      <c r="F283" t="n">
+        <v>30.9145</v>
+      </c>
+      <c r="G283" t="n">
+        <v>-12524.10785088</v>
+      </c>
+      <c r="H283" t="n">
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="n">
+        <v>7165</v>
+      </c>
+      <c r="C284" t="n">
+        <v>7165</v>
+      </c>
+      <c r="D284" t="n">
+        <v>7165</v>
+      </c>
+      <c r="E284" t="n">
+        <v>7165</v>
+      </c>
+      <c r="F284" t="n">
+        <v>5</v>
+      </c>
+      <c r="G284" t="n">
+        <v>-12524.10785088</v>
+      </c>
+      <c r="H284" t="n">
+        <v>0</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="n">
+        <v>7165</v>
+      </c>
+      <c r="C285" t="n">
+        <v>7165</v>
+      </c>
+      <c r="D285" t="n">
+        <v>7165</v>
+      </c>
+      <c r="E285" t="n">
+        <v>7165</v>
+      </c>
+      <c r="F285" t="n">
+        <v>0.2545</v>
+      </c>
+      <c r="G285" t="n">
+        <v>-12524.10785088</v>
+      </c>
+      <c r="H285" t="n">
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="n">
+        <v>7165</v>
+      </c>
+      <c r="C286" t="n">
+        <v>7165</v>
+      </c>
+      <c r="D286" t="n">
+        <v>7165</v>
+      </c>
+      <c r="E286" t="n">
+        <v>7165</v>
+      </c>
+      <c r="F286" t="n">
+        <v>45.34</v>
+      </c>
+      <c r="G286" t="n">
+        <v>-12524.10785088</v>
+      </c>
+      <c r="H286" t="n">
+        <v>0</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="n">
+        <v>7165</v>
+      </c>
+      <c r="C287" t="n">
+        <v>7185</v>
+      </c>
+      <c r="D287" t="n">
+        <v>7185</v>
+      </c>
+      <c r="E287" t="n">
+        <v>7165</v>
+      </c>
+      <c r="F287" t="n">
+        <v>155.72116478</v>
+      </c>
+      <c r="G287" t="n">
+        <v>-12368.3866861</v>
+      </c>
+      <c r="H287" t="n">
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="n">
+        <v>7185</v>
+      </c>
+      <c r="C288" t="n">
+        <v>7180</v>
+      </c>
+      <c r="D288" t="n">
+        <v>7185</v>
+      </c>
+      <c r="E288" t="n">
+        <v>7180</v>
+      </c>
+      <c r="F288" t="n">
+        <v>62.8923</v>
+      </c>
+      <c r="G288" t="n">
+        <v>-12431.2789861</v>
+      </c>
+      <c r="H288" t="n">
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="n">
+        <v>7185</v>
+      </c>
+      <c r="C289" t="n">
+        <v>7220</v>
+      </c>
+      <c r="D289" t="n">
+        <v>7220</v>
+      </c>
+      <c r="E289" t="n">
+        <v>7185</v>
+      </c>
+      <c r="F289" t="n">
+        <v>240.8338</v>
+      </c>
+      <c r="G289" t="n">
+        <v>-12190.4451861</v>
+      </c>
+      <c r="H289" t="n">
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="n">
+        <v>7230</v>
+      </c>
+      <c r="C290" t="n">
+        <v>7230</v>
+      </c>
+      <c r="D290" t="n">
+        <v>7230</v>
+      </c>
+      <c r="E290" t="n">
+        <v>7230</v>
+      </c>
+      <c r="F290" t="n">
+        <v>164.76</v>
+      </c>
+      <c r="G290" t="n">
+        <v>-12025.6851861</v>
+      </c>
+      <c r="H290" t="n">
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="n">
+        <v>7245</v>
+      </c>
+      <c r="C291" t="n">
+        <v>7230</v>
+      </c>
+      <c r="D291" t="n">
+        <v>7250</v>
+      </c>
+      <c r="E291" t="n">
+        <v>7230</v>
+      </c>
+      <c r="F291" t="n">
+        <v>29.0309</v>
+      </c>
+      <c r="G291" t="n">
+        <v>-12025.6851861</v>
+      </c>
+      <c r="H291" t="n">
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="n">
+        <v>7190</v>
+      </c>
+      <c r="C292" t="n">
+        <v>7190</v>
+      </c>
+      <c r="D292" t="n">
+        <v>7190</v>
+      </c>
+      <c r="E292" t="n">
+        <v>7190</v>
+      </c>
+      <c r="F292" t="n">
+        <v>24.72</v>
+      </c>
+      <c r="G292" t="n">
+        <v>-12050.4051861</v>
+      </c>
+      <c r="H292" t="n">
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="n">
+        <v>7215</v>
+      </c>
+      <c r="C293" t="n">
+        <v>7225</v>
+      </c>
+      <c r="D293" t="n">
+        <v>7225</v>
+      </c>
+      <c r="E293" t="n">
+        <v>7215</v>
+      </c>
+      <c r="F293" t="n">
+        <v>30.41</v>
+      </c>
+      <c r="G293" t="n">
+        <v>-12019.9951861</v>
+      </c>
+      <c r="H293" t="n">
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="n">
+        <v>7225</v>
+      </c>
+      <c r="C294" t="n">
+        <v>7200</v>
+      </c>
+      <c r="D294" t="n">
+        <v>7225</v>
+      </c>
+      <c r="E294" t="n">
+        <v>7200</v>
+      </c>
+      <c r="F294" t="n">
+        <v>51.0475</v>
+      </c>
+      <c r="G294" t="n">
+        <v>-12071.0426861</v>
+      </c>
+      <c r="H294" t="n">
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" t="n">
+        <v>7200</v>
+      </c>
+      <c r="C295" t="n">
+        <v>7200</v>
+      </c>
+      <c r="D295" t="n">
+        <v>7200</v>
+      </c>
+      <c r="E295" t="n">
+        <v>7200</v>
+      </c>
+      <c r="F295" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="G295" t="n">
+        <v>-12071.0426861</v>
+      </c>
+      <c r="H295" t="n">
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="n">
+        <v>7220</v>
+      </c>
+      <c r="C296" t="n">
+        <v>7220</v>
+      </c>
+      <c r="D296" t="n">
+        <v>7220</v>
+      </c>
+      <c r="E296" t="n">
+        <v>7220</v>
+      </c>
+      <c r="F296" t="n">
+        <v>11.8971</v>
+      </c>
+      <c r="G296" t="n">
+        <v>-12059.1455861</v>
+      </c>
+      <c r="H296" t="n">
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" t="n">
+        <v>7220</v>
+      </c>
+      <c r="C297" t="n">
+        <v>7225</v>
+      </c>
+      <c r="D297" t="n">
+        <v>7225</v>
+      </c>
+      <c r="E297" t="n">
+        <v>7220</v>
+      </c>
+      <c r="F297" t="n">
+        <v>138</v>
+      </c>
+      <c r="G297" t="n">
+        <v>-11921.1455861</v>
+      </c>
+      <c r="H297" t="n">
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" t="n">
+        <v>7205</v>
+      </c>
+      <c r="C298" t="n">
+        <v>7205</v>
+      </c>
+      <c r="D298" t="n">
+        <v>7205</v>
+      </c>
+      <c r="E298" t="n">
+        <v>7205</v>
+      </c>
+      <c r="F298" t="n">
+        <v>25.18</v>
+      </c>
+      <c r="G298" t="n">
+        <v>-11946.3255861</v>
+      </c>
+      <c r="H298" t="n">
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" t="n">
+        <v>7205</v>
+      </c>
+      <c r="C299" t="n">
+        <v>7205</v>
+      </c>
+      <c r="D299" t="n">
+        <v>7205</v>
+      </c>
+      <c r="E299" t="n">
+        <v>7205</v>
+      </c>
+      <c r="F299" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="G299" t="n">
+        <v>-11946.3255861</v>
+      </c>
+      <c r="H299" t="n">
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" t="n">
+        <v>7200</v>
+      </c>
+      <c r="C300" t="n">
+        <v>7195</v>
+      </c>
+      <c r="D300" t="n">
+        <v>7200</v>
+      </c>
+      <c r="E300" t="n">
+        <v>7195</v>
+      </c>
+      <c r="F300" t="n">
+        <v>83.06</v>
+      </c>
+      <c r="G300" t="n">
+        <v>-12029.3855861</v>
+      </c>
+      <c r="H300" t="n">
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>7205</v>
+      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B248" t="n">
-        <v>7185</v>
-      </c>
-      <c r="C248" t="n">
-        <v>7185</v>
-      </c>
-      <c r="D248" t="n">
-        <v>7185</v>
-      </c>
-      <c r="E248" t="n">
-        <v>7185</v>
-      </c>
-      <c r="F248" t="n">
-        <v>204.7589</v>
-      </c>
-      <c r="G248" t="n">
-        <v>-12118.99392659</v>
-      </c>
-      <c r="H248" t="n">
-        <v>1</v>
-      </c>
-      <c r="I248" t="n">
-        <v>7140</v>
-      </c>
-      <c r="J248" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>247</v>
-      </c>
-      <c r="B249" t="n">
-        <v>7190</v>
-      </c>
-      <c r="C249" t="n">
-        <v>7190</v>
-      </c>
-      <c r="D249" t="n">
-        <v>7190</v>
-      </c>
-      <c r="E249" t="n">
-        <v>7190</v>
-      </c>
-      <c r="F249" t="n">
-        <v>1</v>
-      </c>
-      <c r="G249" t="n">
-        <v>-12117.99392659</v>
-      </c>
-      <c r="H249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I249" t="n">
-        <v>7185</v>
-      </c>
-      <c r="J249" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>248</v>
-      </c>
-      <c r="B250" t="n">
-        <v>7220</v>
-      </c>
-      <c r="C250" t="n">
-        <v>7220</v>
-      </c>
-      <c r="D250" t="n">
-        <v>7220</v>
-      </c>
-      <c r="E250" t="n">
-        <v>7220</v>
-      </c>
-      <c r="F250" t="n">
-        <v>14.5568</v>
-      </c>
-      <c r="G250" t="n">
-        <v>-12103.43712659</v>
-      </c>
-      <c r="H250" t="n">
-        <v>1</v>
-      </c>
-      <c r="I250" t="n">
-        <v>7190</v>
-      </c>
-      <c r="J250" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="B251" t="n">
-        <v>7205</v>
-      </c>
-      <c r="C251" t="n">
-        <v>7205</v>
-      </c>
-      <c r="D251" t="n">
-        <v>7205</v>
-      </c>
-      <c r="E251" t="n">
-        <v>7205</v>
-      </c>
-      <c r="F251" t="n">
-        <v>8.494999999999999</v>
-      </c>
-      <c r="G251" t="n">
-        <v>-12111.93212659</v>
-      </c>
-      <c r="H251" t="n">
-        <v>1</v>
-      </c>
-      <c r="I251" t="n">
-        <v>7220</v>
-      </c>
-      <c r="J251" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B252" t="n">
-        <v>7210</v>
-      </c>
-      <c r="C252" t="n">
-        <v>7205</v>
-      </c>
-      <c r="D252" t="n">
-        <v>7210</v>
-      </c>
-      <c r="E252" t="n">
-        <v>7205</v>
-      </c>
-      <c r="F252" t="n">
-        <v>7.06</v>
-      </c>
-      <c r="G252" t="n">
-        <v>-12111.93212659</v>
-      </c>
-      <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>7205</v>
-      </c>
-      <c r="J252" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B253" t="n">
-        <v>7205</v>
-      </c>
-      <c r="C253" t="n">
-        <v>7205</v>
-      </c>
-      <c r="D253" t="n">
-        <v>7205</v>
-      </c>
-      <c r="E253" t="n">
-        <v>7205</v>
-      </c>
-      <c r="F253" t="n">
-        <v>133.8088</v>
-      </c>
-      <c r="G253" t="n">
-        <v>-12111.93212659</v>
-      </c>
-      <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>7205</v>
-      </c>
-      <c r="J253" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
-        <v>252</v>
-      </c>
-      <c r="B254" t="n">
-        <v>7210</v>
-      </c>
-      <c r="C254" t="n">
-        <v>7210</v>
-      </c>
-      <c r="D254" t="n">
-        <v>7210</v>
-      </c>
-      <c r="E254" t="n">
-        <v>7210</v>
-      </c>
-      <c r="F254" t="n">
-        <v>24.8658</v>
-      </c>
-      <c r="G254" t="n">
-        <v>-12087.06632659</v>
-      </c>
-      <c r="H254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I254" t="n">
-        <v>7205</v>
-      </c>
-      <c r="J254" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
-        <v>253</v>
-      </c>
-      <c r="B255" t="n">
-        <v>7210</v>
-      </c>
-      <c r="C255" t="n">
-        <v>7255</v>
-      </c>
-      <c r="D255" t="n">
-        <v>7255</v>
-      </c>
-      <c r="E255" t="n">
-        <v>7210</v>
-      </c>
-      <c r="F255" t="n">
-        <v>30</v>
-      </c>
-      <c r="G255" t="n">
-        <v>-12057.06632659</v>
-      </c>
-      <c r="H255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>7210</v>
-      </c>
-      <c r="J255" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
-        <v>254</v>
-      </c>
-      <c r="B256" t="n">
-        <v>7245</v>
-      </c>
-      <c r="C256" t="n">
-        <v>7245</v>
-      </c>
-      <c r="D256" t="n">
-        <v>7245</v>
-      </c>
-      <c r="E256" t="n">
-        <v>7245</v>
-      </c>
-      <c r="F256" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="G256" t="n">
-        <v>-12058.45632659</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
-        <v>255</v>
-      </c>
-      <c r="B257" t="n">
-        <v>7245</v>
-      </c>
-      <c r="C257" t="n">
-        <v>7245</v>
-      </c>
-      <c r="D257" t="n">
-        <v>7245</v>
-      </c>
-      <c r="E257" t="n">
-        <v>7245</v>
-      </c>
-      <c r="F257" t="n">
-        <v>4.1897</v>
-      </c>
-      <c r="G257" t="n">
-        <v>-12058.45632659</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
-        <v>256</v>
-      </c>
-      <c r="B258" t="n">
-        <v>7245</v>
-      </c>
-      <c r="C258" t="n">
-        <v>7270</v>
-      </c>
-      <c r="D258" t="n">
-        <v>7270</v>
-      </c>
-      <c r="E258" t="n">
-        <v>7245</v>
-      </c>
-      <c r="F258" t="n">
-        <v>18</v>
-      </c>
-      <c r="G258" t="n">
-        <v>-12040.45632659</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
-        <v>257</v>
-      </c>
-      <c r="B259" t="n">
-        <v>7215</v>
-      </c>
-      <c r="C259" t="n">
-        <v>7215</v>
-      </c>
-      <c r="D259" t="n">
-        <v>7215</v>
-      </c>
-      <c r="E259" t="n">
-        <v>7215</v>
-      </c>
-      <c r="F259" t="n">
-        <v>6.72</v>
-      </c>
-      <c r="G259" t="n">
-        <v>-12047.17632659</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
-        <v>258</v>
-      </c>
-      <c r="B260" t="n">
-        <v>7215</v>
-      </c>
-      <c r="C260" t="n">
-        <v>7250</v>
-      </c>
-      <c r="D260" t="n">
-        <v>7250</v>
-      </c>
-      <c r="E260" t="n">
-        <v>7215</v>
-      </c>
-      <c r="F260" t="n">
-        <v>91.17910000000001</v>
-      </c>
-      <c r="G260" t="n">
-        <v>-11955.99722659</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
-        <v>259</v>
-      </c>
-      <c r="B261" t="n">
-        <v>7220</v>
-      </c>
-      <c r="C261" t="n">
-        <v>7220</v>
-      </c>
-      <c r="D261" t="n">
-        <v>7220</v>
-      </c>
-      <c r="E261" t="n">
-        <v>7220</v>
-      </c>
-      <c r="F261" t="n">
-        <v>14.8466</v>
-      </c>
-      <c r="G261" t="n">
-        <v>-11970.84382659</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
-        <v>260</v>
-      </c>
-      <c r="B262" t="n">
-        <v>7225</v>
-      </c>
-      <c r="C262" t="n">
-        <v>7230</v>
-      </c>
-      <c r="D262" t="n">
-        <v>7230</v>
-      </c>
-      <c r="E262" t="n">
-        <v>7225</v>
-      </c>
-      <c r="F262" t="n">
-        <v>340.2396</v>
-      </c>
-      <c r="G262" t="n">
-        <v>-11630.60422659</v>
-      </c>
-      <c r="H262" t="n">
-        <v>1</v>
-      </c>
-      <c r="I262" t="n">
-        <v>7220</v>
-      </c>
-      <c r="J262" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
-        <v>261</v>
-      </c>
-      <c r="B263" t="n">
-        <v>7235</v>
-      </c>
-      <c r="C263" t="n">
-        <v>7225</v>
-      </c>
-      <c r="D263" t="n">
-        <v>7265</v>
-      </c>
-      <c r="E263" t="n">
-        <v>7225</v>
-      </c>
-      <c r="F263" t="n">
-        <v>422.02442429</v>
-      </c>
-      <c r="G263" t="n">
-        <v>-12052.62865088</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
-        <v>262</v>
-      </c>
-      <c r="B264" t="n">
-        <v>7220</v>
-      </c>
-      <c r="C264" t="n">
-        <v>7205</v>
-      </c>
-      <c r="D264" t="n">
-        <v>7240</v>
-      </c>
-      <c r="E264" t="n">
-        <v>7195</v>
-      </c>
-      <c r="F264" t="n">
-        <v>153.4618</v>
-      </c>
-      <c r="G264" t="n">
-        <v>-12206.09045088</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
-        <v>263</v>
-      </c>
-      <c r="B265" t="n">
-        <v>7185</v>
-      </c>
-      <c r="C265" t="n">
-        <v>7230</v>
-      </c>
-      <c r="D265" t="n">
-        <v>7230</v>
-      </c>
-      <c r="E265" t="n">
-        <v>7185</v>
-      </c>
-      <c r="F265" t="n">
-        <v>83.3792</v>
-      </c>
-      <c r="G265" t="n">
-        <v>-12122.71125088</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
-        <v>264</v>
-      </c>
-      <c r="B266" t="n">
-        <v>7190</v>
-      </c>
-      <c r="C266" t="n">
-        <v>7230</v>
-      </c>
-      <c r="D266" t="n">
-        <v>7230</v>
-      </c>
-      <c r="E266" t="n">
-        <v>7190</v>
-      </c>
-      <c r="F266" t="n">
-        <v>74.1969</v>
-      </c>
-      <c r="G266" t="n">
-        <v>-12122.71125088</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
-        <v>265</v>
-      </c>
-      <c r="B267" t="n">
-        <v>7190</v>
-      </c>
-      <c r="C267" t="n">
-        <v>7190</v>
-      </c>
-      <c r="D267" t="n">
-        <v>7190</v>
-      </c>
-      <c r="E267" t="n">
-        <v>7190</v>
-      </c>
-      <c r="F267" t="n">
-        <v>51.18</v>
-      </c>
-      <c r="G267" t="n">
-        <v>-12173.89125088</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
-        <v>266</v>
-      </c>
-      <c r="B268" t="n">
-        <v>7240</v>
-      </c>
-      <c r="C268" t="n">
-        <v>7240</v>
-      </c>
-      <c r="D268" t="n">
-        <v>7240</v>
-      </c>
-      <c r="E268" t="n">
-        <v>7240</v>
-      </c>
-      <c r="F268" t="n">
-        <v>6.8887</v>
-      </c>
-      <c r="G268" t="n">
-        <v>-12167.00255088</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
-        <v>267</v>
-      </c>
-      <c r="B269" t="n">
-        <v>7240</v>
-      </c>
-      <c r="C269" t="n">
-        <v>7240</v>
-      </c>
-      <c r="D269" t="n">
-        <v>7240</v>
-      </c>
-      <c r="E269" t="n">
-        <v>7240</v>
-      </c>
-      <c r="F269" t="n">
-        <v>27.9313</v>
-      </c>
-      <c r="G269" t="n">
-        <v>-12167.00255088</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
-        <v>268</v>
-      </c>
-      <c r="B270" t="n">
-        <v>7220</v>
-      </c>
-      <c r="C270" t="n">
-        <v>7225</v>
-      </c>
-      <c r="D270" t="n">
-        <v>7225</v>
-      </c>
-      <c r="E270" t="n">
-        <v>7220</v>
-      </c>
-      <c r="F270" t="n">
-        <v>13.1941</v>
-      </c>
-      <c r="G270" t="n">
-        <v>-12180.19665088</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
-        <v>269</v>
-      </c>
-      <c r="B271" t="n">
-        <v>7225</v>
-      </c>
-      <c r="C271" t="n">
-        <v>7220</v>
-      </c>
-      <c r="D271" t="n">
-        <v>7225</v>
-      </c>
-      <c r="E271" t="n">
-        <v>7220</v>
-      </c>
-      <c r="F271" t="n">
-        <v>122.6011</v>
-      </c>
-      <c r="G271" t="n">
-        <v>-12302.79775088</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
-        <v>270</v>
-      </c>
-      <c r="B272" t="n">
-        <v>7215</v>
-      </c>
-      <c r="C272" t="n">
-        <v>7215</v>
-      </c>
-      <c r="D272" t="n">
-        <v>7215</v>
-      </c>
-      <c r="E272" t="n">
-        <v>7215</v>
-      </c>
-      <c r="F272" t="n">
-        <v>2</v>
-      </c>
-      <c r="G272" t="n">
-        <v>-12304.79775088</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
-        <v>271</v>
-      </c>
-      <c r="B273" t="n">
-        <v>7215</v>
-      </c>
-      <c r="C273" t="n">
-        <v>7215</v>
-      </c>
-      <c r="D273" t="n">
-        <v>7215</v>
-      </c>
-      <c r="E273" t="n">
-        <v>7215</v>
-      </c>
-      <c r="F273" t="n">
-        <v>50.6457</v>
-      </c>
-      <c r="G273" t="n">
-        <v>-12304.79775088</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
-        <v>272</v>
-      </c>
-      <c r="B274" t="n">
-        <v>7215</v>
-      </c>
-      <c r="C274" t="n">
-        <v>7215</v>
-      </c>
-      <c r="D274" t="n">
-        <v>7215</v>
-      </c>
-      <c r="E274" t="n">
-        <v>7215</v>
-      </c>
-      <c r="F274" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="G274" t="n">
-        <v>-12304.79775088</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
-        <v>273</v>
-      </c>
-      <c r="B275" t="n">
-        <v>7215</v>
-      </c>
-      <c r="C275" t="n">
-        <v>7215</v>
-      </c>
-      <c r="D275" t="n">
-        <v>7215</v>
-      </c>
-      <c r="E275" t="n">
-        <v>7215</v>
-      </c>
-      <c r="F275" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="G275" t="n">
-        <v>-12304.79775088</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
-        <v>274</v>
-      </c>
-      <c r="B276" t="n">
-        <v>7220</v>
-      </c>
-      <c r="C276" t="n">
-        <v>7220</v>
-      </c>
-      <c r="D276" t="n">
-        <v>7220</v>
-      </c>
-      <c r="E276" t="n">
-        <v>7220</v>
-      </c>
-      <c r="F276" t="n">
-        <v>290.1333</v>
-      </c>
-      <c r="G276" t="n">
-        <v>-12014.66445088</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
-        <v>275</v>
-      </c>
-      <c r="B277" t="n">
-        <v>7220</v>
-      </c>
-      <c r="C277" t="n">
-        <v>7220</v>
-      </c>
-      <c r="D277" t="n">
-        <v>7220</v>
-      </c>
-      <c r="E277" t="n">
-        <v>7220</v>
-      </c>
-      <c r="F277" t="n">
-        <v>38.3996</v>
-      </c>
-      <c r="G277" t="n">
-        <v>-12014.66445088</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
-        <v>276</v>
-      </c>
-      <c r="B278" t="n">
-        <v>7220</v>
-      </c>
-      <c r="C278" t="n">
-        <v>7220</v>
-      </c>
-      <c r="D278" t="n">
-        <v>7220</v>
-      </c>
-      <c r="E278" t="n">
-        <v>7220</v>
-      </c>
-      <c r="F278" t="n">
-        <v>1</v>
-      </c>
-      <c r="G278" t="n">
-        <v>-12014.66445088</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
-        <v>277</v>
-      </c>
-      <c r="B279" t="n">
-        <v>7190</v>
-      </c>
-      <c r="C279" t="n">
-        <v>7190</v>
-      </c>
-      <c r="D279" t="n">
-        <v>7190</v>
-      </c>
-      <c r="E279" t="n">
-        <v>7190</v>
-      </c>
-      <c r="F279" t="n">
-        <v>11.3777</v>
-      </c>
-      <c r="G279" t="n">
-        <v>-12026.04215088</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
-        <v>278</v>
-      </c>
-      <c r="B280" t="n">
-        <v>7185</v>
-      </c>
-      <c r="C280" t="n">
-        <v>7185</v>
-      </c>
-      <c r="D280" t="n">
-        <v>7185</v>
-      </c>
-      <c r="E280" t="n">
-        <v>7185</v>
-      </c>
-      <c r="F280" t="n">
-        <v>467.1512</v>
-      </c>
-      <c r="G280" t="n">
-        <v>-12493.19335088</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
-        <v>279</v>
-      </c>
-      <c r="B281" t="n">
-        <v>7185</v>
-      </c>
-      <c r="C281" t="n">
-        <v>7185</v>
-      </c>
-      <c r="D281" t="n">
-        <v>7185</v>
-      </c>
-      <c r="E281" t="n">
-        <v>7185</v>
-      </c>
-      <c r="F281" t="n">
-        <v>3</v>
-      </c>
-      <c r="G281" t="n">
-        <v>-12493.19335088</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
-        <v>280</v>
-      </c>
-      <c r="B282" t="n">
-        <v>7185</v>
-      </c>
-      <c r="C282" t="n">
-        <v>7185</v>
-      </c>
-      <c r="D282" t="n">
-        <v>7185</v>
-      </c>
-      <c r="E282" t="n">
-        <v>7185</v>
-      </c>
-      <c r="F282" t="n">
-        <v>0.30006958</v>
-      </c>
-      <c r="G282" t="n">
-        <v>-12493.19335088</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
-        <v>281</v>
-      </c>
-      <c r="B283" t="n">
-        <v>7165</v>
-      </c>
-      <c r="C283" t="n">
-        <v>7165</v>
-      </c>
-      <c r="D283" t="n">
-        <v>7165</v>
-      </c>
-      <c r="E283" t="n">
-        <v>7165</v>
-      </c>
-      <c r="F283" t="n">
-        <v>30.9145</v>
-      </c>
-      <c r="G283" t="n">
-        <v>-12524.10785088</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
-        <v>282</v>
-      </c>
-      <c r="B284" t="n">
-        <v>7165</v>
-      </c>
-      <c r="C284" t="n">
-        <v>7165</v>
-      </c>
-      <c r="D284" t="n">
-        <v>7165</v>
-      </c>
-      <c r="E284" t="n">
-        <v>7165</v>
-      </c>
-      <c r="F284" t="n">
-        <v>5</v>
-      </c>
-      <c r="G284" t="n">
-        <v>-12524.10785088</v>
-      </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
-        <v>283</v>
-      </c>
-      <c r="B285" t="n">
-        <v>7165</v>
-      </c>
-      <c r="C285" t="n">
-        <v>7165</v>
-      </c>
-      <c r="D285" t="n">
-        <v>7165</v>
-      </c>
-      <c r="E285" t="n">
-        <v>7165</v>
-      </c>
-      <c r="F285" t="n">
-        <v>0.2545</v>
-      </c>
-      <c r="G285" t="n">
-        <v>-12524.10785088</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
-        <v>284</v>
-      </c>
-      <c r="B286" t="n">
-        <v>7165</v>
-      </c>
-      <c r="C286" t="n">
-        <v>7165</v>
-      </c>
-      <c r="D286" t="n">
-        <v>7165</v>
-      </c>
-      <c r="E286" t="n">
-        <v>7165</v>
-      </c>
-      <c r="F286" t="n">
-        <v>45.34</v>
-      </c>
-      <c r="G286" t="n">
-        <v>-12524.10785088</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
-        <v>285</v>
-      </c>
-      <c r="B287" t="n">
-        <v>7165</v>
-      </c>
-      <c r="C287" t="n">
-        <v>7185</v>
-      </c>
-      <c r="D287" t="n">
-        <v>7185</v>
-      </c>
-      <c r="E287" t="n">
-        <v>7165</v>
-      </c>
-      <c r="F287" t="n">
-        <v>155.72116478</v>
-      </c>
-      <c r="G287" t="n">
-        <v>-12368.3866861</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
-        <v>286</v>
-      </c>
-      <c r="B288" t="n">
-        <v>7185</v>
-      </c>
-      <c r="C288" t="n">
-        <v>7180</v>
-      </c>
-      <c r="D288" t="n">
-        <v>7185</v>
-      </c>
-      <c r="E288" t="n">
-        <v>7180</v>
-      </c>
-      <c r="F288" t="n">
-        <v>62.8923</v>
-      </c>
-      <c r="G288" t="n">
-        <v>-12431.2789861</v>
-      </c>
-      <c r="H288" t="n">
-        <v>1</v>
-      </c>
-      <c r="I288" t="n">
-        <v>7185</v>
-      </c>
-      <c r="J288" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
-        <v>287</v>
-      </c>
-      <c r="B289" t="n">
-        <v>7185</v>
-      </c>
-      <c r="C289" t="n">
-        <v>7220</v>
-      </c>
-      <c r="D289" t="n">
-        <v>7220</v>
-      </c>
-      <c r="E289" t="n">
-        <v>7185</v>
-      </c>
-      <c r="F289" t="n">
-        <v>240.8338</v>
-      </c>
-      <c r="G289" t="n">
-        <v>-12190.4451861</v>
-      </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
-        <v>288</v>
-      </c>
-      <c r="B290" t="n">
-        <v>7230</v>
-      </c>
-      <c r="C290" t="n">
-        <v>7230</v>
-      </c>
-      <c r="D290" t="n">
-        <v>7230</v>
-      </c>
-      <c r="E290" t="n">
-        <v>7230</v>
-      </c>
-      <c r="F290" t="n">
-        <v>164.76</v>
-      </c>
-      <c r="G290" t="n">
-        <v>-12025.6851861</v>
-      </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
-        <v>289</v>
-      </c>
-      <c r="B291" t="n">
-        <v>7245</v>
-      </c>
-      <c r="C291" t="n">
-        <v>7230</v>
-      </c>
-      <c r="D291" t="n">
-        <v>7250</v>
-      </c>
-      <c r="E291" t="n">
-        <v>7230</v>
-      </c>
-      <c r="F291" t="n">
-        <v>29.0309</v>
-      </c>
-      <c r="G291" t="n">
-        <v>-12025.6851861</v>
-      </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
-        <v>290</v>
-      </c>
-      <c r="B292" t="n">
-        <v>7190</v>
-      </c>
-      <c r="C292" t="n">
-        <v>7190</v>
-      </c>
-      <c r="D292" t="n">
-        <v>7190</v>
-      </c>
-      <c r="E292" t="n">
-        <v>7190</v>
-      </c>
-      <c r="F292" t="n">
-        <v>24.72</v>
-      </c>
-      <c r="G292" t="n">
-        <v>-12050.4051861</v>
-      </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
-        <v>291</v>
-      </c>
-      <c r="B293" t="n">
-        <v>7215</v>
-      </c>
-      <c r="C293" t="n">
-        <v>7225</v>
-      </c>
-      <c r="D293" t="n">
-        <v>7225</v>
-      </c>
-      <c r="E293" t="n">
-        <v>7215</v>
-      </c>
-      <c r="F293" t="n">
-        <v>30.41</v>
-      </c>
-      <c r="G293" t="n">
-        <v>-12019.9951861</v>
-      </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
-        <v>292</v>
-      </c>
-      <c r="B294" t="n">
-        <v>7225</v>
-      </c>
-      <c r="C294" t="n">
-        <v>7200</v>
-      </c>
-      <c r="D294" t="n">
-        <v>7225</v>
-      </c>
-      <c r="E294" t="n">
-        <v>7200</v>
-      </c>
-      <c r="F294" t="n">
-        <v>51.0475</v>
-      </c>
-      <c r="G294" t="n">
-        <v>-12071.0426861</v>
-      </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L294" t="n">
-        <v>1</v>
-      </c>
-      <c r="M294" t="inlineStr"/>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="n">
-        <v>293</v>
-      </c>
-      <c r="B295" t="n">
-        <v>7200</v>
-      </c>
-      <c r="C295" t="n">
-        <v>7200</v>
-      </c>
-      <c r="D295" t="n">
-        <v>7200</v>
-      </c>
-      <c r="E295" t="n">
-        <v>7200</v>
-      </c>
-      <c r="F295" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="G295" t="n">
-        <v>-12071.0426861</v>
-      </c>
-      <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M295" t="inlineStr"/>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
-        <v>294</v>
-      </c>
-      <c r="B296" t="n">
-        <v>7220</v>
-      </c>
-      <c r="C296" t="n">
-        <v>7220</v>
-      </c>
-      <c r="D296" t="n">
-        <v>7220</v>
-      </c>
-      <c r="E296" t="n">
-        <v>7220</v>
-      </c>
-      <c r="F296" t="n">
-        <v>11.8971</v>
-      </c>
-      <c r="G296" t="n">
-        <v>-12059.1455861</v>
-      </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L296" t="n">
-        <v>1</v>
-      </c>
-      <c r="M296" t="inlineStr"/>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="n">
-        <v>295</v>
-      </c>
-      <c r="B297" t="n">
-        <v>7220</v>
-      </c>
-      <c r="C297" t="n">
-        <v>7225</v>
-      </c>
-      <c r="D297" t="n">
-        <v>7225</v>
-      </c>
-      <c r="E297" t="n">
-        <v>7220</v>
-      </c>
-      <c r="F297" t="n">
-        <v>138</v>
-      </c>
-      <c r="G297" t="n">
-        <v>-11921.1455861</v>
-      </c>
-      <c r="H297" t="n">
-        <v>1</v>
-      </c>
-      <c r="I297" t="n">
-        <v>7220</v>
-      </c>
-      <c r="J297" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L297" t="n">
-        <v>1</v>
-      </c>
-      <c r="M297" t="inlineStr"/>
-    </row>
-    <row r="298">
-      <c r="A298" s="1" t="n">
-        <v>296</v>
-      </c>
-      <c r="B298" t="n">
-        <v>7205</v>
-      </c>
-      <c r="C298" t="n">
-        <v>7205</v>
-      </c>
-      <c r="D298" t="n">
-        <v>7205</v>
-      </c>
-      <c r="E298" t="n">
-        <v>7205</v>
-      </c>
-      <c r="F298" t="n">
-        <v>25.18</v>
-      </c>
-      <c r="G298" t="n">
-        <v>-11946.3255861</v>
-      </c>
-      <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L298" t="n">
-        <v>1</v>
-      </c>
-      <c r="M298" t="inlineStr"/>
-    </row>
-    <row r="299">
-      <c r="A299" s="1" t="n">
-        <v>297</v>
-      </c>
-      <c r="B299" t="n">
-        <v>7205</v>
-      </c>
-      <c r="C299" t="n">
-        <v>7205</v>
-      </c>
-      <c r="D299" t="n">
-        <v>7205</v>
-      </c>
-      <c r="E299" t="n">
-        <v>7205</v>
-      </c>
-      <c r="F299" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="G299" t="n">
-        <v>-11946.3255861</v>
-      </c>
-      <c r="H299" t="n">
-        <v>1</v>
-      </c>
-      <c r="I299" t="n">
-        <v>7205</v>
-      </c>
-      <c r="J299" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L299" t="n">
-        <v>1</v>
-      </c>
-      <c r="M299" t="inlineStr"/>
-    </row>
-    <row r="300">
-      <c r="A300" s="1" t="n">
-        <v>298</v>
-      </c>
-      <c r="B300" t="n">
-        <v>7200</v>
-      </c>
-      <c r="C300" t="n">
-        <v>7195</v>
-      </c>
-      <c r="D300" t="n">
-        <v>7200</v>
-      </c>
-      <c r="E300" t="n">
-        <v>7195</v>
-      </c>
-      <c r="F300" t="n">
-        <v>83.06</v>
-      </c>
-      <c r="G300" t="n">
-        <v>-12029.3855861</v>
-      </c>
-      <c r="H300" t="n">
-        <v>1</v>
-      </c>
-      <c r="I300" t="n">
-        <v>7205</v>
-      </c>
-      <c r="J300" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10679,9 +10329,7 @@
       <c r="I301" t="n">
         <v>7195</v>
       </c>
-      <c r="J301" t="n">
-        <v>7140</v>
-      </c>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10715,14 +10363,10 @@
         <v>-12004.3616861</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
-      </c>
-      <c r="I302" t="n">
-        <v>7210</v>
-      </c>
-      <c r="J302" t="n">
-        <v>7140</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10756,14 +10400,10 @@
         <v>-12004.3616861</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
-      </c>
-      <c r="I303" t="n">
-        <v>7210</v>
-      </c>
-      <c r="J303" t="n">
-        <v>7140</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10797,14 +10437,10 @@
         <v>-12104.5243861</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
-      </c>
-      <c r="I304" t="n">
-        <v>7210</v>
-      </c>
-      <c r="J304" t="n">
-        <v>7140</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
+      <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10838,14 +10474,10 @@
         <v>-12104.5243861</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
-      </c>
-      <c r="I305" t="n">
-        <v>7195</v>
-      </c>
-      <c r="J305" t="n">
-        <v>7140</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
+      <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10884,9 +10516,7 @@
       <c r="I306" t="n">
         <v>7195</v>
       </c>
-      <c r="J306" t="n">
-        <v>7140</v>
-      </c>
+      <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10925,9 +10555,7 @@
       <c r="I307" t="n">
         <v>7195</v>
       </c>
-      <c r="J307" t="n">
-        <v>7140</v>
-      </c>
+      <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10966,9 +10594,7 @@
       <c r="I308" t="n">
         <v>7190</v>
       </c>
-      <c r="J308" t="n">
-        <v>7140</v>
-      </c>
+      <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11007,9 +10633,7 @@
       <c r="I309" t="n">
         <v>7200</v>
       </c>
-      <c r="J309" t="n">
-        <v>7140</v>
-      </c>
+      <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11048,9 +10672,7 @@
       <c r="I310" t="n">
         <v>7180</v>
       </c>
-      <c r="J310" t="n">
-        <v>7140</v>
-      </c>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11089,9 +10711,7 @@
       <c r="I311" t="n">
         <v>7195</v>
       </c>
-      <c r="J311" t="n">
-        <v>7140</v>
-      </c>
+      <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11130,9 +10750,7 @@
       <c r="I312" t="n">
         <v>7185</v>
       </c>
-      <c r="J312" t="n">
-        <v>7140</v>
-      </c>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11171,9 +10789,7 @@
       <c r="I313" t="n">
         <v>7185</v>
       </c>
-      <c r="J313" t="n">
-        <v>7140</v>
-      </c>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11212,9 +10828,7 @@
       <c r="I314" t="n">
         <v>7185</v>
       </c>
-      <c r="J314" t="n">
-        <v>7140</v>
-      </c>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11253,9 +10867,7 @@
       <c r="I315" t="n">
         <v>7185</v>
       </c>
-      <c r="J315" t="n">
-        <v>7140</v>
-      </c>
+      <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11294,9 +10906,7 @@
       <c r="I316" t="n">
         <v>7185</v>
       </c>
-      <c r="J316" t="n">
-        <v>7140</v>
-      </c>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11335,9 +10945,7 @@
       <c r="I317" t="n">
         <v>7185</v>
       </c>
-      <c r="J317" t="n">
-        <v>7140</v>
-      </c>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11376,9 +10984,7 @@
       <c r="I318" t="n">
         <v>7185</v>
       </c>
-      <c r="J318" t="n">
-        <v>7140</v>
-      </c>
+      <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11417,9 +11023,7 @@
       <c r="I319" t="n">
         <v>7200</v>
       </c>
-      <c r="J319" t="n">
-        <v>7140</v>
-      </c>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11458,9 +11062,7 @@
       <c r="I320" t="n">
         <v>7200</v>
       </c>
-      <c r="J320" t="n">
-        <v>7140</v>
-      </c>
+      <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11499,9 +11101,7 @@
       <c r="I321" t="n">
         <v>7205</v>
       </c>
-      <c r="J321" t="n">
-        <v>7140</v>
-      </c>
+      <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11540,9 +11140,7 @@
       <c r="I322" t="n">
         <v>7205</v>
       </c>
-      <c r="J322" t="n">
-        <v>7140</v>
-      </c>
+      <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11581,9 +11179,7 @@
       <c r="I323" t="n">
         <v>7205</v>
       </c>
-      <c r="J323" t="n">
-        <v>7140</v>
-      </c>
+      <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11622,9 +11218,7 @@
       <c r="I324" t="n">
         <v>7205</v>
       </c>
-      <c r="J324" t="n">
-        <v>7140</v>
-      </c>
+      <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11663,9 +11257,7 @@
       <c r="I325" t="n">
         <v>7215</v>
       </c>
-      <c r="J325" t="n">
-        <v>7140</v>
-      </c>
+      <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11704,9 +11296,7 @@
       <c r="I326" t="n">
         <v>7215</v>
       </c>
-      <c r="J326" t="n">
-        <v>7140</v>
-      </c>
+      <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11745,9 +11335,7 @@
       <c r="I327" t="n">
         <v>7220</v>
       </c>
-      <c r="J327" t="n">
-        <v>7140</v>
-      </c>
+      <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11784,9 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>7140</v>
-      </c>
+      <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11820,12 +11406,12 @@
         <v>-11801.3747861</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>7140</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I329" t="n">
+        <v>7240</v>
+      </c>
+      <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11862,9 +11448,7 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>7140</v>
-      </c>
+      <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11901,9 +11485,7 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>7140</v>
-      </c>
+      <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11940,9 +11522,7 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>7140</v>
-      </c>
+      <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11979,9 +11559,7 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>7140</v>
-      </c>
+      <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12018,9 +11596,7 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>7140</v>
-      </c>
+      <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12057,9 +11633,7 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>7140</v>
-      </c>
+      <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12096,9 +11670,7 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>7140</v>
-      </c>
+      <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12135,9 +11707,7 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>7140</v>
-      </c>
+      <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12174,9 +11744,7 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>7140</v>
-      </c>
+      <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12213,9 +11781,7 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>7140</v>
-      </c>
+      <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12252,9 +11818,7 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>7140</v>
-      </c>
+      <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12291,9 +11855,7 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>7140</v>
-      </c>
+      <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12330,9 +11892,7 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>7140</v>
-      </c>
+      <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12369,9 +11929,7 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>7140</v>
-      </c>
+      <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12408,9 +11966,7 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>7140</v>
-      </c>
+      <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12447,9 +12003,7 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>7140</v>
-      </c>
+      <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12486,9 +12040,7 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>7140</v>
-      </c>
+      <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12525,9 +12077,7 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>7140</v>
-      </c>
+      <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12564,9 +12114,7 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>7140</v>
-      </c>
+      <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12603,9 +12151,7 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>7140</v>
-      </c>
+      <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12642,9 +12188,7 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>7140</v>
-      </c>
+      <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12681,9 +12225,7 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>7140</v>
-      </c>
+      <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12720,9 +12262,7 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>7140</v>
-      </c>
+      <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12759,9 +12299,7 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>7140</v>
-      </c>
+      <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12798,9 +12336,7 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>7140</v>
-      </c>
+      <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12837,9 +12373,7 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>7140</v>
-      </c>
+      <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12876,9 +12410,7 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>7140</v>
-      </c>
+      <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12915,9 +12447,7 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>7140</v>
-      </c>
+      <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12954,9 +12484,7 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>7140</v>
-      </c>
+      <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12993,9 +12521,7 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>7140</v>
-      </c>
+      <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13032,9 +12558,7 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>7140</v>
-      </c>
+      <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13071,9 +12595,7 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>7140</v>
-      </c>
+      <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13110,9 +12632,7 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>7140</v>
-      </c>
+      <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13149,9 +12669,7 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>7140</v>
-      </c>
+      <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13188,9 +12706,7 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>7140</v>
-      </c>
+      <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13227,9 +12743,7 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>7140</v>
-      </c>
+      <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13266,9 +12780,7 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>7140</v>
-      </c>
+      <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13305,9 +12817,7 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>7140</v>
-      </c>
+      <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13344,9 +12854,7 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>7140</v>
-      </c>
+      <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13383,9 +12891,7 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>7140</v>
-      </c>
+      <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13422,9 +12928,7 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>7140</v>
-      </c>
+      <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13461,9 +12965,7 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>7140</v>
-      </c>
+      <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13500,9 +13002,7 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>7140</v>
-      </c>
+      <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13539,9 +13039,7 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>7140</v>
-      </c>
+      <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13578,9 +13076,7 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>7140</v>
-      </c>
+      <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13617,9 +13113,7 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>7140</v>
-      </c>
+      <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13656,9 +13150,7 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>7140</v>
-      </c>
+      <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13695,9 +13187,7 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>7140</v>
-      </c>
+      <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13734,9 +13224,7 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>7140</v>
-      </c>
+      <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13773,9 +13261,7 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>7140</v>
-      </c>
+      <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13812,9 +13298,7 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>7140</v>
-      </c>
+      <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13851,9 +13335,7 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>7140</v>
-      </c>
+      <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13890,9 +13372,7 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>7140</v>
-      </c>
+      <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13929,9 +13409,7 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>7140</v>
-      </c>
+      <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13968,9 +13446,7 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>7140</v>
-      </c>
+      <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14007,9 +13483,7 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>7140</v>
-      </c>
+      <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14046,9 +13520,7 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>7140</v>
-      </c>
+      <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14082,20 +13554,16 @@
         <v>-7627.292304980003</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>7140</v>
-      </c>
+      <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L387" t="n">
-        <v>1</v>
-      </c>
+      <c r="L387" t="inlineStr"/>
       <c r="M387" t="inlineStr"/>
     </row>
     <row r="388">
@@ -14121,17 +13589,11 @@
         <v>-7604.452404980003</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14160,17 +13622,11 @@
         <v>-7604.452404980003</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14199,17 +13655,11 @@
         <v>-7794.956204980003</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14241,14 +13691,8 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14280,14 +13724,8 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14319,14 +13757,8 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14358,14 +13790,8 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14397,14 +13823,8 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14436,14 +13856,8 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14475,14 +13889,8 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14514,14 +13922,8 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14553,14 +13955,8 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14592,14 +13988,8 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14631,14 +14021,8 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14670,14 +14054,8 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14709,14 +14087,8 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14748,14 +14120,8 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14787,14 +14153,8 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14826,14 +14186,8 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14865,14 +14219,8 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14904,14 +14252,8 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14943,14 +14285,8 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14982,14 +14318,8 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15021,14 +14351,8 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15060,14 +14384,8 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15099,14 +14417,8 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15138,14 +14450,8 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J414" t="inlineStr"/>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15177,14 +14483,8 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15216,14 +14516,8 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15255,14 +14549,8 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15294,14 +14582,8 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15333,14 +14615,8 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J419" t="inlineStr"/>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15372,14 +14648,8 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15411,14 +14681,8 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15450,14 +14714,8 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15489,14 +14747,8 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15528,14 +14780,8 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15567,14 +14813,8 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15606,14 +14846,8 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15645,14 +14879,8 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15684,14 +14912,8 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15723,14 +14945,8 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15762,14 +14978,8 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J430" t="inlineStr"/>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15801,14 +15011,8 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15840,14 +15044,8 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15879,14 +15077,8 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15918,14 +15110,8 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15957,14 +15143,8 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15996,14 +15176,8 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -16035,14 +15209,8 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -16074,14 +15242,8 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -16113,14 +15275,8 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16152,14 +15308,8 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16191,14 +15341,8 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -16230,14 +15374,8 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16269,14 +15407,8 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16308,14 +15440,8 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16347,14 +15473,8 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J445" t="inlineStr"/>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16386,14 +15506,8 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16425,14 +15539,8 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -16461,23 +15569,15 @@
         <v>-5482.84590498</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>7140</v>
-      </c>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J448" t="inlineStr"/>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
-        <v>1.067829131652661</v>
-      </c>
-      <c r="M448" t="n">
-        <v>1.082105263157895</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M448" t="inlineStr"/>
     </row>
     <row r="449">
       <c r="A449" s="1" t="n">
@@ -16568,7 +15668,7 @@
         <v>-5217.41650498</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -16601,7 +15701,7 @@
         <v>-5217.41650498</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -16634,7 +15734,7 @@
         <v>-4469.5389339</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -16667,7 +15767,7 @@
         <v>-4478.169933900001</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -16700,7 +15800,7 @@
         <v>-4713.519933900001</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -16733,7 +15833,7 @@
         <v>-4653.575033900001</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -16766,7 +15866,7 @@
         <v>-4723.356533900001</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -16799,7 +15899,7 @@
         <v>-4782.8797339</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -16832,7 +15932,7 @@
         <v>-5209.4072339</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -16865,7 +15965,7 @@
         <v>-5209.4072339</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -16898,7 +15998,7 @@
         <v>-5306.4350339</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -16964,7 +16064,7 @@
         <v>-5103.3181339</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -16997,7 +16097,7 @@
         <v>-4679.013996340001</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -17030,7 +16130,7 @@
         <v>-4702.114296340001</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -17063,7 +16163,7 @@
         <v>-4710.473996340001</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -17096,7 +16196,7 @@
         <v>-4706.97393179</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -17129,7 +16229,7 @@
         <v>-5029.553231790001</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -17162,7 +16262,7 @@
         <v>-5039.62233179</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -17195,7 +16295,7 @@
         <v>-4817.48643179</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -17228,7 +16328,7 @@
         <v>-4777.77553179</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -17261,7 +16361,7 @@
         <v>-4788.66553179</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -17294,7 +16394,7 @@
         <v>-3311.89692702</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -17327,7 +16427,7 @@
         <v>-3311.89692702</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -17360,7 +16460,7 @@
         <v>-3318.375227020001</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -17393,7 +16493,7 @@
         <v>-3312.535227020001</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -17426,7 +16526,7 @@
         <v>-3312.535227020001</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -17459,7 +16559,7 @@
         <v>-3071.343727020001</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -17492,7 +16592,7 @@
         <v>-3032.143727020001</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -17525,7 +16625,7 @@
         <v>-3083.453727020001</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -17558,7 +16658,7 @@
         <v>-3098.453727020001</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -17624,7 +16724,7 @@
         <v>-3099.159327020001</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -17723,7 +16823,7 @@
         <v>-3115.22602702</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -17756,7 +16856,7 @@
         <v>-3361.89412702</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -17789,7 +16889,7 @@
         <v>-3395.85132702</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -17822,7 +16922,7 @@
         <v>-3412.43812702</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -17855,7 +16955,7 @@
         <v>-3406.71812702</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -17888,7 +16988,7 @@
         <v>-3342.55772702</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -17921,7 +17021,7 @@
         <v>-3342.55772702</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -17954,7 +17054,7 @@
         <v>-3342.55772702</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -17987,7 +17087,7 @@
         <v>-3342.55772702</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -18020,7 +17120,7 @@
         <v>-3342.55772702</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -18053,7 +17153,7 @@
         <v>-3342.55772702</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -18086,7 +17186,7 @@
         <v>-3342.55772702</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -18119,7 +17219,7 @@
         <v>-3309.28322702</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -18251,7 +17351,7 @@
         <v>-3311.17112702</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -18548,7 +17648,7 @@
         <v>-3521.514627020001</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -18581,7 +17681,7 @@
         <v>-3560.834627020001</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -18614,7 +17714,7 @@
         <v>-3560.834627020001</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -18647,7 +17747,7 @@
         <v>-3556.480427020001</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -18680,7 +17780,7 @@
         <v>-3426.257827020001</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -18713,7 +17813,7 @@
         <v>-3426.257827020001</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -18746,7 +17846,7 @@
         <v>-3308.38362702</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -18779,7 +17879,7 @@
         <v>-3308.38362702</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -18812,7 +17912,7 @@
         <v>-3308.38362702</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -18845,7 +17945,7 @@
         <v>-3323.84362702</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -18878,7 +17978,7 @@
         <v>-3353.79412702</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -18911,7 +18011,7 @@
         <v>-3353.79412702</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -18944,7 +18044,7 @@
         <v>-3304.25922702</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -18977,7 +18077,7 @@
         <v>-3298.56072702</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -19010,7 +18110,7 @@
         <v>-3298.56072702</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -19043,7 +18143,7 @@
         <v>-3204.93072702</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -19076,7 +18176,7 @@
         <v>-3218.31422702</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -19109,7 +18209,7 @@
         <v>-3123.44882702</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -19142,7 +18242,7 @@
         <v>-3125.44882702</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -19175,7 +18275,7 @@
         <v>-3191.21882702</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -19208,7 +18308,7 @@
         <v>-2991.21882702</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -19241,7 +18341,7 @@
         <v>-3005.29692702</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -19274,7 +18374,7 @@
         <v>-2947.55692702</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -19307,7 +18407,7 @@
         <v>-3024.18692702</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -19340,7 +18440,7 @@
         <v>-3060.37512702</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -19373,7 +18473,7 @@
         <v>-3046.30402702</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -19406,7 +18506,7 @@
         <v>-3018.99402702</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -19439,7 +18539,7 @@
         <v>-3004.82402702</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -19472,7 +18572,7 @@
         <v>-3004.82402702</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -19505,7 +18605,7 @@
         <v>-3004.82402702</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -19538,7 +18638,7 @@
         <v>-2664.82402702</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -19571,7 +18671,7 @@
         <v>-2834.82402702</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -19604,7 +18704,7 @@
         <v>-2998.92402702</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -19637,7 +18737,7 @@
         <v>-2887.45402702</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -19670,7 +18770,7 @@
         <v>-2876.38402702</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -19703,7 +18803,7 @@
         <v>-3046.38402702</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -19736,7 +18836,7 @@
         <v>-3146.25512702</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -19769,7 +18869,7 @@
         <v>-2988.37770249</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -19802,7 +18902,7 @@
         <v>-2995.90770249</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -19835,7 +18935,7 @@
         <v>-2995.90770249</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -19868,7 +18968,7 @@
         <v>-2995.90770249</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -19901,7 +19001,7 @@
         <v>-2995.90770249</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -19934,7 +19034,7 @@
         <v>-2995.90770249</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -19967,7 +19067,7 @@
         <v>-2869.71840249</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -20000,7 +19100,7 @@
         <v>-2247.62810249</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -20033,7 +19133,7 @@
         <v>-2178.55550249</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -20066,7 +19166,7 @@
         <v>-2178.55550249</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -20099,7 +19199,7 @@
         <v>-1929.35690249</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -20132,7 +19232,7 @@
         <v>-1929.35690249</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -20165,7 +19265,7 @@
         <v>-1929.35690249</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -20198,7 +19298,7 @@
         <v>-1978.93690249</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -20231,7 +19331,7 @@
         <v>-1818.50690249</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -20264,7 +19364,7 @@
         <v>-1935.60530249</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -20297,7 +19397,7 @@
         <v>-1620.309702490001</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -20330,7 +19430,7 @@
         <v>-1620.309702490001</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -20341,6 +19441,6 @@
       <c r="M565" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest BTG.xlsx
+++ b/BackTest/2020-01-13 BackTest BTG.xlsx
@@ -1012,7 +1012,7 @@
         <v>-1032.5976</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-1032.5976</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-1002.2737</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-1002.2737</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-1633.6118</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-1603.6118</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-1597.7267</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-1697.7257</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-1510.60288021</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-1541.36288021</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-1541.36288021</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -9823,10 +9823,14 @@
         <v>-12524.10785088</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>7165</v>
+      </c>
+      <c r="J286" t="n">
+        <v>7165</v>
+      </c>
       <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
@@ -9856,11 +9860,19 @@
         <v>-12368.3866861</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>7165</v>
+      </c>
+      <c r="J287" t="n">
+        <v>7165</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -9889,11 +9901,19 @@
         <v>-12431.2789861</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>7185</v>
+      </c>
+      <c r="J288" t="n">
+        <v>7165</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -9922,11 +9942,19 @@
         <v>-12190.4451861</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>7180</v>
+      </c>
+      <c r="J289" t="n">
+        <v>7165</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -9955,11 +9983,19 @@
         <v>-12025.6851861</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>7220</v>
+      </c>
+      <c r="J290" t="n">
+        <v>7165</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -9988,11 +10024,19 @@
         <v>-12025.6851861</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>7230</v>
+      </c>
+      <c r="J291" t="n">
+        <v>7165</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10024,8 +10068,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>7165</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10054,11 +10104,19 @@
         <v>-12019.9951861</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>7190</v>
+      </c>
+      <c r="J293" t="n">
+        <v>7165</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10087,11 +10145,19 @@
         <v>-12071.0426861</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>7225</v>
+      </c>
+      <c r="J294" t="n">
+        <v>7165</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10120,11 +10186,19 @@
         <v>-12071.0426861</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>7200</v>
+      </c>
+      <c r="J295" t="n">
+        <v>7165</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10153,11 +10227,19 @@
         <v>-12059.1455861</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>7200</v>
+      </c>
+      <c r="J296" t="n">
+        <v>7165</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10186,11 +10268,19 @@
         <v>-11921.1455861</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>7220</v>
+      </c>
+      <c r="J297" t="n">
+        <v>7165</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10219,11 +10309,19 @@
         <v>-11946.3255861</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>7225</v>
+      </c>
+      <c r="J298" t="n">
+        <v>7165</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10252,11 +10350,19 @@
         <v>-11946.3255861</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>7205</v>
+      </c>
+      <c r="J299" t="n">
+        <v>7165</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10290,10 +10396,12 @@
       <c r="I300" t="n">
         <v>7205</v>
       </c>
-      <c r="J300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>7165</v>
+      </c>
       <c r="K300" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L300" t="n">
@@ -10329,7 +10437,9 @@
       <c r="I301" t="n">
         <v>7195</v>
       </c>
-      <c r="J301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>7165</v>
+      </c>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10363,10 +10473,14 @@
         <v>-12004.3616861</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>7210</v>
+      </c>
+      <c r="J302" t="n">
+        <v>7165</v>
+      </c>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10400,10 +10514,14 @@
         <v>-12004.3616861</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>7210</v>
+      </c>
+      <c r="J303" t="n">
+        <v>7165</v>
+      </c>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10437,10 +10555,14 @@
         <v>-12104.5243861</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I304" t="n">
+        <v>7210</v>
+      </c>
+      <c r="J304" t="n">
+        <v>7165</v>
+      </c>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10474,10 +10596,14 @@
         <v>-12104.5243861</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I305" t="n">
+        <v>7195</v>
+      </c>
+      <c r="J305" t="n">
+        <v>7165</v>
+      </c>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10516,7 +10642,9 @@
       <c r="I306" t="n">
         <v>7195</v>
       </c>
-      <c r="J306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>7165</v>
+      </c>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10555,7 +10683,9 @@
       <c r="I307" t="n">
         <v>7195</v>
       </c>
-      <c r="J307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>7165</v>
+      </c>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10594,7 +10724,9 @@
       <c r="I308" t="n">
         <v>7190</v>
       </c>
-      <c r="J308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>7165</v>
+      </c>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10633,7 +10765,9 @@
       <c r="I309" t="n">
         <v>7200</v>
       </c>
-      <c r="J309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>7165</v>
+      </c>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10672,7 +10806,9 @@
       <c r="I310" t="n">
         <v>7180</v>
       </c>
-      <c r="J310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>7165</v>
+      </c>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10711,7 +10847,9 @@
       <c r="I311" t="n">
         <v>7195</v>
       </c>
-      <c r="J311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>7165</v>
+      </c>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10750,7 +10888,9 @@
       <c r="I312" t="n">
         <v>7185</v>
       </c>
-      <c r="J312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>7165</v>
+      </c>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10789,7 +10929,9 @@
       <c r="I313" t="n">
         <v>7185</v>
       </c>
-      <c r="J313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>7165</v>
+      </c>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10828,7 +10970,9 @@
       <c r="I314" t="n">
         <v>7185</v>
       </c>
-      <c r="J314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>7165</v>
+      </c>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10867,7 +11011,9 @@
       <c r="I315" t="n">
         <v>7185</v>
       </c>
-      <c r="J315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>7165</v>
+      </c>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10906,7 +11052,9 @@
       <c r="I316" t="n">
         <v>7185</v>
       </c>
-      <c r="J316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>7165</v>
+      </c>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10945,7 +11093,9 @@
       <c r="I317" t="n">
         <v>7185</v>
       </c>
-      <c r="J317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>7165</v>
+      </c>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10984,7 +11134,9 @@
       <c r="I318" t="n">
         <v>7185</v>
       </c>
-      <c r="J318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>7165</v>
+      </c>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11023,7 +11175,9 @@
       <c r="I319" t="n">
         <v>7200</v>
       </c>
-      <c r="J319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>7165</v>
+      </c>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11062,7 +11216,9 @@
       <c r="I320" t="n">
         <v>7200</v>
       </c>
-      <c r="J320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>7165</v>
+      </c>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11101,7 +11257,9 @@
       <c r="I321" t="n">
         <v>7205</v>
       </c>
-      <c r="J321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>7165</v>
+      </c>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11140,7 +11298,9 @@
       <c r="I322" t="n">
         <v>7205</v>
       </c>
-      <c r="J322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>7165</v>
+      </c>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11179,7 +11339,9 @@
       <c r="I323" t="n">
         <v>7205</v>
       </c>
-      <c r="J323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>7165</v>
+      </c>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11218,7 +11380,9 @@
       <c r="I324" t="n">
         <v>7205</v>
       </c>
-      <c r="J324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>7165</v>
+      </c>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11257,7 +11421,9 @@
       <c r="I325" t="n">
         <v>7215</v>
       </c>
-      <c r="J325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>7165</v>
+      </c>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11296,7 +11462,9 @@
       <c r="I326" t="n">
         <v>7215</v>
       </c>
-      <c r="J326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>7165</v>
+      </c>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11335,7 +11503,9 @@
       <c r="I327" t="n">
         <v>7220</v>
       </c>
-      <c r="J327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>7165</v>
+      </c>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11369,10 +11539,14 @@
         <v>-11866.3253861</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I328" t="n">
+        <v>7230</v>
+      </c>
+      <c r="J328" t="n">
+        <v>7165</v>
+      </c>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11411,7 +11585,9 @@
       <c r="I329" t="n">
         <v>7240</v>
       </c>
-      <c r="J329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>7165</v>
+      </c>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11445,10 +11621,14 @@
         <v>-11555.7778861</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I330" t="n">
+        <v>7265</v>
+      </c>
+      <c r="J330" t="n">
+        <v>7165</v>
+      </c>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11485,7 +11665,9 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>7165</v>
+      </c>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11522,7 +11704,9 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>7165</v>
+      </c>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11559,7 +11743,9 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>7165</v>
+      </c>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11596,7 +11782,9 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>7165</v>
+      </c>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11633,7 +11821,9 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>7165</v>
+      </c>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11670,7 +11860,9 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>7165</v>
+      </c>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11707,7 +11899,9 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>7165</v>
+      </c>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11744,7 +11938,9 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>7165</v>
+      </c>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11781,7 +11977,9 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>7165</v>
+      </c>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11818,7 +12016,9 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>7165</v>
+      </c>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11855,7 +12055,9 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>7165</v>
+      </c>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11892,7 +12094,9 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>7165</v>
+      </c>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11929,7 +12133,9 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>7165</v>
+      </c>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11966,7 +12172,9 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>7165</v>
+      </c>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12003,7 +12211,9 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>7165</v>
+      </c>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12040,7 +12250,9 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>7165</v>
+      </c>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12077,7 +12289,9 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>7165</v>
+      </c>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12114,7 +12328,9 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>7165</v>
+      </c>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12151,7 +12367,9 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>7165</v>
+      </c>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12188,7 +12406,9 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>7165</v>
+      </c>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12225,7 +12445,9 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>7165</v>
+      </c>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12262,7 +12484,9 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>7165</v>
+      </c>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12299,7 +12523,9 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>7165</v>
+      </c>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12336,7 +12562,9 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>7165</v>
+      </c>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12373,7 +12601,9 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>7165</v>
+      </c>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12410,7 +12640,9 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>7165</v>
+      </c>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12447,7 +12679,9 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>7165</v>
+      </c>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12484,7 +12718,9 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>7165</v>
+      </c>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12521,7 +12757,9 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>7165</v>
+      </c>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12558,7 +12796,9 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>7165</v>
+      </c>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12595,7 +12835,9 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>7165</v>
+      </c>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12632,7 +12874,9 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>7165</v>
+      </c>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12669,7 +12913,9 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>7165</v>
+      </c>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12706,7 +12952,9 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>7165</v>
+      </c>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12743,7 +12991,9 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>7165</v>
+      </c>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12780,7 +13030,9 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>7165</v>
+      </c>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12817,7 +13069,9 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>7165</v>
+      </c>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12854,7 +13108,9 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>7165</v>
+      </c>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12891,7 +13147,9 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>7165</v>
+      </c>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12928,7 +13186,9 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>7165</v>
+      </c>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12965,7 +13225,9 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>7165</v>
+      </c>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13002,7 +13264,9 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>7165</v>
+      </c>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13039,7 +13303,9 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>7165</v>
+      </c>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13076,7 +13342,9 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>7165</v>
+      </c>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13113,7 +13381,9 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>7165</v>
+      </c>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13150,7 +13420,9 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>7165</v>
+      </c>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13187,7 +13459,9 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>7165</v>
+      </c>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13224,7 +13498,9 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>7165</v>
+      </c>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13261,7 +13537,9 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>7165</v>
+      </c>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13298,7 +13576,9 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>7165</v>
+      </c>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13335,7 +13615,9 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>7165</v>
+      </c>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13372,7 +13654,9 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>7165</v>
+      </c>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13409,7 +13693,9 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>7165</v>
+      </c>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13446,7 +13732,9 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>7165</v>
+      </c>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13483,7 +13771,9 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>7165</v>
+      </c>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13520,7 +13810,9 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>7165</v>
+      </c>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13554,2228 +13846,2636 @@
         <v>-7627.292304980003</v>
       </c>
       <c r="H387" t="n">
+        <v>0</v>
+      </c>
+      <c r="I387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>7165</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L387" t="n">
+        <v>1</v>
+      </c>
+      <c r="M387" t="inlineStr"/>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="n">
+        <v>386</v>
+      </c>
+      <c r="B388" t="n">
+        <v>7465</v>
+      </c>
+      <c r="C388" t="n">
+        <v>7470</v>
+      </c>
+      <c r="D388" t="n">
+        <v>7470</v>
+      </c>
+      <c r="E388" t="n">
+        <v>7465</v>
+      </c>
+      <c r="F388" t="n">
+        <v>22.8399</v>
+      </c>
+      <c r="G388" t="n">
+        <v>-7604.452404980003</v>
+      </c>
+      <c r="H388" t="n">
+        <v>0</v>
+      </c>
+      <c r="I388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>7165</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L388" t="n">
+        <v>1</v>
+      </c>
+      <c r="M388" t="inlineStr"/>
+    </row>
+    <row r="389">
+      <c r="A389" s="1" t="n">
+        <v>387</v>
+      </c>
+      <c r="B389" t="n">
+        <v>7470</v>
+      </c>
+      <c r="C389" t="n">
+        <v>7470</v>
+      </c>
+      <c r="D389" t="n">
+        <v>7470</v>
+      </c>
+      <c r="E389" t="n">
+        <v>7470</v>
+      </c>
+      <c r="F389" t="n">
+        <v>203.3129</v>
+      </c>
+      <c r="G389" t="n">
+        <v>-7604.452404980003</v>
+      </c>
+      <c r="H389" t="n">
+        <v>0</v>
+      </c>
+      <c r="I389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>7165</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L389" t="n">
+        <v>1</v>
+      </c>
+      <c r="M389" t="inlineStr"/>
+    </row>
+    <row r="390">
+      <c r="A390" s="1" t="n">
+        <v>388</v>
+      </c>
+      <c r="B390" t="n">
+        <v>7470</v>
+      </c>
+      <c r="C390" t="n">
+        <v>7460</v>
+      </c>
+      <c r="D390" t="n">
+        <v>7475</v>
+      </c>
+      <c r="E390" t="n">
+        <v>7460</v>
+      </c>
+      <c r="F390" t="n">
+        <v>190.5038</v>
+      </c>
+      <c r="G390" t="n">
+        <v>-7794.956204980003</v>
+      </c>
+      <c r="H390" t="n">
+        <v>0</v>
+      </c>
+      <c r="I390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>7165</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L390" t="n">
+        <v>1</v>
+      </c>
+      <c r="M390" t="inlineStr"/>
+    </row>
+    <row r="391">
+      <c r="A391" s="1" t="n">
+        <v>389</v>
+      </c>
+      <c r="B391" t="n">
+        <v>7460</v>
+      </c>
+      <c r="C391" t="n">
+        <v>7470</v>
+      </c>
+      <c r="D391" t="n">
+        <v>7470</v>
+      </c>
+      <c r="E391" t="n">
+        <v>7460</v>
+      </c>
+      <c r="F391" t="n">
+        <v>187.7584</v>
+      </c>
+      <c r="G391" t="n">
+        <v>-7607.197804980004</v>
+      </c>
+      <c r="H391" t="n">
+        <v>0</v>
+      </c>
+      <c r="I391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>7165</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L391" t="n">
+        <v>1</v>
+      </c>
+      <c r="M391" t="inlineStr"/>
+    </row>
+    <row r="392">
+      <c r="A392" s="1" t="n">
+        <v>390</v>
+      </c>
+      <c r="B392" t="n">
+        <v>7485</v>
+      </c>
+      <c r="C392" t="n">
+        <v>7490</v>
+      </c>
+      <c r="D392" t="n">
+        <v>7490</v>
+      </c>
+      <c r="E392" t="n">
+        <v>7485</v>
+      </c>
+      <c r="F392" t="n">
+        <v>64.8403</v>
+      </c>
+      <c r="G392" t="n">
+        <v>-7542.357504980004</v>
+      </c>
+      <c r="H392" t="n">
+        <v>0</v>
+      </c>
+      <c r="I392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>7165</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L392" t="n">
+        <v>1</v>
+      </c>
+      <c r="M392" t="inlineStr"/>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="n">
+        <v>391</v>
+      </c>
+      <c r="B393" t="n">
+        <v>7490</v>
+      </c>
+      <c r="C393" t="n">
+        <v>7490</v>
+      </c>
+      <c r="D393" t="n">
+        <v>7490</v>
+      </c>
+      <c r="E393" t="n">
+        <v>7490</v>
+      </c>
+      <c r="F393" t="n">
+        <v>198.3075</v>
+      </c>
+      <c r="G393" t="n">
+        <v>-7542.357504980004</v>
+      </c>
+      <c r="H393" t="n">
+        <v>0</v>
+      </c>
+      <c r="I393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>7165</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L393" t="n">
+        <v>1</v>
+      </c>
+      <c r="M393" t="inlineStr"/>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="n">
+        <v>392</v>
+      </c>
+      <c r="B394" t="n">
+        <v>7455</v>
+      </c>
+      <c r="C394" t="n">
+        <v>7455</v>
+      </c>
+      <c r="D394" t="n">
+        <v>7455</v>
+      </c>
+      <c r="E394" t="n">
+        <v>7455</v>
+      </c>
+      <c r="F394" t="n">
+        <v>0.1214</v>
+      </c>
+      <c r="G394" t="n">
+        <v>-7542.478904980004</v>
+      </c>
+      <c r="H394" t="n">
+        <v>0</v>
+      </c>
+      <c r="I394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>7165</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L394" t="n">
+        <v>1</v>
+      </c>
+      <c r="M394" t="inlineStr"/>
+    </row>
+    <row r="395">
+      <c r="A395" s="1" t="n">
+        <v>393</v>
+      </c>
+      <c r="B395" t="n">
+        <v>7460</v>
+      </c>
+      <c r="C395" t="n">
+        <v>7465</v>
+      </c>
+      <c r="D395" t="n">
+        <v>7465</v>
+      </c>
+      <c r="E395" t="n">
+        <v>7460</v>
+      </c>
+      <c r="F395" t="n">
+        <v>0.1576</v>
+      </c>
+      <c r="G395" t="n">
+        <v>-7542.321304980004</v>
+      </c>
+      <c r="H395" t="n">
+        <v>0</v>
+      </c>
+      <c r="I395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>7165</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L395" t="n">
+        <v>1</v>
+      </c>
+      <c r="M395" t="inlineStr"/>
+    </row>
+    <row r="396">
+      <c r="A396" s="1" t="n">
+        <v>394</v>
+      </c>
+      <c r="B396" t="n">
+        <v>7460</v>
+      </c>
+      <c r="C396" t="n">
+        <v>7485</v>
+      </c>
+      <c r="D396" t="n">
+        <v>7485</v>
+      </c>
+      <c r="E396" t="n">
+        <v>7460</v>
+      </c>
+      <c r="F396" t="n">
+        <v>263.7878</v>
+      </c>
+      <c r="G396" t="n">
+        <v>-7278.533504980004</v>
+      </c>
+      <c r="H396" t="n">
+        <v>0</v>
+      </c>
+      <c r="I396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>7165</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L396" t="n">
+        <v>1</v>
+      </c>
+      <c r="M396" t="inlineStr"/>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="n">
+        <v>395</v>
+      </c>
+      <c r="B397" t="n">
+        <v>7485</v>
+      </c>
+      <c r="C397" t="n">
+        <v>7460</v>
+      </c>
+      <c r="D397" t="n">
+        <v>7485</v>
+      </c>
+      <c r="E397" t="n">
+        <v>7460</v>
+      </c>
+      <c r="F397" t="n">
+        <v>212.4747</v>
+      </c>
+      <c r="G397" t="n">
+        <v>-7491.008204980004</v>
+      </c>
+      <c r="H397" t="n">
+        <v>0</v>
+      </c>
+      <c r="I397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>7165</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L397" t="n">
+        <v>1</v>
+      </c>
+      <c r="M397" t="inlineStr"/>
+    </row>
+    <row r="398">
+      <c r="A398" s="1" t="n">
+        <v>396</v>
+      </c>
+      <c r="B398" t="n">
+        <v>7455</v>
+      </c>
+      <c r="C398" t="n">
+        <v>7460</v>
+      </c>
+      <c r="D398" t="n">
+        <v>7460</v>
+      </c>
+      <c r="E398" t="n">
+        <v>7455</v>
+      </c>
+      <c r="F398" t="n">
+        <v>0.1604</v>
+      </c>
+      <c r="G398" t="n">
+        <v>-7491.008204980004</v>
+      </c>
+      <c r="H398" t="n">
+        <v>0</v>
+      </c>
+      <c r="I398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>7165</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L398" t="n">
+        <v>1</v>
+      </c>
+      <c r="M398" t="inlineStr"/>
+    </row>
+    <row r="399">
+      <c r="A399" s="1" t="n">
+        <v>397</v>
+      </c>
+      <c r="B399" t="n">
+        <v>7470</v>
+      </c>
+      <c r="C399" t="n">
+        <v>7460</v>
+      </c>
+      <c r="D399" t="n">
+        <v>7480</v>
+      </c>
+      <c r="E399" t="n">
+        <v>7460</v>
+      </c>
+      <c r="F399" t="n">
+        <v>108.6028</v>
+      </c>
+      <c r="G399" t="n">
+        <v>-7491.008204980004</v>
+      </c>
+      <c r="H399" t="n">
+        <v>0</v>
+      </c>
+      <c r="I399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>7165</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L399" t="n">
+        <v>1</v>
+      </c>
+      <c r="M399" t="inlineStr"/>
+    </row>
+    <row r="400">
+      <c r="A400" s="1" t="n">
+        <v>398</v>
+      </c>
+      <c r="B400" t="n">
+        <v>7470</v>
+      </c>
+      <c r="C400" t="n">
+        <v>7475</v>
+      </c>
+      <c r="D400" t="n">
+        <v>7475</v>
+      </c>
+      <c r="E400" t="n">
+        <v>7470</v>
+      </c>
+      <c r="F400" t="n">
+        <v>0.1378</v>
+      </c>
+      <c r="G400" t="n">
+        <v>-7490.870404980004</v>
+      </c>
+      <c r="H400" t="n">
+        <v>0</v>
+      </c>
+      <c r="I400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>7165</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L400" t="n">
+        <v>1</v>
+      </c>
+      <c r="M400" t="inlineStr"/>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="n">
+        <v>399</v>
+      </c>
+      <c r="B401" t="n">
+        <v>7475</v>
+      </c>
+      <c r="C401" t="n">
+        <v>7500</v>
+      </c>
+      <c r="D401" t="n">
+        <v>7500</v>
+      </c>
+      <c r="E401" t="n">
+        <v>7475</v>
+      </c>
+      <c r="F401" t="n">
+        <v>120.0106</v>
+      </c>
+      <c r="G401" t="n">
+        <v>-7370.859804980004</v>
+      </c>
+      <c r="H401" t="n">
+        <v>0</v>
+      </c>
+      <c r="I401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>7165</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L401" t="n">
+        <v>1</v>
+      </c>
+      <c r="M401" t="inlineStr"/>
+    </row>
+    <row r="402">
+      <c r="A402" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="B402" t="n">
+        <v>7500</v>
+      </c>
+      <c r="C402" t="n">
+        <v>7500</v>
+      </c>
+      <c r="D402" t="n">
+        <v>7500</v>
+      </c>
+      <c r="E402" t="n">
+        <v>7500</v>
+      </c>
+      <c r="F402" t="n">
+        <v>63.8455</v>
+      </c>
+      <c r="G402" t="n">
+        <v>-7370.859804980004</v>
+      </c>
+      <c r="H402" t="n">
+        <v>0</v>
+      </c>
+      <c r="I402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>7165</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L402" t="n">
+        <v>1</v>
+      </c>
+      <c r="M402" t="inlineStr"/>
+    </row>
+    <row r="403">
+      <c r="A403" s="1" t="n">
+        <v>401</v>
+      </c>
+      <c r="B403" t="n">
+        <v>7485</v>
+      </c>
+      <c r="C403" t="n">
+        <v>7485</v>
+      </c>
+      <c r="D403" t="n">
+        <v>7485</v>
+      </c>
+      <c r="E403" t="n">
+        <v>7485</v>
+      </c>
+      <c r="F403" t="n">
+        <v>0.0712</v>
+      </c>
+      <c r="G403" t="n">
+        <v>-7370.931004980004</v>
+      </c>
+      <c r="H403" t="n">
+        <v>0</v>
+      </c>
+      <c r="I403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>7165</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L403" t="n">
+        <v>1</v>
+      </c>
+      <c r="M403" t="inlineStr"/>
+    </row>
+    <row r="404">
+      <c r="A404" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="B404" t="n">
+        <v>7495</v>
+      </c>
+      <c r="C404" t="n">
+        <v>7480</v>
+      </c>
+      <c r="D404" t="n">
+        <v>7495</v>
+      </c>
+      <c r="E404" t="n">
+        <v>7480</v>
+      </c>
+      <c r="F404" t="n">
+        <v>266.7642</v>
+      </c>
+      <c r="G404" t="n">
+        <v>-7637.695204980004</v>
+      </c>
+      <c r="H404" t="n">
+        <v>0</v>
+      </c>
+      <c r="I404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>7165</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L404" t="n">
+        <v>1</v>
+      </c>
+      <c r="M404" t="inlineStr"/>
+    </row>
+    <row r="405">
+      <c r="A405" s="1" t="n">
+        <v>403</v>
+      </c>
+      <c r="B405" t="n">
+        <v>7480</v>
+      </c>
+      <c r="C405" t="n">
+        <v>7480</v>
+      </c>
+      <c r="D405" t="n">
+        <v>7480</v>
+      </c>
+      <c r="E405" t="n">
+        <v>7480</v>
+      </c>
+      <c r="F405" t="n">
+        <v>71</v>
+      </c>
+      <c r="G405" t="n">
+        <v>-7637.695204980004</v>
+      </c>
+      <c r="H405" t="n">
+        <v>0</v>
+      </c>
+      <c r="I405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>7165</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L405" t="n">
+        <v>1</v>
+      </c>
+      <c r="M405" t="inlineStr"/>
+    </row>
+    <row r="406">
+      <c r="A406" s="1" t="n">
+        <v>404</v>
+      </c>
+      <c r="B406" t="n">
+        <v>7480</v>
+      </c>
+      <c r="C406" t="n">
+        <v>7480</v>
+      </c>
+      <c r="D406" t="n">
+        <v>7480</v>
+      </c>
+      <c r="E406" t="n">
+        <v>7480</v>
+      </c>
+      <c r="F406" t="n">
+        <v>109.3486</v>
+      </c>
+      <c r="G406" t="n">
+        <v>-7637.695204980004</v>
+      </c>
+      <c r="H406" t="n">
+        <v>0</v>
+      </c>
+      <c r="I406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>7165</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L406" t="n">
+        <v>1</v>
+      </c>
+      <c r="M406" t="inlineStr"/>
+    </row>
+    <row r="407">
+      <c r="A407" s="1" t="n">
+        <v>405</v>
+      </c>
+      <c r="B407" t="n">
+        <v>7480</v>
+      </c>
+      <c r="C407" t="n">
+        <v>7480</v>
+      </c>
+      <c r="D407" t="n">
+        <v>7480</v>
+      </c>
+      <c r="E407" t="n">
+        <v>7480</v>
+      </c>
+      <c r="F407" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="G407" t="n">
+        <v>-7637.695204980004</v>
+      </c>
+      <c r="H407" t="n">
+        <v>0</v>
+      </c>
+      <c r="I407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>7165</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L407" t="n">
+        <v>1</v>
+      </c>
+      <c r="M407" t="inlineStr"/>
+    </row>
+    <row r="408">
+      <c r="A408" s="1" t="n">
+        <v>406</v>
+      </c>
+      <c r="B408" t="n">
+        <v>7485</v>
+      </c>
+      <c r="C408" t="n">
+        <v>7500</v>
+      </c>
+      <c r="D408" t="n">
+        <v>7500</v>
+      </c>
+      <c r="E408" t="n">
+        <v>7485</v>
+      </c>
+      <c r="F408" t="n">
+        <v>28.4656</v>
+      </c>
+      <c r="G408" t="n">
+        <v>-7609.229604980003</v>
+      </c>
+      <c r="H408" t="n">
+        <v>0</v>
+      </c>
+      <c r="I408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>7165</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L408" t="n">
+        <v>1</v>
+      </c>
+      <c r="M408" t="inlineStr"/>
+    </row>
+    <row r="409">
+      <c r="A409" s="1" t="n">
+        <v>407</v>
+      </c>
+      <c r="B409" t="n">
+        <v>7500</v>
+      </c>
+      <c r="C409" t="n">
+        <v>7510</v>
+      </c>
+      <c r="D409" t="n">
+        <v>7510</v>
+      </c>
+      <c r="E409" t="n">
+        <v>7500</v>
+      </c>
+      <c r="F409" t="n">
+        <v>2098.4504</v>
+      </c>
+      <c r="G409" t="n">
+        <v>-5510.779204980003</v>
+      </c>
+      <c r="H409" t="n">
+        <v>0</v>
+      </c>
+      <c r="I409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>7165</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L409" t="n">
+        <v>1</v>
+      </c>
+      <c r="M409" t="inlineStr"/>
+    </row>
+    <row r="410">
+      <c r="A410" s="1" t="n">
+        <v>408</v>
+      </c>
+      <c r="B410" t="n">
+        <v>7510</v>
+      </c>
+      <c r="C410" t="n">
+        <v>7480</v>
+      </c>
+      <c r="D410" t="n">
+        <v>7510</v>
+      </c>
+      <c r="E410" t="n">
+        <v>7480</v>
+      </c>
+      <c r="F410" t="n">
+        <v>131.2481</v>
+      </c>
+      <c r="G410" t="n">
+        <v>-5642.027304980003</v>
+      </c>
+      <c r="H410" t="n">
+        <v>0</v>
+      </c>
+      <c r="I410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>7165</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L410" t="n">
+        <v>1</v>
+      </c>
+      <c r="M410" t="inlineStr"/>
+    </row>
+    <row r="411">
+      <c r="A411" s="1" t="n">
+        <v>409</v>
+      </c>
+      <c r="B411" t="n">
+        <v>7480</v>
+      </c>
+      <c r="C411" t="n">
+        <v>7490</v>
+      </c>
+      <c r="D411" t="n">
+        <v>7490</v>
+      </c>
+      <c r="E411" t="n">
+        <v>7480</v>
+      </c>
+      <c r="F411" t="n">
+        <v>301.0068</v>
+      </c>
+      <c r="G411" t="n">
+        <v>-5341.020504980002</v>
+      </c>
+      <c r="H411" t="n">
+        <v>0</v>
+      </c>
+      <c r="I411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>7165</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L411" t="n">
+        <v>1</v>
+      </c>
+      <c r="M411" t="inlineStr"/>
+    </row>
+    <row r="412">
+      <c r="A412" s="1" t="n">
+        <v>410</v>
+      </c>
+      <c r="B412" t="n">
+        <v>7490</v>
+      </c>
+      <c r="C412" t="n">
+        <v>7490</v>
+      </c>
+      <c r="D412" t="n">
+        <v>7490</v>
+      </c>
+      <c r="E412" t="n">
+        <v>7490</v>
+      </c>
+      <c r="F412" t="n">
+        <v>36.7369</v>
+      </c>
+      <c r="G412" t="n">
+        <v>-5341.020504980002</v>
+      </c>
+      <c r="H412" t="n">
+        <v>0</v>
+      </c>
+      <c r="I412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>7165</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L412" t="n">
+        <v>1</v>
+      </c>
+      <c r="M412" t="inlineStr"/>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="n">
+        <v>411</v>
+      </c>
+      <c r="B413" t="n">
+        <v>7490</v>
+      </c>
+      <c r="C413" t="n">
+        <v>7490</v>
+      </c>
+      <c r="D413" t="n">
+        <v>7490</v>
+      </c>
+      <c r="E413" t="n">
+        <v>7490</v>
+      </c>
+      <c r="F413" t="n">
+        <v>23.5438</v>
+      </c>
+      <c r="G413" t="n">
+        <v>-5341.020504980002</v>
+      </c>
+      <c r="H413" t="n">
+        <v>0</v>
+      </c>
+      <c r="I413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>7165</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L413" t="n">
+        <v>1</v>
+      </c>
+      <c r="M413" t="inlineStr"/>
+    </row>
+    <row r="414">
+      <c r="A414" s="1" t="n">
+        <v>412</v>
+      </c>
+      <c r="B414" t="n">
+        <v>7490</v>
+      </c>
+      <c r="C414" t="n">
+        <v>7475</v>
+      </c>
+      <c r="D414" t="n">
+        <v>7490</v>
+      </c>
+      <c r="E414" t="n">
+        <v>7475</v>
+      </c>
+      <c r="F414" t="n">
+        <v>291.587</v>
+      </c>
+      <c r="G414" t="n">
+        <v>-5632.607504980002</v>
+      </c>
+      <c r="H414" t="n">
+        <v>0</v>
+      </c>
+      <c r="I414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>7165</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L414" t="n">
+        <v>1</v>
+      </c>
+      <c r="M414" t="inlineStr"/>
+    </row>
+    <row r="415">
+      <c r="A415" s="1" t="n">
+        <v>413</v>
+      </c>
+      <c r="B415" t="n">
+        <v>7480</v>
+      </c>
+      <c r="C415" t="n">
+        <v>7475</v>
+      </c>
+      <c r="D415" t="n">
+        <v>7480</v>
+      </c>
+      <c r="E415" t="n">
+        <v>7475</v>
+      </c>
+      <c r="F415" t="n">
+        <v>319.6355</v>
+      </c>
+      <c r="G415" t="n">
+        <v>-5632.607504980002</v>
+      </c>
+      <c r="H415" t="n">
+        <v>0</v>
+      </c>
+      <c r="I415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>7165</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L415" t="n">
+        <v>1</v>
+      </c>
+      <c r="M415" t="inlineStr"/>
+    </row>
+    <row r="416">
+      <c r="A416" s="1" t="n">
+        <v>414</v>
+      </c>
+      <c r="B416" t="n">
+        <v>7475</v>
+      </c>
+      <c r="C416" t="n">
+        <v>7490</v>
+      </c>
+      <c r="D416" t="n">
+        <v>7490</v>
+      </c>
+      <c r="E416" t="n">
+        <v>7455</v>
+      </c>
+      <c r="F416" t="n">
+        <v>565.7056</v>
+      </c>
+      <c r="G416" t="n">
+        <v>-5066.901904980002</v>
+      </c>
+      <c r="H416" t="n">
+        <v>0</v>
+      </c>
+      <c r="I416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>7165</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L416" t="n">
+        <v>1</v>
+      </c>
+      <c r="M416" t="inlineStr"/>
+    </row>
+    <row r="417">
+      <c r="A417" s="1" t="n">
+        <v>415</v>
+      </c>
+      <c r="B417" t="n">
+        <v>7485</v>
+      </c>
+      <c r="C417" t="n">
+        <v>7485</v>
+      </c>
+      <c r="D417" t="n">
+        <v>7485</v>
+      </c>
+      <c r="E417" t="n">
+        <v>7485</v>
+      </c>
+      <c r="F417" t="n">
+        <v>113.7951</v>
+      </c>
+      <c r="G417" t="n">
+        <v>-5180.697004980002</v>
+      </c>
+      <c r="H417" t="n">
+        <v>0</v>
+      </c>
+      <c r="I417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>7165</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L417" t="n">
+        <v>1</v>
+      </c>
+      <c r="M417" t="inlineStr"/>
+    </row>
+    <row r="418">
+      <c r="A418" s="1" t="n">
+        <v>416</v>
+      </c>
+      <c r="B418" t="n">
+        <v>7485</v>
+      </c>
+      <c r="C418" t="n">
+        <v>7485</v>
+      </c>
+      <c r="D418" t="n">
+        <v>7485</v>
+      </c>
+      <c r="E418" t="n">
+        <v>7485</v>
+      </c>
+      <c r="F418" t="n">
+        <v>44</v>
+      </c>
+      <c r="G418" t="n">
+        <v>-5180.697004980002</v>
+      </c>
+      <c r="H418" t="n">
+        <v>0</v>
+      </c>
+      <c r="I418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>7165</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L418" t="n">
+        <v>1</v>
+      </c>
+      <c r="M418" t="inlineStr"/>
+    </row>
+    <row r="419">
+      <c r="A419" s="1" t="n">
+        <v>417</v>
+      </c>
+      <c r="B419" t="n">
+        <v>7495</v>
+      </c>
+      <c r="C419" t="n">
+        <v>7495</v>
+      </c>
+      <c r="D419" t="n">
+        <v>7495</v>
+      </c>
+      <c r="E419" t="n">
+        <v>7495</v>
+      </c>
+      <c r="F419" t="n">
+        <v>163.2006</v>
+      </c>
+      <c r="G419" t="n">
+        <v>-5017.496404980002</v>
+      </c>
+      <c r="H419" t="n">
+        <v>0</v>
+      </c>
+      <c r="I419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>7165</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L419" t="n">
+        <v>1</v>
+      </c>
+      <c r="M419" t="inlineStr"/>
+    </row>
+    <row r="420">
+      <c r="A420" s="1" t="n">
+        <v>418</v>
+      </c>
+      <c r="B420" t="n">
+        <v>7500</v>
+      </c>
+      <c r="C420" t="n">
+        <v>7495</v>
+      </c>
+      <c r="D420" t="n">
+        <v>7500</v>
+      </c>
+      <c r="E420" t="n">
+        <v>7495</v>
+      </c>
+      <c r="F420" t="n">
+        <v>37</v>
+      </c>
+      <c r="G420" t="n">
+        <v>-5017.496404980002</v>
+      </c>
+      <c r="H420" t="n">
+        <v>0</v>
+      </c>
+      <c r="I420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>7165</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L420" t="n">
+        <v>1</v>
+      </c>
+      <c r="M420" t="inlineStr"/>
+    </row>
+    <row r="421">
+      <c r="A421" s="1" t="n">
+        <v>419</v>
+      </c>
+      <c r="B421" t="n">
+        <v>7500</v>
+      </c>
+      <c r="C421" t="n">
+        <v>7495</v>
+      </c>
+      <c r="D421" t="n">
+        <v>7500</v>
+      </c>
+      <c r="E421" t="n">
+        <v>7495</v>
+      </c>
+      <c r="F421" t="n">
+        <v>154.5</v>
+      </c>
+      <c r="G421" t="n">
+        <v>-5017.496404980002</v>
+      </c>
+      <c r="H421" t="n">
+        <v>0</v>
+      </c>
+      <c r="I421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>7165</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L421" t="n">
+        <v>1</v>
+      </c>
+      <c r="M421" t="inlineStr"/>
+    </row>
+    <row r="422">
+      <c r="A422" s="1" t="n">
+        <v>420</v>
+      </c>
+      <c r="B422" t="n">
+        <v>7495</v>
+      </c>
+      <c r="C422" t="n">
+        <v>7505</v>
+      </c>
+      <c r="D422" t="n">
+        <v>7505</v>
+      </c>
+      <c r="E422" t="n">
+        <v>7495</v>
+      </c>
+      <c r="F422" t="n">
+        <v>171.8</v>
+      </c>
+      <c r="G422" t="n">
+        <v>-4845.696404980002</v>
+      </c>
+      <c r="H422" t="n">
+        <v>0</v>
+      </c>
+      <c r="I422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>7165</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L422" t="n">
+        <v>1</v>
+      </c>
+      <c r="M422" t="inlineStr"/>
+    </row>
+    <row r="423">
+      <c r="A423" s="1" t="n">
+        <v>421</v>
+      </c>
+      <c r="B423" t="n">
+        <v>7495</v>
+      </c>
+      <c r="C423" t="n">
+        <v>7495</v>
+      </c>
+      <c r="D423" t="n">
+        <v>7495</v>
+      </c>
+      <c r="E423" t="n">
+        <v>7495</v>
+      </c>
+      <c r="F423" t="n">
+        <v>105.7029</v>
+      </c>
+      <c r="G423" t="n">
+        <v>-4951.399304980002</v>
+      </c>
+      <c r="H423" t="n">
+        <v>0</v>
+      </c>
+      <c r="I423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>7165</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L423" t="n">
+        <v>1</v>
+      </c>
+      <c r="M423" t="inlineStr"/>
+    </row>
+    <row r="424">
+      <c r="A424" s="1" t="n">
+        <v>422</v>
+      </c>
+      <c r="B424" t="n">
+        <v>7495</v>
+      </c>
+      <c r="C424" t="n">
+        <v>7495</v>
+      </c>
+      <c r="D424" t="n">
+        <v>7495</v>
+      </c>
+      <c r="E424" t="n">
+        <v>7495</v>
+      </c>
+      <c r="F424" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="G424" t="n">
+        <v>-4951.399304980002</v>
+      </c>
+      <c r="H424" t="n">
+        <v>0</v>
+      </c>
+      <c r="I424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>7165</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L424" t="n">
+        <v>1</v>
+      </c>
+      <c r="M424" t="inlineStr"/>
+    </row>
+    <row r="425">
+      <c r="A425" s="1" t="n">
+        <v>423</v>
+      </c>
+      <c r="B425" t="n">
+        <v>7510</v>
+      </c>
+      <c r="C425" t="n">
+        <v>7495</v>
+      </c>
+      <c r="D425" t="n">
+        <v>7510</v>
+      </c>
+      <c r="E425" t="n">
+        <v>7495</v>
+      </c>
+      <c r="F425" t="n">
+        <v>204.9093</v>
+      </c>
+      <c r="G425" t="n">
+        <v>-4951.399304980002</v>
+      </c>
+      <c r="H425" t="n">
+        <v>0</v>
+      </c>
+      <c r="I425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>7165</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L425" t="n">
+        <v>1</v>
+      </c>
+      <c r="M425" t="inlineStr"/>
+    </row>
+    <row r="426">
+      <c r="A426" s="1" t="n">
+        <v>424</v>
+      </c>
+      <c r="B426" t="n">
+        <v>7510</v>
+      </c>
+      <c r="C426" t="n">
+        <v>7510</v>
+      </c>
+      <c r="D426" t="n">
+        <v>7510</v>
+      </c>
+      <c r="E426" t="n">
+        <v>7510</v>
+      </c>
+      <c r="F426" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="G426" t="n">
+        <v>-4949.219304980002</v>
+      </c>
+      <c r="H426" t="n">
+        <v>0</v>
+      </c>
+      <c r="I426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>7165</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L426" t="n">
+        <v>1</v>
+      </c>
+      <c r="M426" t="inlineStr"/>
+    </row>
+    <row r="427">
+      <c r="A427" s="1" t="n">
+        <v>425</v>
+      </c>
+      <c r="B427" t="n">
+        <v>7495</v>
+      </c>
+      <c r="C427" t="n">
+        <v>7545</v>
+      </c>
+      <c r="D427" t="n">
+        <v>7545</v>
+      </c>
+      <c r="E427" t="n">
+        <v>7495</v>
+      </c>
+      <c r="F427" t="n">
+        <v>129.076</v>
+      </c>
+      <c r="G427" t="n">
+        <v>-4820.143304980002</v>
+      </c>
+      <c r="H427" t="n">
+        <v>0</v>
+      </c>
+      <c r="I427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>7165</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L427" t="n">
+        <v>1</v>
+      </c>
+      <c r="M427" t="inlineStr"/>
+    </row>
+    <row r="428">
+      <c r="A428" s="1" t="n">
+        <v>426</v>
+      </c>
+      <c r="B428" t="n">
+        <v>7550</v>
+      </c>
+      <c r="C428" t="n">
+        <v>7565</v>
+      </c>
+      <c r="D428" t="n">
+        <v>7565</v>
+      </c>
+      <c r="E428" t="n">
+        <v>7500</v>
+      </c>
+      <c r="F428" t="n">
+        <v>99.4558</v>
+      </c>
+      <c r="G428" t="n">
+        <v>-4720.687504980002</v>
+      </c>
+      <c r="H428" t="n">
+        <v>0</v>
+      </c>
+      <c r="I428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>7165</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L428" t="n">
+        <v>1</v>
+      </c>
+      <c r="M428" t="inlineStr"/>
+    </row>
+    <row r="429">
+      <c r="A429" s="1" t="n">
+        <v>427</v>
+      </c>
+      <c r="B429" t="n">
+        <v>7565</v>
+      </c>
+      <c r="C429" t="n">
+        <v>7665</v>
+      </c>
+      <c r="D429" t="n">
+        <v>7665</v>
+      </c>
+      <c r="E429" t="n">
+        <v>7505</v>
+      </c>
+      <c r="F429" t="n">
+        <v>23.6422</v>
+      </c>
+      <c r="G429" t="n">
+        <v>-4697.045304980002</v>
+      </c>
+      <c r="H429" t="n">
+        <v>0</v>
+      </c>
+      <c r="I429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>7165</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L429" t="n">
+        <v>1</v>
+      </c>
+      <c r="M429" t="inlineStr"/>
+    </row>
+    <row r="430">
+      <c r="A430" s="1" t="n">
+        <v>428</v>
+      </c>
+      <c r="B430" t="n">
+        <v>7650</v>
+      </c>
+      <c r="C430" t="n">
+        <v>7650</v>
+      </c>
+      <c r="D430" t="n">
+        <v>7650</v>
+      </c>
+      <c r="E430" t="n">
+        <v>7650</v>
+      </c>
+      <c r="F430" t="n">
+        <v>0.6482</v>
+      </c>
+      <c r="G430" t="n">
+        <v>-4697.693504980001</v>
+      </c>
+      <c r="H430" t="n">
+        <v>0</v>
+      </c>
+      <c r="I430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>7165</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L430" t="n">
+        <v>1</v>
+      </c>
+      <c r="M430" t="inlineStr"/>
+    </row>
+    <row r="431">
+      <c r="A431" s="1" t="n">
+        <v>429</v>
+      </c>
+      <c r="B431" t="n">
+        <v>7625</v>
+      </c>
+      <c r="C431" t="n">
+        <v>7685</v>
+      </c>
+      <c r="D431" t="n">
+        <v>7685</v>
+      </c>
+      <c r="E431" t="n">
+        <v>7620</v>
+      </c>
+      <c r="F431" t="n">
+        <v>24.5594</v>
+      </c>
+      <c r="G431" t="n">
+        <v>-4673.134104980001</v>
+      </c>
+      <c r="H431" t="n">
+        <v>0</v>
+      </c>
+      <c r="I431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>7165</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L431" t="n">
+        <v>1</v>
+      </c>
+      <c r="M431" t="inlineStr"/>
+    </row>
+    <row r="432">
+      <c r="A432" s="1" t="n">
+        <v>430</v>
+      </c>
+      <c r="B432" t="n">
+        <v>7595</v>
+      </c>
+      <c r="C432" t="n">
+        <v>7500</v>
+      </c>
+      <c r="D432" t="n">
+        <v>7595</v>
+      </c>
+      <c r="E432" t="n">
+        <v>7500</v>
+      </c>
+      <c r="F432" t="n">
+        <v>278.5885</v>
+      </c>
+      <c r="G432" t="n">
+        <v>-4951.722604980001</v>
+      </c>
+      <c r="H432" t="n">
+        <v>0</v>
+      </c>
+      <c r="I432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>7165</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L432" t="n">
+        <v>1</v>
+      </c>
+      <c r="M432" t="inlineStr"/>
+    </row>
+    <row r="433">
+      <c r="A433" s="1" t="n">
+        <v>431</v>
+      </c>
+      <c r="B433" t="n">
+        <v>7500</v>
+      </c>
+      <c r="C433" t="n">
+        <v>7590</v>
+      </c>
+      <c r="D433" t="n">
+        <v>7590</v>
+      </c>
+      <c r="E433" t="n">
+        <v>7500</v>
+      </c>
+      <c r="F433" t="n">
+        <v>57.77</v>
+      </c>
+      <c r="G433" t="n">
+        <v>-4893.952604980001</v>
+      </c>
+      <c r="H433" t="n">
+        <v>0</v>
+      </c>
+      <c r="I433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>7165</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L433" t="n">
+        <v>1</v>
+      </c>
+      <c r="M433" t="inlineStr"/>
+    </row>
+    <row r="434">
+      <c r="A434" s="1" t="n">
+        <v>432</v>
+      </c>
+      <c r="B434" t="n">
+        <v>7505</v>
+      </c>
+      <c r="C434" t="n">
+        <v>7590</v>
+      </c>
+      <c r="D434" t="n">
+        <v>7595</v>
+      </c>
+      <c r="E434" t="n">
+        <v>7505</v>
+      </c>
+      <c r="F434" t="n">
+        <v>9.932</v>
+      </c>
+      <c r="G434" t="n">
+        <v>-4893.952604980001</v>
+      </c>
+      <c r="H434" t="n">
+        <v>0</v>
+      </c>
+      <c r="I434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>7165</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L434" t="n">
+        <v>1</v>
+      </c>
+      <c r="M434" t="inlineStr"/>
+    </row>
+    <row r="435">
+      <c r="A435" s="1" t="n">
+        <v>433</v>
+      </c>
+      <c r="B435" t="n">
+        <v>7595</v>
+      </c>
+      <c r="C435" t="n">
+        <v>7570</v>
+      </c>
+      <c r="D435" t="n">
+        <v>7595</v>
+      </c>
+      <c r="E435" t="n">
+        <v>7570</v>
+      </c>
+      <c r="F435" t="n">
+        <v>239.48</v>
+      </c>
+      <c r="G435" t="n">
+        <v>-5133.43260498</v>
+      </c>
+      <c r="H435" t="n">
+        <v>0</v>
+      </c>
+      <c r="I435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>7165</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L435" t="n">
+        <v>1</v>
+      </c>
+      <c r="M435" t="inlineStr"/>
+    </row>
+    <row r="436">
+      <c r="A436" s="1" t="n">
+        <v>434</v>
+      </c>
+      <c r="B436" t="n">
+        <v>7665</v>
+      </c>
+      <c r="C436" t="n">
+        <v>7635</v>
+      </c>
+      <c r="D436" t="n">
+        <v>7665</v>
+      </c>
+      <c r="E436" t="n">
+        <v>7595</v>
+      </c>
+      <c r="F436" t="n">
+        <v>181.3764</v>
+      </c>
+      <c r="G436" t="n">
+        <v>-4952.05620498</v>
+      </c>
+      <c r="H436" t="n">
+        <v>0</v>
+      </c>
+      <c r="I436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>7165</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L436" t="n">
+        <v>1</v>
+      </c>
+      <c r="M436" t="inlineStr"/>
+    </row>
+    <row r="437">
+      <c r="A437" s="1" t="n">
+        <v>435</v>
+      </c>
+      <c r="B437" t="n">
+        <v>7610</v>
+      </c>
+      <c r="C437" t="n">
+        <v>7650</v>
+      </c>
+      <c r="D437" t="n">
+        <v>7650</v>
+      </c>
+      <c r="E437" t="n">
+        <v>7565</v>
+      </c>
+      <c r="F437" t="n">
+        <v>261.3661</v>
+      </c>
+      <c r="G437" t="n">
+        <v>-4690.69010498</v>
+      </c>
+      <c r="H437" t="n">
+        <v>0</v>
+      </c>
+      <c r="I437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>7165</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L437" t="n">
+        <v>1</v>
+      </c>
+      <c r="M437" t="inlineStr"/>
+    </row>
+    <row r="438">
+      <c r="A438" s="1" t="n">
+        <v>436</v>
+      </c>
+      <c r="B438" t="n">
+        <v>7655</v>
+      </c>
+      <c r="C438" t="n">
+        <v>7655</v>
+      </c>
+      <c r="D438" t="n">
+        <v>7655</v>
+      </c>
+      <c r="E438" t="n">
+        <v>7655</v>
+      </c>
+      <c r="F438" t="n">
+        <v>170.2478</v>
+      </c>
+      <c r="G438" t="n">
+        <v>-4520.44230498</v>
+      </c>
+      <c r="H438" t="n">
+        <v>0</v>
+      </c>
+      <c r="I438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>7165</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L438" t="n">
+        <v>1</v>
+      </c>
+      <c r="M438" t="inlineStr"/>
+    </row>
+    <row r="439">
+      <c r="A439" s="1" t="n">
+        <v>437</v>
+      </c>
+      <c r="B439" t="n">
+        <v>7655</v>
+      </c>
+      <c r="C439" t="n">
+        <v>7585</v>
+      </c>
+      <c r="D439" t="n">
+        <v>7655</v>
+      </c>
+      <c r="E439" t="n">
+        <v>7585</v>
+      </c>
+      <c r="F439" t="n">
+        <v>534.6377</v>
+      </c>
+      <c r="G439" t="n">
+        <v>-5055.08000498</v>
+      </c>
+      <c r="H439" t="n">
+        <v>0</v>
+      </c>
+      <c r="I439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>7165</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L439" t="n">
+        <v>1</v>
+      </c>
+      <c r="M439" t="inlineStr"/>
+    </row>
+    <row r="440">
+      <c r="A440" s="1" t="n">
+        <v>438</v>
+      </c>
+      <c r="B440" t="n">
+        <v>7580</v>
+      </c>
+      <c r="C440" t="n">
+        <v>7570</v>
+      </c>
+      <c r="D440" t="n">
+        <v>7580</v>
+      </c>
+      <c r="E440" t="n">
+        <v>7570</v>
+      </c>
+      <c r="F440" t="n">
+        <v>50.1107</v>
+      </c>
+      <c r="G440" t="n">
+        <v>-5105.19070498</v>
+      </c>
+      <c r="H440" t="n">
+        <v>0</v>
+      </c>
+      <c r="I440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>7165</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L440" t="n">
+        <v>1</v>
+      </c>
+      <c r="M440" t="inlineStr"/>
+    </row>
+    <row r="441">
+      <c r="A441" s="1" t="n">
+        <v>439</v>
+      </c>
+      <c r="B441" t="n">
+        <v>7670</v>
+      </c>
+      <c r="C441" t="n">
+        <v>7670</v>
+      </c>
+      <c r="D441" t="n">
+        <v>7670</v>
+      </c>
+      <c r="E441" t="n">
+        <v>7560</v>
+      </c>
+      <c r="F441" t="n">
+        <v>159.282</v>
+      </c>
+      <c r="G441" t="n">
+        <v>-4945.90870498</v>
+      </c>
+      <c r="H441" t="n">
+        <v>0</v>
+      </c>
+      <c r="I441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>7165</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L441" t="n">
+        <v>1</v>
+      </c>
+      <c r="M441" t="inlineStr"/>
+    </row>
+    <row r="442">
+      <c r="A442" s="1" t="n">
+        <v>440</v>
+      </c>
+      <c r="B442" t="n">
+        <v>7565</v>
+      </c>
+      <c r="C442" t="n">
+        <v>7560</v>
+      </c>
+      <c r="D442" t="n">
+        <v>7670</v>
+      </c>
+      <c r="E442" t="n">
+        <v>7560</v>
+      </c>
+      <c r="F442" t="n">
+        <v>165.84</v>
+      </c>
+      <c r="G442" t="n">
+        <v>-5111.74870498</v>
+      </c>
+      <c r="H442" t="n">
+        <v>0</v>
+      </c>
+      <c r="I442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>7165</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L442" t="n">
+        <v>1</v>
+      </c>
+      <c r="M442" t="inlineStr"/>
+    </row>
+    <row r="443">
+      <c r="A443" s="1" t="n">
+        <v>441</v>
+      </c>
+      <c r="B443" t="n">
+        <v>7560</v>
+      </c>
+      <c r="C443" t="n">
+        <v>7565</v>
+      </c>
+      <c r="D443" t="n">
+        <v>7665</v>
+      </c>
+      <c r="E443" t="n">
+        <v>7560</v>
+      </c>
+      <c r="F443" t="n">
+        <v>114.74</v>
+      </c>
+      <c r="G443" t="n">
+        <v>-4997.00870498</v>
+      </c>
+      <c r="H443" t="n">
+        <v>0</v>
+      </c>
+      <c r="I443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>7165</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L443" t="n">
+        <v>1</v>
+      </c>
+      <c r="M443" t="inlineStr"/>
+    </row>
+    <row r="444">
+      <c r="A444" s="1" t="n">
+        <v>442</v>
+      </c>
+      <c r="B444" t="n">
+        <v>7565</v>
+      </c>
+      <c r="C444" t="n">
+        <v>7665</v>
+      </c>
+      <c r="D444" t="n">
+        <v>7665</v>
+      </c>
+      <c r="E444" t="n">
+        <v>7565</v>
+      </c>
+      <c r="F444" t="n">
+        <v>41.109</v>
+      </c>
+      <c r="G444" t="n">
+        <v>-4955.89970498</v>
+      </c>
+      <c r="H444" t="n">
+        <v>0</v>
+      </c>
+      <c r="I444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>7165</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L444" t="n">
+        <v>1</v>
+      </c>
+      <c r="M444" t="inlineStr"/>
+    </row>
+    <row r="445">
+      <c r="A445" s="1" t="n">
+        <v>443</v>
+      </c>
+      <c r="B445" t="n">
+        <v>7570</v>
+      </c>
+      <c r="C445" t="n">
+        <v>7645</v>
+      </c>
+      <c r="D445" t="n">
+        <v>7645</v>
+      </c>
+      <c r="E445" t="n">
+        <v>7560</v>
+      </c>
+      <c r="F445" t="n">
+        <v>26.39</v>
+      </c>
+      <c r="G445" t="n">
+        <v>-4982.28970498</v>
+      </c>
+      <c r="H445" t="n">
+        <v>0</v>
+      </c>
+      <c r="I445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>7165</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L445" t="n">
+        <v>1</v>
+      </c>
+      <c r="M445" t="inlineStr"/>
+    </row>
+    <row r="446">
+      <c r="A446" s="1" t="n">
+        <v>444</v>
+      </c>
+      <c r="B446" t="n">
+        <v>7565</v>
+      </c>
+      <c r="C446" t="n">
+        <v>7625</v>
+      </c>
+      <c r="D446" t="n">
+        <v>7640</v>
+      </c>
+      <c r="E446" t="n">
+        <v>7565</v>
+      </c>
+      <c r="F446" t="n">
+        <v>291.4632</v>
+      </c>
+      <c r="G446" t="n">
+        <v>-5273.75290498</v>
+      </c>
+      <c r="H446" t="n">
+        <v>0</v>
+      </c>
+      <c r="I446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>7165</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L446" t="n">
+        <v>1</v>
+      </c>
+      <c r="M446" t="inlineStr"/>
+    </row>
+    <row r="447">
+      <c r="A447" s="1" t="n">
+        <v>445</v>
+      </c>
+      <c r="B447" t="n">
+        <v>7625</v>
+      </c>
+      <c r="C447" t="n">
+        <v>7620</v>
+      </c>
+      <c r="D447" t="n">
+        <v>7625</v>
+      </c>
+      <c r="E447" t="n">
+        <v>7620</v>
+      </c>
+      <c r="F447" t="n">
+        <v>430</v>
+      </c>
+      <c r="G447" t="n">
+        <v>-5703.75290498</v>
+      </c>
+      <c r="H447" t="n">
+        <v>0</v>
+      </c>
+      <c r="I447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>7165</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L447" t="n">
+        <v>1</v>
+      </c>
+      <c r="M447" t="inlineStr"/>
+    </row>
+    <row r="448">
+      <c r="A448" s="1" t="n">
+        <v>446</v>
+      </c>
+      <c r="B448" t="n">
+        <v>7640</v>
+      </c>
+      <c r="C448" t="n">
+        <v>7660</v>
+      </c>
+      <c r="D448" t="n">
+        <v>7660</v>
+      </c>
+      <c r="E448" t="n">
+        <v>7640</v>
+      </c>
+      <c r="F448" t="n">
+        <v>220.907</v>
+      </c>
+      <c r="G448" t="n">
+        <v>-5482.84590498</v>
+      </c>
+      <c r="H448" t="n">
+        <v>0</v>
+      </c>
+      <c r="I448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>7165</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L448" t="n">
+        <v>1</v>
+      </c>
+      <c r="M448" t="inlineStr"/>
+    </row>
+    <row r="449">
+      <c r="A449" s="1" t="n">
+        <v>447</v>
+      </c>
+      <c r="B449" t="n">
+        <v>7660</v>
+      </c>
+      <c r="C449" t="n">
+        <v>7670</v>
+      </c>
+      <c r="D449" t="n">
+        <v>7670</v>
+      </c>
+      <c r="E449" t="n">
+        <v>7660</v>
+      </c>
+      <c r="F449" t="n">
+        <v>161.3246</v>
+      </c>
+      <c r="G449" t="n">
+        <v>-5321.52130498</v>
+      </c>
+      <c r="H449" t="n">
+        <v>0</v>
+      </c>
+      <c r="I449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>7165</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L449" t="n">
+        <v>1</v>
+      </c>
+      <c r="M449" t="inlineStr"/>
+    </row>
+    <row r="450">
+      <c r="A450" s="1" t="n">
+        <v>448</v>
+      </c>
+      <c r="B450" t="n">
+        <v>7670</v>
+      </c>
+      <c r="C450" t="n">
+        <v>7670</v>
+      </c>
+      <c r="D450" t="n">
+        <v>7670</v>
+      </c>
+      <c r="E450" t="n">
+        <v>7670</v>
+      </c>
+      <c r="F450" t="n">
+        <v>24.328</v>
+      </c>
+      <c r="G450" t="n">
+        <v>-5321.52130498</v>
+      </c>
+      <c r="H450" t="n">
+        <v>0</v>
+      </c>
+      <c r="I450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>7165</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L450" t="n">
+        <v>1</v>
+      </c>
+      <c r="M450" t="inlineStr"/>
+    </row>
+    <row r="451">
+      <c r="A451" s="1" t="n">
+        <v>449</v>
+      </c>
+      <c r="B451" t="n">
+        <v>7670</v>
+      </c>
+      <c r="C451" t="n">
+        <v>7675</v>
+      </c>
+      <c r="D451" t="n">
+        <v>7675</v>
+      </c>
+      <c r="E451" t="n">
+        <v>7670</v>
+      </c>
+      <c r="F451" t="n">
+        <v>104.1048</v>
+      </c>
+      <c r="G451" t="n">
+        <v>-5217.41650498</v>
+      </c>
+      <c r="H451" t="n">
+        <v>0</v>
+      </c>
+      <c r="I451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>7165</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L451" t="n">
+        <v>1</v>
+      </c>
+      <c r="M451" t="inlineStr"/>
+    </row>
+    <row r="452">
+      <c r="A452" s="1" t="n">
+        <v>450</v>
+      </c>
+      <c r="B452" t="n">
+        <v>7675</v>
+      </c>
+      <c r="C452" t="n">
+        <v>7675</v>
+      </c>
+      <c r="D452" t="n">
+        <v>7675</v>
+      </c>
+      <c r="E452" t="n">
+        <v>7675</v>
+      </c>
+      <c r="F452" t="n">
+        <v>27.3376</v>
+      </c>
+      <c r="G452" t="n">
+        <v>-5217.41650498</v>
+      </c>
+      <c r="H452" t="n">
+        <v>0</v>
+      </c>
+      <c r="I452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>7165</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L452" t="n">
+        <v>1</v>
+      </c>
+      <c r="M452" t="inlineStr"/>
+    </row>
+    <row r="453">
+      <c r="A453" s="1" t="n">
+        <v>451</v>
+      </c>
+      <c r="B453" t="n">
+        <v>7680</v>
+      </c>
+      <c r="C453" t="n">
+        <v>7800</v>
+      </c>
+      <c r="D453" t="n">
+        <v>7800</v>
+      </c>
+      <c r="E453" t="n">
+        <v>7680</v>
+      </c>
+      <c r="F453" t="n">
+        <v>747.8775710800001</v>
+      </c>
+      <c r="G453" t="n">
+        <v>-4469.5389339</v>
+      </c>
+      <c r="H453" t="n">
+        <v>0</v>
+      </c>
+      <c r="I453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>7165</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L453" t="n">
+        <v>1</v>
+      </c>
+      <c r="M453" t="inlineStr"/>
+    </row>
+    <row r="454">
+      <c r="A454" s="1" t="n">
+        <v>452</v>
+      </c>
+      <c r="B454" t="n">
+        <v>7705</v>
+      </c>
+      <c r="C454" t="n">
+        <v>7705</v>
+      </c>
+      <c r="D454" t="n">
+        <v>7705</v>
+      </c>
+      <c r="E454" t="n">
+        <v>7705</v>
+      </c>
+      <c r="F454" t="n">
+        <v>8.631</v>
+      </c>
+      <c r="G454" t="n">
+        <v>-4478.169933900001</v>
+      </c>
+      <c r="H454" t="n">
         <v>2</v>
       </c>
-      <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr">
+      <c r="I454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>7165</v>
+      </c>
+      <c r="K454" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L387" t="inlineStr"/>
-      <c r="M387" t="inlineStr"/>
-    </row>
-    <row r="388">
-      <c r="A388" s="1" t="n">
-        <v>386</v>
-      </c>
-      <c r="B388" t="n">
-        <v>7465</v>
-      </c>
-      <c r="C388" t="n">
-        <v>7470</v>
-      </c>
-      <c r="D388" t="n">
-        <v>7470</v>
-      </c>
-      <c r="E388" t="n">
-        <v>7465</v>
-      </c>
-      <c r="F388" t="n">
-        <v>22.8399</v>
-      </c>
-      <c r="G388" t="n">
-        <v>-7604.452404980003</v>
-      </c>
-      <c r="H388" t="n">
-        <v>2</v>
-      </c>
-      <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
-      <c r="L388" t="n">
-        <v>1</v>
-      </c>
-      <c r="M388" t="inlineStr"/>
-    </row>
-    <row r="389">
-      <c r="A389" s="1" t="n">
-        <v>387</v>
-      </c>
-      <c r="B389" t="n">
-        <v>7470</v>
-      </c>
-      <c r="C389" t="n">
-        <v>7470</v>
-      </c>
-      <c r="D389" t="n">
-        <v>7470</v>
-      </c>
-      <c r="E389" t="n">
-        <v>7470</v>
-      </c>
-      <c r="F389" t="n">
-        <v>203.3129</v>
-      </c>
-      <c r="G389" t="n">
-        <v>-7604.452404980003</v>
-      </c>
-      <c r="H389" t="n">
-        <v>2</v>
-      </c>
-      <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
-      <c r="L389" t="n">
-        <v>1</v>
-      </c>
-      <c r="M389" t="inlineStr"/>
-    </row>
-    <row r="390">
-      <c r="A390" s="1" t="n">
-        <v>388</v>
-      </c>
-      <c r="B390" t="n">
-        <v>7470</v>
-      </c>
-      <c r="C390" t="n">
-        <v>7460</v>
-      </c>
-      <c r="D390" t="n">
-        <v>7475</v>
-      </c>
-      <c r="E390" t="n">
-        <v>7460</v>
-      </c>
-      <c r="F390" t="n">
-        <v>190.5038</v>
-      </c>
-      <c r="G390" t="n">
-        <v>-7794.956204980003</v>
-      </c>
-      <c r="H390" t="n">
-        <v>2</v>
-      </c>
-      <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
-      <c r="L390" t="n">
-        <v>1</v>
-      </c>
-      <c r="M390" t="inlineStr"/>
-    </row>
-    <row r="391">
-      <c r="A391" s="1" t="n">
-        <v>389</v>
-      </c>
-      <c r="B391" t="n">
-        <v>7460</v>
-      </c>
-      <c r="C391" t="n">
-        <v>7470</v>
-      </c>
-      <c r="D391" t="n">
-        <v>7470</v>
-      </c>
-      <c r="E391" t="n">
-        <v>7460</v>
-      </c>
-      <c r="F391" t="n">
-        <v>187.7584</v>
-      </c>
-      <c r="G391" t="n">
-        <v>-7607.197804980004</v>
-      </c>
-      <c r="H391" t="n">
-        <v>0</v>
-      </c>
-      <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
-      <c r="L391" t="n">
-        <v>1</v>
-      </c>
-      <c r="M391" t="inlineStr"/>
-    </row>
-    <row r="392">
-      <c r="A392" s="1" t="n">
-        <v>390</v>
-      </c>
-      <c r="B392" t="n">
-        <v>7485</v>
-      </c>
-      <c r="C392" t="n">
-        <v>7490</v>
-      </c>
-      <c r="D392" t="n">
-        <v>7490</v>
-      </c>
-      <c r="E392" t="n">
-        <v>7485</v>
-      </c>
-      <c r="F392" t="n">
-        <v>64.8403</v>
-      </c>
-      <c r="G392" t="n">
-        <v>-7542.357504980004</v>
-      </c>
-      <c r="H392" t="n">
-        <v>0</v>
-      </c>
-      <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
-      <c r="L392" t="n">
-        <v>1</v>
-      </c>
-      <c r="M392" t="inlineStr"/>
-    </row>
-    <row r="393">
-      <c r="A393" s="1" t="n">
-        <v>391</v>
-      </c>
-      <c r="B393" t="n">
-        <v>7490</v>
-      </c>
-      <c r="C393" t="n">
-        <v>7490</v>
-      </c>
-      <c r="D393" t="n">
-        <v>7490</v>
-      </c>
-      <c r="E393" t="n">
-        <v>7490</v>
-      </c>
-      <c r="F393" t="n">
-        <v>198.3075</v>
-      </c>
-      <c r="G393" t="n">
-        <v>-7542.357504980004</v>
-      </c>
-      <c r="H393" t="n">
-        <v>0</v>
-      </c>
-      <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
-      <c r="L393" t="n">
-        <v>1</v>
-      </c>
-      <c r="M393" t="inlineStr"/>
-    </row>
-    <row r="394">
-      <c r="A394" s="1" t="n">
-        <v>392</v>
-      </c>
-      <c r="B394" t="n">
-        <v>7455</v>
-      </c>
-      <c r="C394" t="n">
-        <v>7455</v>
-      </c>
-      <c r="D394" t="n">
-        <v>7455</v>
-      </c>
-      <c r="E394" t="n">
-        <v>7455</v>
-      </c>
-      <c r="F394" t="n">
-        <v>0.1214</v>
-      </c>
-      <c r="G394" t="n">
-        <v>-7542.478904980004</v>
-      </c>
-      <c r="H394" t="n">
-        <v>0</v>
-      </c>
-      <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
-      <c r="L394" t="n">
-        <v>1</v>
-      </c>
-      <c r="M394" t="inlineStr"/>
-    </row>
-    <row r="395">
-      <c r="A395" s="1" t="n">
-        <v>393</v>
-      </c>
-      <c r="B395" t="n">
-        <v>7460</v>
-      </c>
-      <c r="C395" t="n">
-        <v>7465</v>
-      </c>
-      <c r="D395" t="n">
-        <v>7465</v>
-      </c>
-      <c r="E395" t="n">
-        <v>7460</v>
-      </c>
-      <c r="F395" t="n">
-        <v>0.1576</v>
-      </c>
-      <c r="G395" t="n">
-        <v>-7542.321304980004</v>
-      </c>
-      <c r="H395" t="n">
-        <v>0</v>
-      </c>
-      <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
-      <c r="L395" t="n">
-        <v>1</v>
-      </c>
-      <c r="M395" t="inlineStr"/>
-    </row>
-    <row r="396">
-      <c r="A396" s="1" t="n">
-        <v>394</v>
-      </c>
-      <c r="B396" t="n">
-        <v>7460</v>
-      </c>
-      <c r="C396" t="n">
-        <v>7485</v>
-      </c>
-      <c r="D396" t="n">
-        <v>7485</v>
-      </c>
-      <c r="E396" t="n">
-        <v>7460</v>
-      </c>
-      <c r="F396" t="n">
-        <v>263.7878</v>
-      </c>
-      <c r="G396" t="n">
-        <v>-7278.533504980004</v>
-      </c>
-      <c r="H396" t="n">
-        <v>0</v>
-      </c>
-      <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
-      <c r="L396" t="n">
-        <v>1</v>
-      </c>
-      <c r="M396" t="inlineStr"/>
-    </row>
-    <row r="397">
-      <c r="A397" s="1" t="n">
-        <v>395</v>
-      </c>
-      <c r="B397" t="n">
-        <v>7485</v>
-      </c>
-      <c r="C397" t="n">
-        <v>7460</v>
-      </c>
-      <c r="D397" t="n">
-        <v>7485</v>
-      </c>
-      <c r="E397" t="n">
-        <v>7460</v>
-      </c>
-      <c r="F397" t="n">
-        <v>212.4747</v>
-      </c>
-      <c r="G397" t="n">
-        <v>-7491.008204980004</v>
-      </c>
-      <c r="H397" t="n">
-        <v>0</v>
-      </c>
-      <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
-      <c r="L397" t="n">
-        <v>1</v>
-      </c>
-      <c r="M397" t="inlineStr"/>
-    </row>
-    <row r="398">
-      <c r="A398" s="1" t="n">
-        <v>396</v>
-      </c>
-      <c r="B398" t="n">
-        <v>7455</v>
-      </c>
-      <c r="C398" t="n">
-        <v>7460</v>
-      </c>
-      <c r="D398" t="n">
-        <v>7460</v>
-      </c>
-      <c r="E398" t="n">
-        <v>7455</v>
-      </c>
-      <c r="F398" t="n">
-        <v>0.1604</v>
-      </c>
-      <c r="G398" t="n">
-        <v>-7491.008204980004</v>
-      </c>
-      <c r="H398" t="n">
-        <v>0</v>
-      </c>
-      <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
-      <c r="L398" t="n">
-        <v>1</v>
-      </c>
-      <c r="M398" t="inlineStr"/>
-    </row>
-    <row r="399">
-      <c r="A399" s="1" t="n">
-        <v>397</v>
-      </c>
-      <c r="B399" t="n">
-        <v>7470</v>
-      </c>
-      <c r="C399" t="n">
-        <v>7460</v>
-      </c>
-      <c r="D399" t="n">
-        <v>7480</v>
-      </c>
-      <c r="E399" t="n">
-        <v>7460</v>
-      </c>
-      <c r="F399" t="n">
-        <v>108.6028</v>
-      </c>
-      <c r="G399" t="n">
-        <v>-7491.008204980004</v>
-      </c>
-      <c r="H399" t="n">
-        <v>0</v>
-      </c>
-      <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
-      <c r="L399" t="n">
-        <v>1</v>
-      </c>
-      <c r="M399" t="inlineStr"/>
-    </row>
-    <row r="400">
-      <c r="A400" s="1" t="n">
-        <v>398</v>
-      </c>
-      <c r="B400" t="n">
-        <v>7470</v>
-      </c>
-      <c r="C400" t="n">
-        <v>7475</v>
-      </c>
-      <c r="D400" t="n">
-        <v>7475</v>
-      </c>
-      <c r="E400" t="n">
-        <v>7470</v>
-      </c>
-      <c r="F400" t="n">
-        <v>0.1378</v>
-      </c>
-      <c r="G400" t="n">
-        <v>-7490.870404980004</v>
-      </c>
-      <c r="H400" t="n">
-        <v>0</v>
-      </c>
-      <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
-      <c r="L400" t="n">
-        <v>1</v>
-      </c>
-      <c r="M400" t="inlineStr"/>
-    </row>
-    <row r="401">
-      <c r="A401" s="1" t="n">
-        <v>399</v>
-      </c>
-      <c r="B401" t="n">
-        <v>7475</v>
-      </c>
-      <c r="C401" t="n">
-        <v>7500</v>
-      </c>
-      <c r="D401" t="n">
-        <v>7500</v>
-      </c>
-      <c r="E401" t="n">
-        <v>7475</v>
-      </c>
-      <c r="F401" t="n">
-        <v>120.0106</v>
-      </c>
-      <c r="G401" t="n">
-        <v>-7370.859804980004</v>
-      </c>
-      <c r="H401" t="n">
-        <v>0</v>
-      </c>
-      <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
-      <c r="L401" t="n">
-        <v>1</v>
-      </c>
-      <c r="M401" t="inlineStr"/>
-    </row>
-    <row r="402">
-      <c r="A402" s="1" t="n">
-        <v>400</v>
-      </c>
-      <c r="B402" t="n">
-        <v>7500</v>
-      </c>
-      <c r="C402" t="n">
-        <v>7500</v>
-      </c>
-      <c r="D402" t="n">
-        <v>7500</v>
-      </c>
-      <c r="E402" t="n">
-        <v>7500</v>
-      </c>
-      <c r="F402" t="n">
-        <v>63.8455</v>
-      </c>
-      <c r="G402" t="n">
-        <v>-7370.859804980004</v>
-      </c>
-      <c r="H402" t="n">
-        <v>0</v>
-      </c>
-      <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
-      <c r="L402" t="n">
-        <v>1</v>
-      </c>
-      <c r="M402" t="inlineStr"/>
-    </row>
-    <row r="403">
-      <c r="A403" s="1" t="n">
-        <v>401</v>
-      </c>
-      <c r="B403" t="n">
-        <v>7485</v>
-      </c>
-      <c r="C403" t="n">
-        <v>7485</v>
-      </c>
-      <c r="D403" t="n">
-        <v>7485</v>
-      </c>
-      <c r="E403" t="n">
-        <v>7485</v>
-      </c>
-      <c r="F403" t="n">
-        <v>0.0712</v>
-      </c>
-      <c r="G403" t="n">
-        <v>-7370.931004980004</v>
-      </c>
-      <c r="H403" t="n">
-        <v>0</v>
-      </c>
-      <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
-      <c r="L403" t="n">
-        <v>1</v>
-      </c>
-      <c r="M403" t="inlineStr"/>
-    </row>
-    <row r="404">
-      <c r="A404" s="1" t="n">
-        <v>402</v>
-      </c>
-      <c r="B404" t="n">
-        <v>7495</v>
-      </c>
-      <c r="C404" t="n">
-        <v>7480</v>
-      </c>
-      <c r="D404" t="n">
-        <v>7495</v>
-      </c>
-      <c r="E404" t="n">
-        <v>7480</v>
-      </c>
-      <c r="F404" t="n">
-        <v>266.7642</v>
-      </c>
-      <c r="G404" t="n">
-        <v>-7637.695204980004</v>
-      </c>
-      <c r="H404" t="n">
-        <v>0</v>
-      </c>
-      <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
-      <c r="L404" t="n">
-        <v>1</v>
-      </c>
-      <c r="M404" t="inlineStr"/>
-    </row>
-    <row r="405">
-      <c r="A405" s="1" t="n">
-        <v>403</v>
-      </c>
-      <c r="B405" t="n">
-        <v>7480</v>
-      </c>
-      <c r="C405" t="n">
-        <v>7480</v>
-      </c>
-      <c r="D405" t="n">
-        <v>7480</v>
-      </c>
-      <c r="E405" t="n">
-        <v>7480</v>
-      </c>
-      <c r="F405" t="n">
-        <v>71</v>
-      </c>
-      <c r="G405" t="n">
-        <v>-7637.695204980004</v>
-      </c>
-      <c r="H405" t="n">
-        <v>0</v>
-      </c>
-      <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
-      <c r="L405" t="n">
-        <v>1</v>
-      </c>
-      <c r="M405" t="inlineStr"/>
-    </row>
-    <row r="406">
-      <c r="A406" s="1" t="n">
-        <v>404</v>
-      </c>
-      <c r="B406" t="n">
-        <v>7480</v>
-      </c>
-      <c r="C406" t="n">
-        <v>7480</v>
-      </c>
-      <c r="D406" t="n">
-        <v>7480</v>
-      </c>
-      <c r="E406" t="n">
-        <v>7480</v>
-      </c>
-      <c r="F406" t="n">
-        <v>109.3486</v>
-      </c>
-      <c r="G406" t="n">
-        <v>-7637.695204980004</v>
-      </c>
-      <c r="H406" t="n">
-        <v>0</v>
-      </c>
-      <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
-      <c r="L406" t="n">
-        <v>1</v>
-      </c>
-      <c r="M406" t="inlineStr"/>
-    </row>
-    <row r="407">
-      <c r="A407" s="1" t="n">
-        <v>405</v>
-      </c>
-      <c r="B407" t="n">
-        <v>7480</v>
-      </c>
-      <c r="C407" t="n">
-        <v>7480</v>
-      </c>
-      <c r="D407" t="n">
-        <v>7480</v>
-      </c>
-      <c r="E407" t="n">
-        <v>7480</v>
-      </c>
-      <c r="F407" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="G407" t="n">
-        <v>-7637.695204980004</v>
-      </c>
-      <c r="H407" t="n">
-        <v>0</v>
-      </c>
-      <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
-      <c r="L407" t="n">
-        <v>1</v>
-      </c>
-      <c r="M407" t="inlineStr"/>
-    </row>
-    <row r="408">
-      <c r="A408" s="1" t="n">
-        <v>406</v>
-      </c>
-      <c r="B408" t="n">
-        <v>7485</v>
-      </c>
-      <c r="C408" t="n">
-        <v>7500</v>
-      </c>
-      <c r="D408" t="n">
-        <v>7500</v>
-      </c>
-      <c r="E408" t="n">
-        <v>7485</v>
-      </c>
-      <c r="F408" t="n">
-        <v>28.4656</v>
-      </c>
-      <c r="G408" t="n">
-        <v>-7609.229604980003</v>
-      </c>
-      <c r="H408" t="n">
-        <v>0</v>
-      </c>
-      <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
-      <c r="L408" t="n">
-        <v>1</v>
-      </c>
-      <c r="M408" t="inlineStr"/>
-    </row>
-    <row r="409">
-      <c r="A409" s="1" t="n">
-        <v>407</v>
-      </c>
-      <c r="B409" t="n">
-        <v>7500</v>
-      </c>
-      <c r="C409" t="n">
-        <v>7510</v>
-      </c>
-      <c r="D409" t="n">
-        <v>7510</v>
-      </c>
-      <c r="E409" t="n">
-        <v>7500</v>
-      </c>
-      <c r="F409" t="n">
-        <v>2098.4504</v>
-      </c>
-      <c r="G409" t="n">
-        <v>-5510.779204980003</v>
-      </c>
-      <c r="H409" t="n">
-        <v>0</v>
-      </c>
-      <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
-      <c r="L409" t="n">
-        <v>1</v>
-      </c>
-      <c r="M409" t="inlineStr"/>
-    </row>
-    <row r="410">
-      <c r="A410" s="1" t="n">
-        <v>408</v>
-      </c>
-      <c r="B410" t="n">
-        <v>7510</v>
-      </c>
-      <c r="C410" t="n">
-        <v>7480</v>
-      </c>
-      <c r="D410" t="n">
-        <v>7510</v>
-      </c>
-      <c r="E410" t="n">
-        <v>7480</v>
-      </c>
-      <c r="F410" t="n">
-        <v>131.2481</v>
-      </c>
-      <c r="G410" t="n">
-        <v>-5642.027304980003</v>
-      </c>
-      <c r="H410" t="n">
-        <v>0</v>
-      </c>
-      <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
-      <c r="L410" t="n">
-        <v>1</v>
-      </c>
-      <c r="M410" t="inlineStr"/>
-    </row>
-    <row r="411">
-      <c r="A411" s="1" t="n">
-        <v>409</v>
-      </c>
-      <c r="B411" t="n">
-        <v>7480</v>
-      </c>
-      <c r="C411" t="n">
-        <v>7490</v>
-      </c>
-      <c r="D411" t="n">
-        <v>7490</v>
-      </c>
-      <c r="E411" t="n">
-        <v>7480</v>
-      </c>
-      <c r="F411" t="n">
-        <v>301.0068</v>
-      </c>
-      <c r="G411" t="n">
-        <v>-5341.020504980002</v>
-      </c>
-      <c r="H411" t="n">
-        <v>0</v>
-      </c>
-      <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
-      <c r="L411" t="n">
-        <v>1</v>
-      </c>
-      <c r="M411" t="inlineStr"/>
-    </row>
-    <row r="412">
-      <c r="A412" s="1" t="n">
-        <v>410</v>
-      </c>
-      <c r="B412" t="n">
-        <v>7490</v>
-      </c>
-      <c r="C412" t="n">
-        <v>7490</v>
-      </c>
-      <c r="D412" t="n">
-        <v>7490</v>
-      </c>
-      <c r="E412" t="n">
-        <v>7490</v>
-      </c>
-      <c r="F412" t="n">
-        <v>36.7369</v>
-      </c>
-      <c r="G412" t="n">
-        <v>-5341.020504980002</v>
-      </c>
-      <c r="H412" t="n">
-        <v>0</v>
-      </c>
-      <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
-      <c r="L412" t="n">
-        <v>1</v>
-      </c>
-      <c r="M412" t="inlineStr"/>
-    </row>
-    <row r="413">
-      <c r="A413" s="1" t="n">
-        <v>411</v>
-      </c>
-      <c r="B413" t="n">
-        <v>7490</v>
-      </c>
-      <c r="C413" t="n">
-        <v>7490</v>
-      </c>
-      <c r="D413" t="n">
-        <v>7490</v>
-      </c>
-      <c r="E413" t="n">
-        <v>7490</v>
-      </c>
-      <c r="F413" t="n">
-        <v>23.5438</v>
-      </c>
-      <c r="G413" t="n">
-        <v>-5341.020504980002</v>
-      </c>
-      <c r="H413" t="n">
-        <v>0</v>
-      </c>
-      <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
-      <c r="L413" t="n">
-        <v>1</v>
-      </c>
-      <c r="M413" t="inlineStr"/>
-    </row>
-    <row r="414">
-      <c r="A414" s="1" t="n">
-        <v>412</v>
-      </c>
-      <c r="B414" t="n">
-        <v>7490</v>
-      </c>
-      <c r="C414" t="n">
-        <v>7475</v>
-      </c>
-      <c r="D414" t="n">
-        <v>7490</v>
-      </c>
-      <c r="E414" t="n">
-        <v>7475</v>
-      </c>
-      <c r="F414" t="n">
-        <v>291.587</v>
-      </c>
-      <c r="G414" t="n">
-        <v>-5632.607504980002</v>
-      </c>
-      <c r="H414" t="n">
-        <v>0</v>
-      </c>
-      <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
-      <c r="L414" t="n">
-        <v>1</v>
-      </c>
-      <c r="M414" t="inlineStr"/>
-    </row>
-    <row r="415">
-      <c r="A415" s="1" t="n">
-        <v>413</v>
-      </c>
-      <c r="B415" t="n">
-        <v>7480</v>
-      </c>
-      <c r="C415" t="n">
-        <v>7475</v>
-      </c>
-      <c r="D415" t="n">
-        <v>7480</v>
-      </c>
-      <c r="E415" t="n">
-        <v>7475</v>
-      </c>
-      <c r="F415" t="n">
-        <v>319.6355</v>
-      </c>
-      <c r="G415" t="n">
-        <v>-5632.607504980002</v>
-      </c>
-      <c r="H415" t="n">
-        <v>0</v>
-      </c>
-      <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
-      <c r="L415" t="n">
-        <v>1</v>
-      </c>
-      <c r="M415" t="inlineStr"/>
-    </row>
-    <row r="416">
-      <c r="A416" s="1" t="n">
-        <v>414</v>
-      </c>
-      <c r="B416" t="n">
-        <v>7475</v>
-      </c>
-      <c r="C416" t="n">
-        <v>7490</v>
-      </c>
-      <c r="D416" t="n">
-        <v>7490</v>
-      </c>
-      <c r="E416" t="n">
-        <v>7455</v>
-      </c>
-      <c r="F416" t="n">
-        <v>565.7056</v>
-      </c>
-      <c r="G416" t="n">
-        <v>-5066.901904980002</v>
-      </c>
-      <c r="H416" t="n">
-        <v>0</v>
-      </c>
-      <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
-      <c r="L416" t="n">
-        <v>1</v>
-      </c>
-      <c r="M416" t="inlineStr"/>
-    </row>
-    <row r="417">
-      <c r="A417" s="1" t="n">
-        <v>415</v>
-      </c>
-      <c r="B417" t="n">
-        <v>7485</v>
-      </c>
-      <c r="C417" t="n">
-        <v>7485</v>
-      </c>
-      <c r="D417" t="n">
-        <v>7485</v>
-      </c>
-      <c r="E417" t="n">
-        <v>7485</v>
-      </c>
-      <c r="F417" t="n">
-        <v>113.7951</v>
-      </c>
-      <c r="G417" t="n">
-        <v>-5180.697004980002</v>
-      </c>
-      <c r="H417" t="n">
-        <v>0</v>
-      </c>
-      <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
-      <c r="L417" t="n">
-        <v>1</v>
-      </c>
-      <c r="M417" t="inlineStr"/>
-    </row>
-    <row r="418">
-      <c r="A418" s="1" t="n">
-        <v>416</v>
-      </c>
-      <c r="B418" t="n">
-        <v>7485</v>
-      </c>
-      <c r="C418" t="n">
-        <v>7485</v>
-      </c>
-      <c r="D418" t="n">
-        <v>7485</v>
-      </c>
-      <c r="E418" t="n">
-        <v>7485</v>
-      </c>
-      <c r="F418" t="n">
-        <v>44</v>
-      </c>
-      <c r="G418" t="n">
-        <v>-5180.697004980002</v>
-      </c>
-      <c r="H418" t="n">
-        <v>0</v>
-      </c>
-      <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
-      <c r="L418" t="n">
-        <v>1</v>
-      </c>
-      <c r="M418" t="inlineStr"/>
-    </row>
-    <row r="419">
-      <c r="A419" s="1" t="n">
-        <v>417</v>
-      </c>
-      <c r="B419" t="n">
-        <v>7495</v>
-      </c>
-      <c r="C419" t="n">
-        <v>7495</v>
-      </c>
-      <c r="D419" t="n">
-        <v>7495</v>
-      </c>
-      <c r="E419" t="n">
-        <v>7495</v>
-      </c>
-      <c r="F419" t="n">
-        <v>163.2006</v>
-      </c>
-      <c r="G419" t="n">
-        <v>-5017.496404980002</v>
-      </c>
-      <c r="H419" t="n">
-        <v>0</v>
-      </c>
-      <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
-      <c r="L419" t="n">
-        <v>1</v>
-      </c>
-      <c r="M419" t="inlineStr"/>
-    </row>
-    <row r="420">
-      <c r="A420" s="1" t="n">
-        <v>418</v>
-      </c>
-      <c r="B420" t="n">
-        <v>7500</v>
-      </c>
-      <c r="C420" t="n">
-        <v>7495</v>
-      </c>
-      <c r="D420" t="n">
-        <v>7500</v>
-      </c>
-      <c r="E420" t="n">
-        <v>7495</v>
-      </c>
-      <c r="F420" t="n">
-        <v>37</v>
-      </c>
-      <c r="G420" t="n">
-        <v>-5017.496404980002</v>
-      </c>
-      <c r="H420" t="n">
-        <v>0</v>
-      </c>
-      <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
-      <c r="L420" t="n">
-        <v>1</v>
-      </c>
-      <c r="M420" t="inlineStr"/>
-    </row>
-    <row r="421">
-      <c r="A421" s="1" t="n">
-        <v>419</v>
-      </c>
-      <c r="B421" t="n">
-        <v>7500</v>
-      </c>
-      <c r="C421" t="n">
-        <v>7495</v>
-      </c>
-      <c r="D421" t="n">
-        <v>7500</v>
-      </c>
-      <c r="E421" t="n">
-        <v>7495</v>
-      </c>
-      <c r="F421" t="n">
-        <v>154.5</v>
-      </c>
-      <c r="G421" t="n">
-        <v>-5017.496404980002</v>
-      </c>
-      <c r="H421" t="n">
-        <v>0</v>
-      </c>
-      <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
-      <c r="L421" t="n">
-        <v>1</v>
-      </c>
-      <c r="M421" t="inlineStr"/>
-    </row>
-    <row r="422">
-      <c r="A422" s="1" t="n">
-        <v>420</v>
-      </c>
-      <c r="B422" t="n">
-        <v>7495</v>
-      </c>
-      <c r="C422" t="n">
-        <v>7505</v>
-      </c>
-      <c r="D422" t="n">
-        <v>7505</v>
-      </c>
-      <c r="E422" t="n">
-        <v>7495</v>
-      </c>
-      <c r="F422" t="n">
-        <v>171.8</v>
-      </c>
-      <c r="G422" t="n">
-        <v>-4845.696404980002</v>
-      </c>
-      <c r="H422" t="n">
-        <v>0</v>
-      </c>
-      <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
-      <c r="L422" t="n">
-        <v>1</v>
-      </c>
-      <c r="M422" t="inlineStr"/>
-    </row>
-    <row r="423">
-      <c r="A423" s="1" t="n">
-        <v>421</v>
-      </c>
-      <c r="B423" t="n">
-        <v>7495</v>
-      </c>
-      <c r="C423" t="n">
-        <v>7495</v>
-      </c>
-      <c r="D423" t="n">
-        <v>7495</v>
-      </c>
-      <c r="E423" t="n">
-        <v>7495</v>
-      </c>
-      <c r="F423" t="n">
-        <v>105.7029</v>
-      </c>
-      <c r="G423" t="n">
-        <v>-4951.399304980002</v>
-      </c>
-      <c r="H423" t="n">
-        <v>0</v>
-      </c>
-      <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
-      <c r="L423" t="n">
-        <v>1</v>
-      </c>
-      <c r="M423" t="inlineStr"/>
-    </row>
-    <row r="424">
-      <c r="A424" s="1" t="n">
-        <v>422</v>
-      </c>
-      <c r="B424" t="n">
-        <v>7495</v>
-      </c>
-      <c r="C424" t="n">
-        <v>7495</v>
-      </c>
-      <c r="D424" t="n">
-        <v>7495</v>
-      </c>
-      <c r="E424" t="n">
-        <v>7495</v>
-      </c>
-      <c r="F424" t="n">
-        <v>52.5</v>
-      </c>
-      <c r="G424" t="n">
-        <v>-4951.399304980002</v>
-      </c>
-      <c r="H424" t="n">
-        <v>0</v>
-      </c>
-      <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
-      <c r="L424" t="n">
-        <v>1</v>
-      </c>
-      <c r="M424" t="inlineStr"/>
-    </row>
-    <row r="425">
-      <c r="A425" s="1" t="n">
-        <v>423</v>
-      </c>
-      <c r="B425" t="n">
-        <v>7510</v>
-      </c>
-      <c r="C425" t="n">
-        <v>7495</v>
-      </c>
-      <c r="D425" t="n">
-        <v>7510</v>
-      </c>
-      <c r="E425" t="n">
-        <v>7495</v>
-      </c>
-      <c r="F425" t="n">
-        <v>204.9093</v>
-      </c>
-      <c r="G425" t="n">
-        <v>-4951.399304980002</v>
-      </c>
-      <c r="H425" t="n">
-        <v>0</v>
-      </c>
-      <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
-      <c r="L425" t="n">
-        <v>1</v>
-      </c>
-      <c r="M425" t="inlineStr"/>
-    </row>
-    <row r="426">
-      <c r="A426" s="1" t="n">
-        <v>424</v>
-      </c>
-      <c r="B426" t="n">
-        <v>7510</v>
-      </c>
-      <c r="C426" t="n">
-        <v>7510</v>
-      </c>
-      <c r="D426" t="n">
-        <v>7510</v>
-      </c>
-      <c r="E426" t="n">
-        <v>7510</v>
-      </c>
-      <c r="F426" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="G426" t="n">
-        <v>-4949.219304980002</v>
-      </c>
-      <c r="H426" t="n">
-        <v>0</v>
-      </c>
-      <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
-      <c r="L426" t="n">
-        <v>1</v>
-      </c>
-      <c r="M426" t="inlineStr"/>
-    </row>
-    <row r="427">
-      <c r="A427" s="1" t="n">
-        <v>425</v>
-      </c>
-      <c r="B427" t="n">
-        <v>7495</v>
-      </c>
-      <c r="C427" t="n">
-        <v>7545</v>
-      </c>
-      <c r="D427" t="n">
-        <v>7545</v>
-      </c>
-      <c r="E427" t="n">
-        <v>7495</v>
-      </c>
-      <c r="F427" t="n">
-        <v>129.076</v>
-      </c>
-      <c r="G427" t="n">
-        <v>-4820.143304980002</v>
-      </c>
-      <c r="H427" t="n">
-        <v>0</v>
-      </c>
-      <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
-      <c r="L427" t="n">
-        <v>1</v>
-      </c>
-      <c r="M427" t="inlineStr"/>
-    </row>
-    <row r="428">
-      <c r="A428" s="1" t="n">
-        <v>426</v>
-      </c>
-      <c r="B428" t="n">
-        <v>7550</v>
-      </c>
-      <c r="C428" t="n">
-        <v>7565</v>
-      </c>
-      <c r="D428" t="n">
-        <v>7565</v>
-      </c>
-      <c r="E428" t="n">
-        <v>7500</v>
-      </c>
-      <c r="F428" t="n">
-        <v>99.4558</v>
-      </c>
-      <c r="G428" t="n">
-        <v>-4720.687504980002</v>
-      </c>
-      <c r="H428" t="n">
-        <v>0</v>
-      </c>
-      <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
-      <c r="L428" t="n">
-        <v>1</v>
-      </c>
-      <c r="M428" t="inlineStr"/>
-    </row>
-    <row r="429">
-      <c r="A429" s="1" t="n">
-        <v>427</v>
-      </c>
-      <c r="B429" t="n">
-        <v>7565</v>
-      </c>
-      <c r="C429" t="n">
-        <v>7665</v>
-      </c>
-      <c r="D429" t="n">
-        <v>7665</v>
-      </c>
-      <c r="E429" t="n">
-        <v>7505</v>
-      </c>
-      <c r="F429" t="n">
-        <v>23.6422</v>
-      </c>
-      <c r="G429" t="n">
-        <v>-4697.045304980002</v>
-      </c>
-      <c r="H429" t="n">
-        <v>0</v>
-      </c>
-      <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
-      <c r="L429" t="n">
-        <v>1</v>
-      </c>
-      <c r="M429" t="inlineStr"/>
-    </row>
-    <row r="430">
-      <c r="A430" s="1" t="n">
-        <v>428</v>
-      </c>
-      <c r="B430" t="n">
-        <v>7650</v>
-      </c>
-      <c r="C430" t="n">
-        <v>7650</v>
-      </c>
-      <c r="D430" t="n">
-        <v>7650</v>
-      </c>
-      <c r="E430" t="n">
-        <v>7650</v>
-      </c>
-      <c r="F430" t="n">
-        <v>0.6482</v>
-      </c>
-      <c r="G430" t="n">
-        <v>-4697.693504980001</v>
-      </c>
-      <c r="H430" t="n">
-        <v>0</v>
-      </c>
-      <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
-      <c r="L430" t="n">
-        <v>1</v>
-      </c>
-      <c r="M430" t="inlineStr"/>
-    </row>
-    <row r="431">
-      <c r="A431" s="1" t="n">
-        <v>429</v>
-      </c>
-      <c r="B431" t="n">
-        <v>7625</v>
-      </c>
-      <c r="C431" t="n">
-        <v>7685</v>
-      </c>
-      <c r="D431" t="n">
-        <v>7685</v>
-      </c>
-      <c r="E431" t="n">
-        <v>7620</v>
-      </c>
-      <c r="F431" t="n">
-        <v>24.5594</v>
-      </c>
-      <c r="G431" t="n">
-        <v>-4673.134104980001</v>
-      </c>
-      <c r="H431" t="n">
-        <v>0</v>
-      </c>
-      <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
-      <c r="L431" t="n">
-        <v>1</v>
-      </c>
-      <c r="M431" t="inlineStr"/>
-    </row>
-    <row r="432">
-      <c r="A432" s="1" t="n">
-        <v>430</v>
-      </c>
-      <c r="B432" t="n">
-        <v>7595</v>
-      </c>
-      <c r="C432" t="n">
-        <v>7500</v>
-      </c>
-      <c r="D432" t="n">
-        <v>7595</v>
-      </c>
-      <c r="E432" t="n">
-        <v>7500</v>
-      </c>
-      <c r="F432" t="n">
-        <v>278.5885</v>
-      </c>
-      <c r="G432" t="n">
-        <v>-4951.722604980001</v>
-      </c>
-      <c r="H432" t="n">
-        <v>0</v>
-      </c>
-      <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
-      <c r="L432" t="n">
-        <v>1</v>
-      </c>
-      <c r="M432" t="inlineStr"/>
-    </row>
-    <row r="433">
-      <c r="A433" s="1" t="n">
-        <v>431</v>
-      </c>
-      <c r="B433" t="n">
-        <v>7500</v>
-      </c>
-      <c r="C433" t="n">
-        <v>7590</v>
-      </c>
-      <c r="D433" t="n">
-        <v>7590</v>
-      </c>
-      <c r="E433" t="n">
-        <v>7500</v>
-      </c>
-      <c r="F433" t="n">
-        <v>57.77</v>
-      </c>
-      <c r="G433" t="n">
-        <v>-4893.952604980001</v>
-      </c>
-      <c r="H433" t="n">
-        <v>0</v>
-      </c>
-      <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
-      <c r="L433" t="n">
-        <v>1</v>
-      </c>
-      <c r="M433" t="inlineStr"/>
-    </row>
-    <row r="434">
-      <c r="A434" s="1" t="n">
-        <v>432</v>
-      </c>
-      <c r="B434" t="n">
-        <v>7505</v>
-      </c>
-      <c r="C434" t="n">
-        <v>7590</v>
-      </c>
-      <c r="D434" t="n">
-        <v>7595</v>
-      </c>
-      <c r="E434" t="n">
-        <v>7505</v>
-      </c>
-      <c r="F434" t="n">
-        <v>9.932</v>
-      </c>
-      <c r="G434" t="n">
-        <v>-4893.952604980001</v>
-      </c>
-      <c r="H434" t="n">
-        <v>0</v>
-      </c>
-      <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
-      <c r="L434" t="n">
-        <v>1</v>
-      </c>
-      <c r="M434" t="inlineStr"/>
-    </row>
-    <row r="435">
-      <c r="A435" s="1" t="n">
-        <v>433</v>
-      </c>
-      <c r="B435" t="n">
-        <v>7595</v>
-      </c>
-      <c r="C435" t="n">
-        <v>7570</v>
-      </c>
-      <c r="D435" t="n">
-        <v>7595</v>
-      </c>
-      <c r="E435" t="n">
-        <v>7570</v>
-      </c>
-      <c r="F435" t="n">
-        <v>239.48</v>
-      </c>
-      <c r="G435" t="n">
-        <v>-5133.43260498</v>
-      </c>
-      <c r="H435" t="n">
-        <v>0</v>
-      </c>
-      <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
-      <c r="L435" t="n">
-        <v>1</v>
-      </c>
-      <c r="M435" t="inlineStr"/>
-    </row>
-    <row r="436">
-      <c r="A436" s="1" t="n">
-        <v>434</v>
-      </c>
-      <c r="B436" t="n">
-        <v>7665</v>
-      </c>
-      <c r="C436" t="n">
-        <v>7635</v>
-      </c>
-      <c r="D436" t="n">
-        <v>7665</v>
-      </c>
-      <c r="E436" t="n">
-        <v>7595</v>
-      </c>
-      <c r="F436" t="n">
-        <v>181.3764</v>
-      </c>
-      <c r="G436" t="n">
-        <v>-4952.05620498</v>
-      </c>
-      <c r="H436" t="n">
-        <v>0</v>
-      </c>
-      <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
-      <c r="L436" t="n">
-        <v>1</v>
-      </c>
-      <c r="M436" t="inlineStr"/>
-    </row>
-    <row r="437">
-      <c r="A437" s="1" t="n">
-        <v>435</v>
-      </c>
-      <c r="B437" t="n">
-        <v>7610</v>
-      </c>
-      <c r="C437" t="n">
-        <v>7650</v>
-      </c>
-      <c r="D437" t="n">
-        <v>7650</v>
-      </c>
-      <c r="E437" t="n">
-        <v>7565</v>
-      </c>
-      <c r="F437" t="n">
-        <v>261.3661</v>
-      </c>
-      <c r="G437" t="n">
-        <v>-4690.69010498</v>
-      </c>
-      <c r="H437" t="n">
-        <v>0</v>
-      </c>
-      <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
-      <c r="L437" t="n">
-        <v>1</v>
-      </c>
-      <c r="M437" t="inlineStr"/>
-    </row>
-    <row r="438">
-      <c r="A438" s="1" t="n">
-        <v>436</v>
-      </c>
-      <c r="B438" t="n">
-        <v>7655</v>
-      </c>
-      <c r="C438" t="n">
-        <v>7655</v>
-      </c>
-      <c r="D438" t="n">
-        <v>7655</v>
-      </c>
-      <c r="E438" t="n">
-        <v>7655</v>
-      </c>
-      <c r="F438" t="n">
-        <v>170.2478</v>
-      </c>
-      <c r="G438" t="n">
-        <v>-4520.44230498</v>
-      </c>
-      <c r="H438" t="n">
-        <v>0</v>
-      </c>
-      <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
-      <c r="L438" t="n">
-        <v>1</v>
-      </c>
-      <c r="M438" t="inlineStr"/>
-    </row>
-    <row r="439">
-      <c r="A439" s="1" t="n">
-        <v>437</v>
-      </c>
-      <c r="B439" t="n">
-        <v>7655</v>
-      </c>
-      <c r="C439" t="n">
-        <v>7585</v>
-      </c>
-      <c r="D439" t="n">
-        <v>7655</v>
-      </c>
-      <c r="E439" t="n">
-        <v>7585</v>
-      </c>
-      <c r="F439" t="n">
-        <v>534.6377</v>
-      </c>
-      <c r="G439" t="n">
-        <v>-5055.08000498</v>
-      </c>
-      <c r="H439" t="n">
-        <v>0</v>
-      </c>
-      <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
-      <c r="L439" t="n">
-        <v>1</v>
-      </c>
-      <c r="M439" t="inlineStr"/>
-    </row>
-    <row r="440">
-      <c r="A440" s="1" t="n">
-        <v>438</v>
-      </c>
-      <c r="B440" t="n">
-        <v>7580</v>
-      </c>
-      <c r="C440" t="n">
-        <v>7570</v>
-      </c>
-      <c r="D440" t="n">
-        <v>7580</v>
-      </c>
-      <c r="E440" t="n">
-        <v>7570</v>
-      </c>
-      <c r="F440" t="n">
-        <v>50.1107</v>
-      </c>
-      <c r="G440" t="n">
-        <v>-5105.19070498</v>
-      </c>
-      <c r="H440" t="n">
-        <v>0</v>
-      </c>
-      <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
-      <c r="L440" t="n">
-        <v>1</v>
-      </c>
-      <c r="M440" t="inlineStr"/>
-    </row>
-    <row r="441">
-      <c r="A441" s="1" t="n">
-        <v>439</v>
-      </c>
-      <c r="B441" t="n">
-        <v>7670</v>
-      </c>
-      <c r="C441" t="n">
-        <v>7670</v>
-      </c>
-      <c r="D441" t="n">
-        <v>7670</v>
-      </c>
-      <c r="E441" t="n">
-        <v>7560</v>
-      </c>
-      <c r="F441" t="n">
-        <v>159.282</v>
-      </c>
-      <c r="G441" t="n">
-        <v>-4945.90870498</v>
-      </c>
-      <c r="H441" t="n">
-        <v>0</v>
-      </c>
-      <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
-      <c r="L441" t="n">
-        <v>1</v>
-      </c>
-      <c r="M441" t="inlineStr"/>
-    </row>
-    <row r="442">
-      <c r="A442" s="1" t="n">
-        <v>440</v>
-      </c>
-      <c r="B442" t="n">
-        <v>7565</v>
-      </c>
-      <c r="C442" t="n">
-        <v>7560</v>
-      </c>
-      <c r="D442" t="n">
-        <v>7670</v>
-      </c>
-      <c r="E442" t="n">
-        <v>7560</v>
-      </c>
-      <c r="F442" t="n">
-        <v>165.84</v>
-      </c>
-      <c r="G442" t="n">
-        <v>-5111.74870498</v>
-      </c>
-      <c r="H442" t="n">
-        <v>0</v>
-      </c>
-      <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
-      <c r="L442" t="n">
-        <v>1</v>
-      </c>
-      <c r="M442" t="inlineStr"/>
-    </row>
-    <row r="443">
-      <c r="A443" s="1" t="n">
-        <v>441</v>
-      </c>
-      <c r="B443" t="n">
-        <v>7560</v>
-      </c>
-      <c r="C443" t="n">
-        <v>7565</v>
-      </c>
-      <c r="D443" t="n">
-        <v>7665</v>
-      </c>
-      <c r="E443" t="n">
-        <v>7560</v>
-      </c>
-      <c r="F443" t="n">
-        <v>114.74</v>
-      </c>
-      <c r="G443" t="n">
-        <v>-4997.00870498</v>
-      </c>
-      <c r="H443" t="n">
-        <v>0</v>
-      </c>
-      <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
-      <c r="L443" t="n">
-        <v>1</v>
-      </c>
-      <c r="M443" t="inlineStr"/>
-    </row>
-    <row r="444">
-      <c r="A444" s="1" t="n">
-        <v>442</v>
-      </c>
-      <c r="B444" t="n">
-        <v>7565</v>
-      </c>
-      <c r="C444" t="n">
-        <v>7665</v>
-      </c>
-      <c r="D444" t="n">
-        <v>7665</v>
-      </c>
-      <c r="E444" t="n">
-        <v>7565</v>
-      </c>
-      <c r="F444" t="n">
-        <v>41.109</v>
-      </c>
-      <c r="G444" t="n">
-        <v>-4955.89970498</v>
-      </c>
-      <c r="H444" t="n">
-        <v>0</v>
-      </c>
-      <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
-      <c r="L444" t="n">
-        <v>1</v>
-      </c>
-      <c r="M444" t="inlineStr"/>
-    </row>
-    <row r="445">
-      <c r="A445" s="1" t="n">
-        <v>443</v>
-      </c>
-      <c r="B445" t="n">
-        <v>7570</v>
-      </c>
-      <c r="C445" t="n">
-        <v>7645</v>
-      </c>
-      <c r="D445" t="n">
-        <v>7645</v>
-      </c>
-      <c r="E445" t="n">
-        <v>7560</v>
-      </c>
-      <c r="F445" t="n">
-        <v>26.39</v>
-      </c>
-      <c r="G445" t="n">
-        <v>-4982.28970498</v>
-      </c>
-      <c r="H445" t="n">
-        <v>0</v>
-      </c>
-      <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
-      <c r="L445" t="n">
-        <v>1</v>
-      </c>
-      <c r="M445" t="inlineStr"/>
-    </row>
-    <row r="446">
-      <c r="A446" s="1" t="n">
-        <v>444</v>
-      </c>
-      <c r="B446" t="n">
-        <v>7565</v>
-      </c>
-      <c r="C446" t="n">
-        <v>7625</v>
-      </c>
-      <c r="D446" t="n">
-        <v>7640</v>
-      </c>
-      <c r="E446" t="n">
-        <v>7565</v>
-      </c>
-      <c r="F446" t="n">
-        <v>291.4632</v>
-      </c>
-      <c r="G446" t="n">
-        <v>-5273.75290498</v>
-      </c>
-      <c r="H446" t="n">
-        <v>0</v>
-      </c>
-      <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
-      <c r="L446" t="n">
-        <v>1</v>
-      </c>
-      <c r="M446" t="inlineStr"/>
-    </row>
-    <row r="447">
-      <c r="A447" s="1" t="n">
-        <v>445</v>
-      </c>
-      <c r="B447" t="n">
-        <v>7625</v>
-      </c>
-      <c r="C447" t="n">
-        <v>7620</v>
-      </c>
-      <c r="D447" t="n">
-        <v>7625</v>
-      </c>
-      <c r="E447" t="n">
-        <v>7620</v>
-      </c>
-      <c r="F447" t="n">
-        <v>430</v>
-      </c>
-      <c r="G447" t="n">
-        <v>-5703.75290498</v>
-      </c>
-      <c r="H447" t="n">
-        <v>0</v>
-      </c>
-      <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
-      <c r="L447" t="n">
-        <v>1</v>
-      </c>
-      <c r="M447" t="inlineStr"/>
-    </row>
-    <row r="448">
-      <c r="A448" s="1" t="n">
-        <v>446</v>
-      </c>
-      <c r="B448" t="n">
-        <v>7640</v>
-      </c>
-      <c r="C448" t="n">
-        <v>7660</v>
-      </c>
-      <c r="D448" t="n">
-        <v>7660</v>
-      </c>
-      <c r="E448" t="n">
-        <v>7640</v>
-      </c>
-      <c r="F448" t="n">
-        <v>220.907</v>
-      </c>
-      <c r="G448" t="n">
-        <v>-5482.84590498</v>
-      </c>
-      <c r="H448" t="n">
-        <v>0</v>
-      </c>
-      <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
-      <c r="L448" t="n">
-        <v>1</v>
-      </c>
-      <c r="M448" t="inlineStr"/>
-    </row>
-    <row r="449">
-      <c r="A449" s="1" t="n">
-        <v>447</v>
-      </c>
-      <c r="B449" t="n">
-        <v>7660</v>
-      </c>
-      <c r="C449" t="n">
-        <v>7670</v>
-      </c>
-      <c r="D449" t="n">
-        <v>7670</v>
-      </c>
-      <c r="E449" t="n">
-        <v>7660</v>
-      </c>
-      <c r="F449" t="n">
-        <v>161.3246</v>
-      </c>
-      <c r="G449" t="n">
-        <v>-5321.52130498</v>
-      </c>
-      <c r="H449" t="n">
-        <v>0</v>
-      </c>
-      <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
-      <c r="L449" t="n">
-        <v>1</v>
-      </c>
-      <c r="M449" t="inlineStr"/>
-    </row>
-    <row r="450">
-      <c r="A450" s="1" t="n">
-        <v>448</v>
-      </c>
-      <c r="B450" t="n">
-        <v>7670</v>
-      </c>
-      <c r="C450" t="n">
-        <v>7670</v>
-      </c>
-      <c r="D450" t="n">
-        <v>7670</v>
-      </c>
-      <c r="E450" t="n">
-        <v>7670</v>
-      </c>
-      <c r="F450" t="n">
-        <v>24.328</v>
-      </c>
-      <c r="G450" t="n">
-        <v>-5321.52130498</v>
-      </c>
-      <c r="H450" t="n">
-        <v>0</v>
-      </c>
-      <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
-      <c r="L450" t="n">
-        <v>1</v>
-      </c>
-      <c r="M450" t="inlineStr"/>
-    </row>
-    <row r="451">
-      <c r="A451" s="1" t="n">
-        <v>449</v>
-      </c>
-      <c r="B451" t="n">
-        <v>7670</v>
-      </c>
-      <c r="C451" t="n">
-        <v>7675</v>
-      </c>
-      <c r="D451" t="n">
-        <v>7675</v>
-      </c>
-      <c r="E451" t="n">
-        <v>7670</v>
-      </c>
-      <c r="F451" t="n">
-        <v>104.1048</v>
-      </c>
-      <c r="G451" t="n">
-        <v>-5217.41650498</v>
-      </c>
-      <c r="H451" t="n">
-        <v>0</v>
-      </c>
-      <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
-      <c r="L451" t="n">
-        <v>1</v>
-      </c>
-      <c r="M451" t="inlineStr"/>
-    </row>
-    <row r="452">
-      <c r="A452" s="1" t="n">
-        <v>450</v>
-      </c>
-      <c r="B452" t="n">
-        <v>7675</v>
-      </c>
-      <c r="C452" t="n">
-        <v>7675</v>
-      </c>
-      <c r="D452" t="n">
-        <v>7675</v>
-      </c>
-      <c r="E452" t="n">
-        <v>7675</v>
-      </c>
-      <c r="F452" t="n">
-        <v>27.3376</v>
-      </c>
-      <c r="G452" t="n">
-        <v>-5217.41650498</v>
-      </c>
-      <c r="H452" t="n">
-        <v>0</v>
-      </c>
-      <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
-      <c r="L452" t="n">
-        <v>1</v>
-      </c>
-      <c r="M452" t="inlineStr"/>
-    </row>
-    <row r="453">
-      <c r="A453" s="1" t="n">
-        <v>451</v>
-      </c>
-      <c r="B453" t="n">
-        <v>7680</v>
-      </c>
-      <c r="C453" t="n">
-        <v>7800</v>
-      </c>
-      <c r="D453" t="n">
-        <v>7800</v>
-      </c>
-      <c r="E453" t="n">
-        <v>7680</v>
-      </c>
-      <c r="F453" t="n">
-        <v>747.8775710800001</v>
-      </c>
-      <c r="G453" t="n">
-        <v>-4469.5389339</v>
-      </c>
-      <c r="H453" t="n">
-        <v>0</v>
-      </c>
-      <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
-      <c r="L453" t="n">
-        <v>1</v>
-      </c>
-      <c r="M453" t="inlineStr"/>
-    </row>
-    <row r="454">
-      <c r="A454" s="1" t="n">
-        <v>452</v>
-      </c>
-      <c r="B454" t="n">
-        <v>7705</v>
-      </c>
-      <c r="C454" t="n">
-        <v>7705</v>
-      </c>
-      <c r="D454" t="n">
-        <v>7705</v>
-      </c>
-      <c r="E454" t="n">
-        <v>7705</v>
-      </c>
-      <c r="F454" t="n">
-        <v>8.631</v>
-      </c>
-      <c r="G454" t="n">
-        <v>-4478.169933900001</v>
-      </c>
-      <c r="H454" t="n">
-        <v>0</v>
-      </c>
-      <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
-        <v>1</v>
-      </c>
-      <c r="M454" t="inlineStr"/>
+        <v>1.070366364270761</v>
+      </c>
+      <c r="M454" t="n">
+        <v>1.082105263157895</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" s="1" t="n">
@@ -15899,7 +16599,7 @@
         <v>-4782.8797339</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -16031,7 +16731,7 @@
         <v>-5104.3004339</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -16130,7 +16830,7 @@
         <v>-4702.114296340001</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -16163,7 +16863,7 @@
         <v>-4710.473996340001</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -16229,7 +16929,7 @@
         <v>-5029.553231790001</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -16262,7 +16962,7 @@
         <v>-5039.62233179</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -16295,7 +16995,7 @@
         <v>-4817.48643179</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -16427,7 +17127,7 @@
         <v>-3311.89692702</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16460,7 +17160,7 @@
         <v>-3318.375227020001</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -18209,7 +18909,7 @@
         <v>-3123.44882702</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -18242,7 +18942,7 @@
         <v>-3125.44882702</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -18275,7 +18975,7 @@
         <v>-3191.21882702</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -18803,7 +19503,7 @@
         <v>-3046.38402702</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18836,7 +19536,7 @@
         <v>-3146.25512702</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -18935,7 +19635,7 @@
         <v>-2995.90770249</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -19133,7 +19833,7 @@
         <v>-2178.55550249</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -19166,7 +19866,7 @@
         <v>-2178.55550249</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -19199,7 +19899,7 @@
         <v>-1929.35690249</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -19232,7 +19932,7 @@
         <v>-1929.35690249</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -19265,7 +19965,7 @@
         <v>-1929.35690249</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -19298,7 +19998,7 @@
         <v>-1978.93690249</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -19331,7 +20031,7 @@
         <v>-1818.50690249</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -19364,7 +20064,7 @@
         <v>-1935.60530249</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -19397,7 +20097,7 @@
         <v>-1620.309702490001</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19430,7 +20130,7 @@
         <v>-1620.309702490001</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
